--- a/lib-data.xlsx
+++ b/lib-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaszeluk\Documents\projekty\melvil-inkubator\melvil\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10F45E7-D8A8-473C-A79B-AD05201BCD35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97993B92-7E15-460A-BC81-D97CD736724A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="746">
   <si>
     <t>Lp.</t>
   </si>
@@ -537,9 +537,6 @@
   </si>
   <si>
     <t>Joshua Kerievsky</t>
-  </si>
-  <si>
-    <t>017529</t>
   </si>
   <si>
     <t>Analiza wartości przedsiębiorstwa</t>
@@ -2638,9 +2635,6 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="7" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2648,7 +2642,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2673,9 +2666,6 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="7" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2683,7 +2673,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2718,6 +2707,14 @@
     <xf numFmtId="49" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -3085,11 +3082,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J951"/>
+  <dimension ref="A1:J950"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A154" sqref="A154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3445,8 +3442,8 @@
       <c r="C17" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="D17" s="86" t="s">
-        <v>746</v>
+      <c r="D17" s="82" t="s">
+        <v>745</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -3650,18 +3647,18 @@
         <v>26</v>
       </c>
       <c r="B27" s="47" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C27" s="47" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="15"/>
+        <v>173</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
     </row>
@@ -3671,13 +3668,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="47" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C28" s="47" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -3692,13 +3689,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="C29" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="C29" s="47" t="s">
-        <v>178</v>
-      </c>
       <c r="D29" s="12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -3713,13 +3710,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="C30" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="C30" s="47" t="s">
-        <v>178</v>
-      </c>
       <c r="D30" s="12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -3734,13 +3731,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="47" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C31" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -3755,18 +3752,18 @@
         <v>31</v>
       </c>
       <c r="B32" s="47" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C32" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
+        <v>191</v>
+      </c>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="15"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
     </row>
@@ -3776,18 +3773,18 @@
         <v>32</v>
       </c>
       <c r="B33" s="47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C33" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="15"/>
+        <v>196</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
     </row>
@@ -3797,17 +3794,17 @@
         <v>33</v>
       </c>
       <c r="B34" s="47" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="C34" s="47" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="6"/>
+      <c r="G34" s="8"/>
       <c r="H34" s="6"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
@@ -3818,17 +3815,17 @@
         <v>34</v>
       </c>
       <c r="B35" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="C35" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="C35" s="47" t="s">
-        <v>201</v>
-      </c>
       <c r="D35" s="12" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="8"/>
+      <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
@@ -3839,39 +3836,39 @@
         <v>35</v>
       </c>
       <c r="B36" s="47" t="s">
+        <v>210</v>
+      </c>
+      <c r="C36" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="C36" s="47" t="s">
-        <v>201</v>
-      </c>
       <c r="D36" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
+        <v>212</v>
+      </c>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="15"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
     </row>
-    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="18">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B37" s="47" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C37" s="47" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="15"/>
+        <v>216</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
     </row>
@@ -3881,13 +3878,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="47" t="s">
-        <v>211</v>
+        <v>167</v>
       </c>
       <c r="C38" s="47" t="s">
-        <v>201</v>
+        <v>168</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -3902,17 +3899,17 @@
         <v>38</v>
       </c>
       <c r="B39" s="47" t="s">
-        <v>167</v>
+        <v>225</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>168</v>
+        <v>226</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
-      <c r="G39" s="6"/>
+      <c r="G39" s="8"/>
       <c r="H39" s="6"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
@@ -3923,17 +3920,17 @@
         <v>39</v>
       </c>
       <c r="B40" s="47" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C40" s="47" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
-      <c r="G40" s="8"/>
+      <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
@@ -3944,18 +3941,18 @@
         <v>40</v>
       </c>
       <c r="B41" s="47" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C41" s="47" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
+        <v>239</v>
+      </c>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="15"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
     </row>
@@ -3965,13 +3962,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="47" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C42" s="47" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
@@ -3986,18 +3983,18 @@
         <v>42</v>
       </c>
       <c r="B43" s="47" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C43" s="47" t="s">
-        <v>244</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
+        <v>249</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
       <c r="G43" s="8"/>
-      <c r="H43" s="15"/>
+      <c r="H43" s="6"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
     </row>
@@ -4007,13 +4004,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="47" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="C44" s="47" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
@@ -4028,17 +4025,17 @@
         <v>44</v>
       </c>
       <c r="B45" s="47" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C45" s="47" t="s">
-        <v>257</v>
-      </c>
-      <c r="D45" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="8"/>
+        <v>262</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="6"/>
       <c r="H45" s="6"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
@@ -4049,17 +4046,17 @@
         <v>45</v>
       </c>
       <c r="B46" s="47" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C46" s="47" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
-      <c r="G46" s="6"/>
+      <c r="G46" s="8"/>
       <c r="H46" s="6"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
@@ -4070,18 +4067,18 @@
         <v>46</v>
       </c>
       <c r="B47" s="47" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C47" s="47" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
+        <v>274</v>
+      </c>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
       <c r="G47" s="8"/>
-      <c r="H47" s="6"/>
+      <c r="H47" s="15"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
     </row>
@@ -4091,18 +4088,18 @@
         <v>47</v>
       </c>
       <c r="B48" s="47" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="C48" s="47" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="15"/>
+        <v>282</v>
+      </c>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
     </row>
@@ -4112,13 +4109,11 @@
         <v>48</v>
       </c>
       <c r="B49" s="47" t="s">
-        <v>280</v>
-      </c>
-      <c r="C49" s="47" t="s">
-        <v>282</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="C49" s="47"/>
       <c r="D49" s="12" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
@@ -4133,11 +4128,11 @@
         <v>49</v>
       </c>
       <c r="B50" s="47" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C50" s="47"/>
       <c r="D50" s="12" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
@@ -4152,11 +4147,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="47" t="s">
-        <v>292</v>
-      </c>
-      <c r="C51" s="47"/>
+        <v>295</v>
+      </c>
+      <c r="C51" s="47" t="s">
+        <v>296</v>
+      </c>
       <c r="D51" s="12" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
@@ -4171,13 +4168,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="47" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C52" s="47" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
@@ -4192,13 +4189,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="47" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C53" s="47" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
@@ -4213,13 +4210,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="47" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C54" s="47" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
@@ -4234,18 +4231,14 @@
         <v>54</v>
       </c>
       <c r="B55" s="47" t="s">
-        <v>310</v>
-      </c>
-      <c r="C55" s="47" t="s">
-        <v>311</v>
-      </c>
-      <c r="D55" s="12" t="s">
         <v>312</v>
       </c>
+      <c r="C55" s="47"/>
+      <c r="D55" s="12"/>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="17"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
     </row>
@@ -4255,14 +4248,18 @@
         <v>55</v>
       </c>
       <c r="B56" s="47" t="s">
-        <v>313</v>
-      </c>
-      <c r="C56" s="47"/>
-      <c r="D56" s="12"/>
+        <v>319</v>
+      </c>
+      <c r="C56" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>321</v>
+      </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="17"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
     </row>
@@ -4272,13 +4269,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="47" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C57" s="47" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
@@ -4293,13 +4290,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="47" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C58" s="47" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
@@ -4314,13 +4311,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="47" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C59" s="47" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
@@ -4335,13 +4332,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="47" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C60" s="47" t="s">
-        <v>330</v>
+        <v>249</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
@@ -4356,18 +4353,18 @@
         <v>60</v>
       </c>
       <c r="B61" s="47" t="s">
-        <v>332</v>
+        <v>283</v>
       </c>
       <c r="C61" s="47" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="D61" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="15"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
     </row>
@@ -4377,10 +4374,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="47" t="s">
+        <v>283</v>
+      </c>
+      <c r="C62" s="47" t="s">
         <v>284</v>
-      </c>
-      <c r="C62" s="47" t="s">
-        <v>285</v>
       </c>
       <c r="D62" s="12" t="s">
         <v>334</v>
@@ -4398,13 +4395,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="47" t="s">
-        <v>284</v>
+        <v>335</v>
       </c>
       <c r="C63" s="47" t="s">
-        <v>285</v>
+        <v>336</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E63" s="14"/>
       <c r="F63" s="14"/>
@@ -4419,18 +4416,18 @@
         <v>63</v>
       </c>
       <c r="B64" s="47" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C64" s="47" t="s">
-        <v>337</v>
-      </c>
-      <c r="D64" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="15"/>
+        <v>339</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="E64" s="9"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
     </row>
@@ -4440,16 +4437,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="47" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C65" s="47" t="s">
-        <v>340</v>
-      </c>
-      <c r="D65" s="16" t="s">
-        <v>341</v>
-      </c>
-      <c r="E65" s="9"/>
-      <c r="F65" s="19"/>
+        <v>249</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
       <c r="I65" s="4"/>
@@ -4461,13 +4458,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="47" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C66" s="47" t="s">
-        <v>250</v>
+        <v>344</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
@@ -4482,10 +4479,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="47" t="s">
+        <v>343</v>
+      </c>
+      <c r="C67" s="47" t="s">
         <v>344</v>
-      </c>
-      <c r="C67" s="47" t="s">
-        <v>345</v>
       </c>
       <c r="D67" s="12" t="s">
         <v>346</v>
@@ -4503,13 +4500,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="47" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C68" s="47" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
@@ -4524,17 +4521,17 @@
         <v>68</v>
       </c>
       <c r="B69" s="47" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C69" s="47" t="s">
-        <v>350</v>
-      </c>
-      <c r="D69" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="6"/>
+        <v>352</v>
+      </c>
+      <c r="D69" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="8"/>
       <c r="H69" s="6"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
@@ -4545,17 +4542,17 @@
         <v>69</v>
       </c>
       <c r="B70" s="47" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C70" s="47" t="s">
-        <v>353</v>
-      </c>
-      <c r="D70" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="8"/>
+        <v>355</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="6"/>
       <c r="H70" s="6"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
@@ -4566,13 +4563,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="47" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C71" s="47" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
@@ -4586,14 +4583,14 @@
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="B72" s="47" t="s">
-        <v>358</v>
+      <c r="B72" s="48" t="s">
+        <v>360</v>
       </c>
       <c r="C72" s="47" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
@@ -4607,14 +4604,14 @@
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="B73" s="48" t="s">
-        <v>361</v>
+      <c r="B73" s="47" t="s">
+        <v>364</v>
       </c>
       <c r="C73" s="47" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
@@ -4629,13 +4626,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="47" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C74" s="47" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
@@ -4650,13 +4647,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="47" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C75" s="47" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
@@ -4671,13 +4668,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="47" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C76" s="47" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
@@ -4692,13 +4689,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="47" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C77" s="47" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
@@ -4713,17 +4710,17 @@
         <v>77</v>
       </c>
       <c r="B78" s="47" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C78" s="47" t="s">
-        <v>378</v>
-      </c>
-      <c r="D78" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="6"/>
+        <v>381</v>
+      </c>
+      <c r="D78" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="8"/>
       <c r="H78" s="6"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
@@ -4734,17 +4731,17 @@
         <v>78</v>
       </c>
       <c r="B79" s="47" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C79" s="47" t="s">
-        <v>382</v>
-      </c>
-      <c r="D79" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="8"/>
+        <v>384</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="6"/>
       <c r="H79" s="6"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
@@ -4755,13 +4752,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="47" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C80" s="47" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
@@ -4776,13 +4773,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="47" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C81" s="47" t="s">
-        <v>388</v>
+        <v>243</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
@@ -4797,13 +4794,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="47" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C82" s="47" t="s">
-        <v>244</v>
+        <v>393</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
@@ -4818,13 +4815,11 @@
         <v>82</v>
       </c>
       <c r="B83" s="47" t="s">
-        <v>393</v>
-      </c>
-      <c r="C83" s="47" t="s">
-        <v>394</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="C83" s="47"/>
       <c r="D83" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
@@ -4838,12 +4833,14 @@
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="B84" s="47" t="s">
-        <v>396</v>
-      </c>
-      <c r="C84" s="47"/>
+      <c r="B84" s="48" t="s">
+        <v>398</v>
+      </c>
+      <c r="C84" s="47" t="s">
+        <v>399</v>
+      </c>
       <c r="D84" s="12" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
@@ -4857,14 +4854,14 @@
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="B85" s="48" t="s">
-        <v>399</v>
+      <c r="B85" s="47" t="s">
+        <v>401</v>
       </c>
       <c r="C85" s="47" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
@@ -4879,10 +4876,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="47" t="s">
+        <v>401</v>
+      </c>
+      <c r="C86" s="47" t="s">
         <v>402</v>
-      </c>
-      <c r="C86" s="47" t="s">
-        <v>403</v>
       </c>
       <c r="D86" s="12" t="s">
         <v>404</v>
@@ -4900,13 +4897,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="47" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C87" s="47" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
@@ -4921,13 +4918,13 @@
         <v>87</v>
       </c>
       <c r="B88" s="47" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C88" s="47" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
@@ -4942,13 +4939,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="47" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C89" s="47" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
@@ -4963,13 +4960,13 @@
         <v>89</v>
       </c>
       <c r="B90" s="47" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C90" s="47" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
@@ -4984,13 +4981,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="47" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C91" s="47" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
@@ -5004,19 +5001,19 @@
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="B92" s="47" t="s">
-        <v>418</v>
+      <c r="B92" s="49" t="s">
+        <v>420</v>
       </c>
       <c r="C92" s="47" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>420</v>
-      </c>
-      <c r="E92" s="5"/>
-      <c r="F92" s="5"/>
+        <v>423</v>
+      </c>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
       <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
+      <c r="H92" s="15"/>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
     </row>
@@ -5025,19 +5022,19 @@
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="B93" s="49" t="s">
-        <v>421</v>
+      <c r="B93" s="47" t="s">
+        <v>424</v>
       </c>
       <c r="C93" s="47" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>424</v>
-      </c>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
+        <v>426</v>
+      </c>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
       <c r="G93" s="6"/>
-      <c r="H93" s="15"/>
+      <c r="H93" s="6"/>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
     </row>
@@ -5047,17 +5044,15 @@
         <v>93</v>
       </c>
       <c r="B94" s="47" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C94" s="47" t="s">
-        <v>426</v>
-      </c>
-      <c r="D94" s="12" t="s">
-        <v>427</v>
-      </c>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="6"/>
+        <v>428</v>
+      </c>
+      <c r="D94" s="16"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="8"/>
       <c r="H94" s="6"/>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
@@ -5068,15 +5063,15 @@
         <v>94</v>
       </c>
       <c r="B95" s="47" t="s">
-        <v>428</v>
-      </c>
-      <c r="C95" s="47" t="s">
-        <v>429</v>
-      </c>
-      <c r="D95" s="16"/>
-      <c r="E95" s="4"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="8"/>
+        <v>430</v>
+      </c>
+      <c r="C95" s="47"/>
+      <c r="D95" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="6"/>
       <c r="H95" s="6"/>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
@@ -5087,11 +5082,11 @@
         <v>95</v>
       </c>
       <c r="B96" s="47" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C96" s="47"/>
       <c r="D96" s="12" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
@@ -5106,16 +5101,16 @@
         <v>96</v>
       </c>
       <c r="B97" s="47" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C97" s="47"/>
       <c r="D97" s="12" t="s">
-        <v>434</v>
-      </c>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
+        <v>435</v>
+      </c>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="15"/>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
     </row>
@@ -5125,16 +5120,16 @@
         <v>97</v>
       </c>
       <c r="B98" s="47" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C98" s="47"/>
       <c r="D98" s="12" t="s">
-        <v>436</v>
-      </c>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c r="G98" s="8"/>
-      <c r="H98" s="15"/>
+        <v>438</v>
+      </c>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
     </row>
@@ -5144,11 +5139,13 @@
         <v>98</v>
       </c>
       <c r="B99" s="47" t="s">
-        <v>438</v>
-      </c>
-      <c r="C99" s="47"/>
+        <v>439</v>
+      </c>
+      <c r="C99" s="47" t="s">
+        <v>440</v>
+      </c>
       <c r="D99" s="12" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
@@ -5163,17 +5160,17 @@
         <v>99</v>
       </c>
       <c r="B100" s="47" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C100" s="47" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
-      <c r="G100" s="6"/>
+      <c r="G100" s="8"/>
       <c r="H100" s="6"/>
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
@@ -5184,17 +5181,17 @@
         <v>100</v>
       </c>
       <c r="B101" s="47" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C101" s="47" t="s">
-        <v>445</v>
+        <v>200</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>446</v>
-      </c>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="8"/>
+        <v>447</v>
+      </c>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c r="G101" s="6"/>
       <c r="H101" s="6"/>
       <c r="I101" s="4"/>
       <c r="J101" s="4"/>
@@ -5205,16 +5202,16 @@
         <v>101</v>
       </c>
       <c r="B102" s="47" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C102" s="47" t="s">
-        <v>201</v>
+        <v>450</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
+        <v>451</v>
+      </c>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
       <c r="G102" s="6"/>
       <c r="H102" s="6"/>
       <c r="I102" s="4"/>
@@ -5226,16 +5223,16 @@
         <v>102</v>
       </c>
       <c r="B103" s="47" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C103" s="47" t="s">
-        <v>451</v>
-      </c>
-      <c r="D103" s="12" t="s">
-        <v>452</v>
-      </c>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5"/>
+        <v>453</v>
+      </c>
+      <c r="D103" s="16" t="s">
+        <v>454</v>
+      </c>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
       <c r="G103" s="6"/>
       <c r="H103" s="6"/>
       <c r="I103" s="4"/>
@@ -5247,18 +5244,18 @@
         <v>103</v>
       </c>
       <c r="B104" s="47" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C104" s="47" t="s">
-        <v>454</v>
-      </c>
-      <c r="D104" s="16" t="s">
-        <v>455</v>
-      </c>
-      <c r="E104" s="4"/>
-      <c r="F104" s="4"/>
-      <c r="G104" s="6"/>
-      <c r="H104" s="6"/>
+        <v>456</v>
+      </c>
+      <c r="D104" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c r="G104" s="8"/>
+      <c r="H104" s="15"/>
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
     </row>
@@ -5268,17 +5265,17 @@
         <v>104</v>
       </c>
       <c r="B105" s="47" t="s">
+        <v>455</v>
+      </c>
+      <c r="C105" s="47" t="s">
         <v>456</v>
       </c>
-      <c r="C105" s="47" t="s">
-        <v>457</v>
-      </c>
       <c r="D105" s="12" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E105" s="14"/>
       <c r="F105" s="14"/>
-      <c r="G105" s="8"/>
+      <c r="G105" s="6"/>
       <c r="H105" s="15"/>
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
@@ -5289,18 +5286,18 @@
         <v>105</v>
       </c>
       <c r="B106" s="47" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="C106" s="47" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>460</v>
-      </c>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
+        <v>462</v>
+      </c>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
       <c r="G106" s="6"/>
-      <c r="H106" s="15"/>
+      <c r="H106" s="6"/>
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
     </row>
@@ -5310,13 +5307,13 @@
         <v>106</v>
       </c>
       <c r="B107" s="47" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C107" s="47" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
@@ -5331,13 +5328,13 @@
         <v>107</v>
       </c>
       <c r="B108" s="47" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C108" s="47" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
@@ -5352,13 +5349,13 @@
         <v>108</v>
       </c>
       <c r="B109" s="47" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C109" s="47" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
@@ -5373,13 +5370,13 @@
         <v>109</v>
       </c>
       <c r="B110" s="47" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C110" s="47" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
@@ -5394,13 +5391,13 @@
         <v>110</v>
       </c>
       <c r="B111" s="47" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C111" s="47" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
@@ -5415,13 +5412,13 @@
         <v>111</v>
       </c>
       <c r="B112" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="C112" s="47" t="s">
         <v>477</v>
       </c>
-      <c r="C112" s="47" t="s">
-        <v>478</v>
-      </c>
       <c r="D112" s="12" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
@@ -5436,13 +5433,13 @@
         <v>112</v>
       </c>
       <c r="B113" s="47" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C113" s="47" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
@@ -5457,13 +5454,13 @@
         <v>113</v>
       </c>
       <c r="B114" s="47" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C114" s="47" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
@@ -5478,18 +5475,18 @@
         <v>114</v>
       </c>
       <c r="B115" s="47" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C115" s="47" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>485</v>
-      </c>
-      <c r="E115" s="5"/>
-      <c r="F115" s="5"/>
-      <c r="G115" s="6"/>
-      <c r="H115" s="6"/>
+        <v>487</v>
+      </c>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c r="G115" s="8"/>
+      <c r="H115" s="15"/>
       <c r="I115" s="4"/>
       <c r="J115" s="4"/>
     </row>
@@ -5499,13 +5496,13 @@
         <v>115</v>
       </c>
       <c r="B116" s="47" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C116" s="47" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E116" s="14"/>
       <c r="F116" s="14"/>
@@ -5520,18 +5517,18 @@
         <v>116</v>
       </c>
       <c r="B117" s="47" t="s">
-        <v>489</v>
+        <v>343</v>
       </c>
       <c r="C117" s="47" t="s">
-        <v>490</v>
+        <v>344</v>
       </c>
       <c r="D117" s="12" t="s">
         <v>491</v>
       </c>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c r="G117" s="8"/>
-      <c r="H117" s="15"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="6"/>
       <c r="I117" s="4"/>
       <c r="J117" s="4"/>
     </row>
@@ -5541,13 +5538,13 @@
         <v>117</v>
       </c>
       <c r="B118" s="47" t="s">
-        <v>344</v>
+        <v>492</v>
       </c>
       <c r="C118" s="47" t="s">
-        <v>345</v>
+        <v>493</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
@@ -5562,13 +5559,13 @@
         <v>118</v>
       </c>
       <c r="B119" s="47" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C119" s="47" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D119" s="12" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
@@ -5583,54 +5580,52 @@
         <v>119</v>
       </c>
       <c r="B120" s="47" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C120" s="47" t="s">
-        <v>497</v>
-      </c>
-      <c r="D120" s="12" t="s">
-        <v>498</v>
-      </c>
-      <c r="E120" s="5"/>
-      <c r="F120" s="5"/>
-      <c r="G120" s="6"/>
-      <c r="H120" s="6"/>
+        <v>499</v>
+      </c>
+      <c r="D120" s="12"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c r="G120" s="8"/>
+      <c r="H120" s="15"/>
       <c r="I120" s="4"/>
       <c r="J120" s="4"/>
     </row>
-    <row r="121" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" s="37" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="18">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="B121" s="47" t="s">
-        <v>499</v>
+        <v>675</v>
       </c>
       <c r="C121" s="47" t="s">
-        <v>500</v>
-      </c>
-      <c r="D121" s="12"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c r="G121" s="8"/>
-      <c r="H121" s="15"/>
-      <c r="I121" s="4"/>
-      <c r="J121" s="4"/>
-    </row>
-    <row r="122" spans="1:10" s="37" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>676</v>
+      </c>
+      <c r="D121" s="16"/>
+      <c r="G121" s="38"/>
+      <c r="H121" s="38"/>
+    </row>
+    <row r="122" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="18">
         <f t="shared" si="1"/>
         <v>121</v>
       </c>
       <c r="B122" s="47" t="s">
-        <v>676</v>
+        <v>313</v>
       </c>
       <c r="C122" s="47" t="s">
-        <v>677</v>
-      </c>
-      <c r="D122" s="16"/>
-      <c r="G122" s="38"/>
-      <c r="H122" s="38"/>
+        <v>314</v>
+      </c>
+      <c r="D122" s="12"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="8"/>
+      <c r="H122" s="6"/>
+      <c r="I122" s="4"/>
+      <c r="J122" s="4"/>
     </row>
     <row r="123" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="18">
@@ -5638,10 +5633,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="47" t="s">
-        <v>314</v>
+        <v>500</v>
       </c>
       <c r="C123" s="47" t="s">
-        <v>315</v>
+        <v>501</v>
       </c>
       <c r="D123" s="12"/>
       <c r="E123" s="5"/>
@@ -5657,10 +5652,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="47" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C124" s="47" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D124" s="12"/>
       <c r="E124" s="5"/>
@@ -5676,10 +5671,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="47" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C125" s="47" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D125" s="12"/>
       <c r="E125" s="5"/>
@@ -5695,10 +5690,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="47" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C126" s="47" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D126" s="12"/>
       <c r="E126" s="5"/>
@@ -5714,12 +5709,14 @@
         <v>126</v>
       </c>
       <c r="B127" s="47" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C127" s="47" t="s">
-        <v>508</v>
-      </c>
-      <c r="D127" s="12"/>
+        <v>509</v>
+      </c>
+      <c r="D127" s="12" t="s">
+        <v>510</v>
+      </c>
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
       <c r="G127" s="8"/>
@@ -5733,18 +5730,18 @@
         <v>127</v>
       </c>
       <c r="B128" s="47" t="s">
-        <v>509</v>
+        <v>677</v>
       </c>
       <c r="C128" s="47" t="s">
-        <v>510</v>
-      </c>
-      <c r="D128" s="12" t="s">
-        <v>511</v>
-      </c>
-      <c r="E128" s="5"/>
-      <c r="F128" s="5"/>
-      <c r="G128" s="8"/>
-      <c r="H128" s="6"/>
+        <v>678</v>
+      </c>
+      <c r="D128" s="51" t="s">
+        <v>683</v>
+      </c>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
+      <c r="G128" s="6"/>
+      <c r="H128" s="15"/>
       <c r="I128" s="4"/>
       <c r="J128" s="4"/>
     </row>
@@ -5754,14 +5751,12 @@
         <v>128</v>
       </c>
       <c r="B129" s="47" t="s">
-        <v>678</v>
+        <v>511</v>
       </c>
       <c r="C129" s="47" t="s">
-        <v>679</v>
-      </c>
-      <c r="D129" s="51" t="s">
-        <v>684</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="D129" s="12"/>
       <c r="E129" s="14"/>
       <c r="F129" s="14"/>
       <c r="G129" s="6"/>
@@ -5778,7 +5773,7 @@
         <v>512</v>
       </c>
       <c r="C130" s="47" t="s">
-        <v>268</v>
+        <v>513</v>
       </c>
       <c r="D130" s="12"/>
       <c r="E130" s="14"/>
@@ -5790,20 +5785,22 @@
     </row>
     <row r="131" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="18">
-        <f t="shared" ref="A131:A152" si="2">A130+1</f>
+        <f t="shared" ref="A131:A151" si="2">A130+1</f>
         <v>130</v>
       </c>
       <c r="B131" s="47" t="s">
-        <v>513</v>
+        <v>452</v>
       </c>
       <c r="C131" s="47" t="s">
+        <v>453</v>
+      </c>
+      <c r="D131" s="16" t="s">
         <v>514</v>
       </c>
-      <c r="D131" s="12"/>
-      <c r="E131" s="14"/>
-      <c r="F131" s="14"/>
+      <c r="E131" s="4"/>
+      <c r="F131" s="4"/>
       <c r="G131" s="6"/>
-      <c r="H131" s="15"/>
+      <c r="H131" s="6"/>
       <c r="I131" s="4"/>
       <c r="J131" s="4"/>
     </row>
@@ -5813,16 +5810,16 @@
         <v>131</v>
       </c>
       <c r="B132" s="47" t="s">
-        <v>453</v>
+        <v>515</v>
       </c>
       <c r="C132" s="47" t="s">
-        <v>454</v>
-      </c>
-      <c r="D132" s="16" t="s">
-        <v>515</v>
-      </c>
-      <c r="E132" s="4"/>
-      <c r="F132" s="4"/>
+        <v>516</v>
+      </c>
+      <c r="D132" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
       <c r="G132" s="6"/>
       <c r="H132" s="6"/>
       <c r="I132" s="4"/>
@@ -5834,14 +5831,12 @@
         <v>132</v>
       </c>
       <c r="B133" s="47" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C133" s="47" t="s">
-        <v>517</v>
-      </c>
-      <c r="D133" s="12" t="s">
-        <v>518</v>
-      </c>
+        <v>519</v>
+      </c>
+      <c r="D133" s="12"/>
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
       <c r="G133" s="6"/>
@@ -5855,10 +5850,10 @@
         <v>133</v>
       </c>
       <c r="B134" s="47" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C134" s="47" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D134" s="12"/>
       <c r="E134" s="5"/>
@@ -5874,10 +5869,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="47" t="s">
+        <v>520</v>
+      </c>
+      <c r="C135" s="47" t="s">
         <v>521</v>
-      </c>
-      <c r="C135" s="47" t="s">
-        <v>522</v>
       </c>
       <c r="D135" s="12"/>
       <c r="E135" s="5"/>
@@ -5893,15 +5888,17 @@
         <v>135</v>
       </c>
       <c r="B136" s="47" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C136" s="47" t="s">
-        <v>522</v>
-      </c>
-      <c r="D136" s="12"/>
+        <v>523</v>
+      </c>
+      <c r="D136" s="12" t="s">
+        <v>524</v>
+      </c>
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
-      <c r="G136" s="6"/>
+      <c r="G136" s="8"/>
       <c r="H136" s="6"/>
       <c r="I136" s="4"/>
       <c r="J136" s="4"/>
@@ -5912,13 +5909,13 @@
         <v>136</v>
       </c>
       <c r="B137" s="47" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C137" s="47" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
@@ -5933,14 +5930,12 @@
         <v>137</v>
       </c>
       <c r="B138" s="47" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C138" s="47" t="s">
-        <v>527</v>
-      </c>
-      <c r="D138" s="12" t="s">
-        <v>528</v>
-      </c>
+        <v>529</v>
+      </c>
+      <c r="D138" s="12"/>
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
       <c r="G138" s="8"/>
@@ -5954,12 +5949,14 @@
         <v>138</v>
       </c>
       <c r="B139" s="47" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C139" s="47" t="s">
-        <v>530</v>
-      </c>
-      <c r="D139" s="12"/>
+        <v>531</v>
+      </c>
+      <c r="D139" s="12" t="s">
+        <v>532</v>
+      </c>
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
       <c r="G139" s="8"/>
@@ -5973,13 +5970,13 @@
         <v>139</v>
       </c>
       <c r="B140" s="47" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C140" s="47" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D140" s="12" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
@@ -5994,14 +5991,12 @@
         <v>140</v>
       </c>
       <c r="B141" s="47" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C141" s="47" t="s">
-        <v>535</v>
-      </c>
-      <c r="D141" s="12" t="s">
-        <v>536</v>
-      </c>
+        <v>537</v>
+      </c>
+      <c r="D141" s="12"/>
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
       <c r="G141" s="8"/>
@@ -6015,10 +6010,10 @@
         <v>141</v>
       </c>
       <c r="B142" s="47" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C142" s="47" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D142" s="12"/>
       <c r="E142" s="5"/>
@@ -6034,12 +6029,14 @@
         <v>142</v>
       </c>
       <c r="B143" s="47" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C143" s="47" t="s">
-        <v>540</v>
-      </c>
-      <c r="D143" s="12"/>
+        <v>541</v>
+      </c>
+      <c r="D143" s="12" t="s">
+        <v>542</v>
+      </c>
       <c r="E143" s="5"/>
       <c r="F143" s="5"/>
       <c r="G143" s="8"/>
@@ -6053,16 +6050,16 @@
         <v>143</v>
       </c>
       <c r="B144" s="47" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C144" s="47" t="s">
-        <v>542</v>
-      </c>
-      <c r="D144" s="12" t="s">
-        <v>543</v>
-      </c>
-      <c r="E144" s="5"/>
-      <c r="F144" s="5"/>
+        <v>544</v>
+      </c>
+      <c r="D144" s="16" t="s">
+        <v>545</v>
+      </c>
+      <c r="E144" s="4"/>
+      <c r="F144" s="4"/>
       <c r="G144" s="8"/>
       <c r="H144" s="6"/>
       <c r="I144" s="4"/>
@@ -6074,14 +6071,12 @@
         <v>144</v>
       </c>
       <c r="B145" s="47" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C145" s="47" t="s">
-        <v>545</v>
-      </c>
-      <c r="D145" s="16" t="s">
-        <v>546</v>
-      </c>
+        <v>547</v>
+      </c>
+      <c r="D145" s="16"/>
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
       <c r="G145" s="8"/>
@@ -6095,12 +6090,14 @@
         <v>145</v>
       </c>
       <c r="B146" s="47" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C146" s="47" t="s">
-        <v>548</v>
-      </c>
-      <c r="D146" s="16"/>
+        <v>549</v>
+      </c>
+      <c r="D146" s="16" t="s">
+        <v>550</v>
+      </c>
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
       <c r="G146" s="8"/>
@@ -6114,14 +6111,12 @@
         <v>146</v>
       </c>
       <c r="B147" s="47" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C147" s="47" t="s">
-        <v>550</v>
-      </c>
-      <c r="D147" s="16" t="s">
-        <v>551</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="D147" s="16"/>
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
       <c r="G147" s="8"/>
@@ -6135,10 +6130,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="47" t="s">
-        <v>552</v>
+        <v>427</v>
       </c>
       <c r="C148" s="47" t="s">
-        <v>553</v>
+        <v>428</v>
       </c>
       <c r="D148" s="16"/>
       <c r="E148" s="4"/>
@@ -6148,40 +6143,42 @@
       <c r="I148" s="4"/>
       <c r="J148" s="4"/>
     </row>
-    <row r="149" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="18">
         <f t="shared" si="2"/>
         <v>148</v>
       </c>
-      <c r="B149" s="47" t="s">
-        <v>428</v>
+      <c r="B149" s="50" t="s">
+        <v>553</v>
       </c>
       <c r="C149" s="47" t="s">
-        <v>429</v>
+        <v>679</v>
       </c>
       <c r="D149" s="16"/>
-      <c r="E149" s="4"/>
-      <c r="F149" s="4"/>
-      <c r="G149" s="8"/>
-      <c r="H149" s="6"/>
-      <c r="I149" s="4"/>
-      <c r="J149" s="4"/>
-    </row>
-    <row r="150" spans="1:10" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G149" s="41"/>
+      <c r="H149" s="41"/>
+      <c r="I149" s="40"/>
+    </row>
+    <row r="150" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="18">
         <f t="shared" si="2"/>
         <v>149</v>
       </c>
-      <c r="B150" s="50" t="s">
-        <v>554</v>
+      <c r="B150" s="47" t="s">
+        <v>452</v>
       </c>
       <c r="C150" s="47" t="s">
+        <v>453</v>
+      </c>
+      <c r="D150" s="16" t="s">
         <v>680</v>
       </c>
-      <c r="D150" s="16"/>
-      <c r="G150" s="41"/>
-      <c r="H150" s="41"/>
-      <c r="I150" s="40"/>
+      <c r="E150" s="4"/>
+      <c r="F150" s="4"/>
+      <c r="G150" s="8"/>
+      <c r="H150" s="8"/>
+      <c r="I150" s="4"/>
+      <c r="J150" s="4"/>
     </row>
     <row r="151" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="18">
@@ -6189,14 +6186,12 @@
         <v>150</v>
       </c>
       <c r="B151" s="47" t="s">
-        <v>453</v>
+        <v>681</v>
       </c>
       <c r="C151" s="47" t="s">
-        <v>454</v>
-      </c>
-      <c r="D151" s="16" t="s">
-        <v>681</v>
-      </c>
+        <v>682</v>
+      </c>
+      <c r="D151" s="16"/>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
       <c r="G151" s="8"/>
@@ -6205,16 +6200,9 @@
       <c r="J151" s="4"/>
     </row>
     <row r="152" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A152" s="18">
-        <f t="shared" si="2"/>
-        <v>151</v>
-      </c>
-      <c r="B152" s="47" t="s">
-        <v>682</v>
-      </c>
-      <c r="C152" s="47" t="s">
-        <v>683</v>
-      </c>
+      <c r="A152" s="18"/>
+      <c r="B152" s="11"/>
+      <c r="C152" s="11"/>
       <c r="D152" s="16"/>
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
@@ -14720,16 +14708,10 @@
       <c r="J860" s="4"/>
     </row>
     <row r="861" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A861" s="18"/>
-      <c r="B861" s="11"/>
-      <c r="C861" s="11"/>
-      <c r="D861" s="16"/>
-      <c r="E861" s="4"/>
-      <c r="F861" s="4"/>
-      <c r="G861" s="8"/>
-      <c r="H861" s="8"/>
-      <c r="I861" s="4"/>
-      <c r="J861" s="4"/>
+      <c r="A861" s="24"/>
+      <c r="D861" s="26"/>
+      <c r="G861" s="24"/>
+      <c r="H861" s="24"/>
     </row>
     <row r="862" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A862" s="24"/>
@@ -15264,12 +15246,6 @@
       <c r="D950" s="26"/>
       <c r="G950" s="24"/>
       <c r="H950" s="24"/>
-    </row>
-    <row r="951" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A951" s="24"/>
-      <c r="D951" s="26"/>
-      <c r="G951" s="24"/>
-      <c r="H951" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15312,16 +15288,16 @@
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="84">
+      <c r="A2" s="80">
         <v>1</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="86" t="s">
+      <c r="D2" s="82" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="6"/>
@@ -15329,17 +15305,17 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="84">
+      <c r="A3" s="80">
         <f t="shared" ref="A3:A66" si="0">A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="82" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="6"/>
@@ -15347,17 +15323,17 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="84">
+      <c r="A4" s="80">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="86" t="s">
+      <c r="D4" s="82" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="6"/>
@@ -15365,17 +15341,17 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="84">
+      <c r="A5" s="80">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="85" t="s">
+      <c r="C5" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="86" t="s">
+      <c r="D5" s="82" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="6"/>
@@ -15383,17 +15359,17 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="84">
+      <c r="A6" s="80">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="86" t="s">
+      <c r="D6" s="82" t="s">
         <v>30</v>
       </c>
       <c r="E6" s="6"/>
@@ -15401,17 +15377,17 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="84">
+      <c r="A7" s="80">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="85" t="s">
+      <c r="C7" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="86" t="s">
+      <c r="D7" s="82" t="s">
         <v>36</v>
       </c>
       <c r="E7" s="6"/>
@@ -15419,14 +15395,14 @@
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="84">
+      <c r="A8" s="80">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="85" t="s">
+      <c r="C8" s="81" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="52" t="s">
@@ -15437,17 +15413,17 @@
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="84">
+      <c r="A9" s="80">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="85" t="s">
+      <c r="C9" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="86" t="s">
+      <c r="D9" s="82" t="s">
         <v>45</v>
       </c>
       <c r="E9" s="6"/>
@@ -15455,17 +15431,17 @@
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="84">
+      <c r="A10" s="80">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="85" t="s">
+      <c r="B10" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="85" t="s">
+      <c r="C10" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="86" t="s">
+      <c r="D10" s="82" t="s">
         <v>49</v>
       </c>
       <c r="E10" s="6"/>
@@ -15473,17 +15449,17 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="84">
+      <c r="A11" s="80">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="85" t="s">
+      <c r="B11" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="85" t="s">
+      <c r="C11" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="86" t="s">
+      <c r="D11" s="82" t="s">
         <v>53</v>
       </c>
       <c r="E11" s="6"/>
@@ -15491,17 +15467,17 @@
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="84">
+      <c r="A12" s="80">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="85" t="s">
+      <c r="B12" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="85" t="s">
+      <c r="C12" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="86" t="s">
+      <c r="D12" s="82" t="s">
         <v>60</v>
       </c>
       <c r="E12" s="6"/>
@@ -15509,17 +15485,17 @@
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="84">
+      <c r="A13" s="80">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="85" t="s">
+      <c r="B13" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="85" t="s">
+      <c r="C13" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="86" t="s">
+      <c r="D13" s="82" t="s">
         <v>64</v>
       </c>
       <c r="E13" s="6"/>
@@ -15527,17 +15503,17 @@
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="84">
+      <c r="A14" s="80">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="85" t="s">
+      <c r="B14" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="85" t="s">
+      <c r="C14" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="86" t="s">
+      <c r="D14" s="82" t="s">
         <v>72</v>
       </c>
       <c r="E14" s="6"/>
@@ -15545,17 +15521,17 @@
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="84">
+      <c r="A15" s="80">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="85" t="s">
+      <c r="B15" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="85" t="s">
+      <c r="C15" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="86" t="s">
+      <c r="D15" s="82" t="s">
         <v>76</v>
       </c>
       <c r="E15" s="6"/>
@@ -15563,17 +15539,17 @@
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="84">
+      <c r="A16" s="80">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="85" t="s">
+      <c r="B16" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="85" t="s">
+      <c r="C16" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="86" t="s">
+      <c r="D16" s="82" t="s">
         <v>80</v>
       </c>
       <c r="E16" s="6"/>
@@ -15581,17 +15557,17 @@
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="84">
+      <c r="A17" s="80">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="85" t="s">
+      <c r="B17" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="85" t="s">
+      <c r="C17" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="86" t="s">
+      <c r="D17" s="82" t="s">
         <v>84</v>
       </c>
       <c r="E17" s="6"/>
@@ -15599,17 +15575,17 @@
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="84">
+      <c r="A18" s="80">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="85" t="s">
+      <c r="B18" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="85" t="s">
+      <c r="C18" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="86" t="s">
+      <c r="D18" s="82" t="s">
         <v>89</v>
       </c>
       <c r="E18" s="6"/>
@@ -15617,15 +15593,15 @@
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="84">
+      <c r="A19" s="80">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="85" t="s">
+      <c r="B19" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="C19" s="85"/>
-      <c r="D19" s="86" t="s">
+      <c r="C19" s="81"/>
+      <c r="D19" s="82" t="s">
         <v>97</v>
       </c>
       <c r="E19" s="6"/>
@@ -15633,17 +15609,17 @@
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="84">
+      <c r="A20" s="80">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="85" t="s">
+      <c r="B20" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="85" t="s">
+      <c r="C20" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="D20" s="86" t="s">
+      <c r="D20" s="82" t="s">
         <v>100</v>
       </c>
       <c r="E20" s="6"/>
@@ -15651,33 +15627,33 @@
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="84">
+      <c r="A21" s="80">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="85" t="s">
+      <c r="B21" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="C21" s="85" t="s">
+      <c r="C21" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="D21" s="86"/>
+      <c r="D21" s="82"/>
       <c r="E21" s="6"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="84">
+      <c r="A22" s="80">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="85" t="s">
+      <c r="B22" s="81" t="s">
         <v>103</v>
       </c>
-      <c r="C22" s="85" t="s">
+      <c r="C22" s="81" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="86" t="s">
+      <c r="D22" s="82" t="s">
         <v>105</v>
       </c>
       <c r="E22" s="6"/>
@@ -15685,17 +15661,17 @@
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="84">
+      <c r="A23" s="80">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="85" t="s">
+      <c r="B23" s="81" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="85" t="s">
+      <c r="C23" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="D23" s="86" t="s">
+      <c r="D23" s="82" t="s">
         <v>108</v>
       </c>
       <c r="E23" s="6"/>
@@ -15703,17 +15679,17 @@
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="84">
+      <c r="A24" s="80">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="85" t="s">
+      <c r="B24" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="C24" s="85" t="s">
+      <c r="C24" s="81" t="s">
         <v>110</v>
       </c>
-      <c r="D24" s="86" t="s">
+      <c r="D24" s="82" t="s">
         <v>111</v>
       </c>
       <c r="E24" s="6"/>
@@ -15721,17 +15697,17 @@
       <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="84">
+      <c r="A25" s="80">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="85" t="s">
+      <c r="B25" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="C25" s="85" t="s">
+      <c r="C25" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="D25" s="86" t="s">
+      <c r="D25" s="82" t="s">
         <v>117</v>
       </c>
       <c r="E25" s="6"/>
@@ -15739,33 +15715,33 @@
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="84">
+      <c r="A26" s="80">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="85" t="s">
+      <c r="B26" s="81" t="s">
         <v>121</v>
       </c>
-      <c r="C26" s="85" t="s">
+      <c r="C26" s="81" t="s">
         <v>122</v>
       </c>
-      <c r="D26" s="86"/>
+      <c r="D26" s="82"/>
       <c r="E26" s="6"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="84">
+      <c r="A27" s="80">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="85" t="s">
+      <c r="B27" s="81" t="s">
         <v>123</v>
       </c>
-      <c r="C27" s="85" t="s">
+      <c r="C27" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="D27" s="86" t="s">
+      <c r="D27" s="82" t="s">
         <v>125</v>
       </c>
       <c r="E27" s="6"/>
@@ -15773,17 +15749,17 @@
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="84">
+      <c r="A28" s="80">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="85" t="s">
+      <c r="B28" s="81" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="85" t="s">
+      <c r="C28" s="81" t="s">
         <v>127</v>
       </c>
-      <c r="D28" s="86" t="s">
+      <c r="D28" s="82" t="s">
         <v>128</v>
       </c>
       <c r="E28" s="6"/>
@@ -15791,17 +15767,17 @@
       <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="84">
+      <c r="A29" s="80">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="85" t="s">
+      <c r="B29" s="81" t="s">
         <v>132</v>
       </c>
-      <c r="C29" s="85" t="s">
+      <c r="C29" s="81" t="s">
         <v>133</v>
       </c>
-      <c r="D29" s="86" t="s">
+      <c r="D29" s="82" t="s">
         <v>134</v>
       </c>
       <c r="E29" s="6"/>
@@ -15809,53 +15785,53 @@
       <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="84">
+      <c r="A30" s="80">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="85" t="s">
+      <c r="B30" s="81" t="s">
         <v>138</v>
       </c>
-      <c r="C30" s="85" t="s">
+      <c r="C30" s="81" t="s">
         <v>139</v>
       </c>
       <c r="D30" s="52" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="9"/>
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="84">
+      <c r="A31" s="80">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="85" t="s">
+      <c r="B31" s="81" t="s">
         <v>143</v>
       </c>
-      <c r="C31" s="85" t="s">
+      <c r="C31" s="81" t="s">
         <v>144</v>
       </c>
-      <c r="D31" s="86" t="s">
-        <v>738</v>
+      <c r="D31" s="82" t="s">
+        <v>737</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="84">
+      <c r="A32" s="80">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="85" t="s">
+      <c r="B32" s="81" t="s">
         <v>145</v>
       </c>
-      <c r="C32" s="85" t="s">
+      <c r="C32" s="81" t="s">
         <v>146</v>
       </c>
-      <c r="D32" s="86" t="s">
+      <c r="D32" s="82" t="s">
         <v>147</v>
       </c>
       <c r="E32" s="6"/>
@@ -15863,17 +15839,17 @@
       <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="84">
+      <c r="A33" s="80">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" s="85" t="s">
+      <c r="B33" s="81" t="s">
         <v>151</v>
       </c>
-      <c r="C33" s="85" t="s">
+      <c r="C33" s="81" t="s">
         <v>152</v>
       </c>
-      <c r="D33" s="86" t="s">
+      <c r="D33" s="82" t="s">
         <v>153</v>
       </c>
       <c r="E33" s="6"/>
@@ -15881,17 +15857,17 @@
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="84">
+      <c r="A34" s="80">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34" s="85" t="s">
+      <c r="B34" s="81" t="s">
         <v>154</v>
       </c>
-      <c r="C34" s="85" t="s">
+      <c r="C34" s="81" t="s">
         <v>155</v>
       </c>
-      <c r="D34" s="86" t="s">
+      <c r="D34" s="82" t="s">
         <v>156</v>
       </c>
       <c r="E34" s="6"/>
@@ -15899,17 +15875,17 @@
       <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="84">
+      <c r="A35" s="80">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" s="85" t="s">
+      <c r="B35" s="81" t="s">
         <v>159</v>
       </c>
-      <c r="C35" s="85" t="s">
+      <c r="C35" s="81" t="s">
         <v>155</v>
       </c>
-      <c r="D35" s="86" t="s">
+      <c r="D35" s="82" t="s">
         <v>161</v>
       </c>
       <c r="E35" s="6"/>
@@ -15917,319 +15893,319 @@
       <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="84">
+      <c r="A36" s="80">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" s="85" t="s">
+      <c r="B36" s="81" t="s">
         <v>163</v>
       </c>
-      <c r="C36" s="85" t="s">
+      <c r="C36" s="81" t="s">
         <v>144</v>
       </c>
-      <c r="D36" s="86" t="s">
-        <v>739</v>
+      <c r="D36" s="82" t="s">
+        <v>738</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="84">
+      <c r="A37" s="80">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37" s="85" t="s">
+      <c r="B37" s="81" t="s">
+        <v>169</v>
+      </c>
+      <c r="C37" s="81" t="s">
         <v>170</v>
       </c>
-      <c r="C37" s="85" t="s">
-        <v>171</v>
-      </c>
-      <c r="D37" s="86" t="s">
-        <v>740</v>
+      <c r="D37" s="82" t="s">
+        <v>739</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="84">
+      <c r="A38" s="80">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B38" s="85" t="s">
+      <c r="B38" s="81" t="s">
+        <v>174</v>
+      </c>
+      <c r="C38" s="81" t="s">
         <v>175</v>
       </c>
-      <c r="C38" s="85" t="s">
-        <v>176</v>
-      </c>
-      <c r="D38" s="86" t="s">
-        <v>741</v>
+      <c r="D38" s="82" t="s">
+        <v>740</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
     </row>
     <row r="39" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="84">
+      <c r="A39" s="80">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B39" s="85" t="s">
-        <v>180</v>
-      </c>
-      <c r="C39" s="85" t="s">
-        <v>182</v>
-      </c>
-      <c r="D39" s="86" t="s">
-        <v>742</v>
+      <c r="B39" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="C39" s="81" t="s">
+        <v>181</v>
+      </c>
+      <c r="D39" s="82" t="s">
+        <v>741</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="84">
+      <c r="A40" s="80">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B40" s="85" t="s">
+      <c r="B40" s="81" t="s">
+        <v>184</v>
+      </c>
+      <c r="C40" s="81" t="s">
         <v>185</v>
       </c>
-      <c r="C40" s="85" t="s">
+      <c r="D40" s="82" t="s">
         <v>186</v>
-      </c>
-      <c r="D40" s="86" t="s">
-        <v>187</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
     </row>
     <row r="41" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="84">
+      <c r="A41" s="80">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B41" s="85" t="s">
+      <c r="B41" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="C41" s="81" t="s">
         <v>189</v>
       </c>
-      <c r="C41" s="85" t="s">
-        <v>190</v>
-      </c>
-      <c r="D41" s="86" t="s">
-        <v>743</v>
+      <c r="D41" s="82" t="s">
+        <v>742</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="84">
+      <c r="A42" s="80">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B42" s="85" t="s">
+      <c r="B42" s="81" t="s">
+        <v>192</v>
+      </c>
+      <c r="C42" s="81" t="s">
         <v>193</v>
       </c>
-      <c r="C42" s="85" t="s">
-        <v>194</v>
-      </c>
-      <c r="D42" s="86" t="s">
-        <v>744</v>
+      <c r="D42" s="82" t="s">
+        <v>743</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="84">
+      <c r="A43" s="80">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B43" s="85" t="s">
+      <c r="B43" s="81" t="s">
+        <v>194</v>
+      </c>
+      <c r="C43" s="81" t="s">
         <v>195</v>
       </c>
-      <c r="C43" s="85" t="s">
-        <v>196</v>
-      </c>
-      <c r="D43" s="86" t="s">
-        <v>745</v>
+      <c r="D43" s="82" t="s">
+        <v>744</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
     </row>
     <row r="44" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="84">
+      <c r="A44" s="80">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B44" s="85" t="s">
+      <c r="B44" s="81" t="s">
+        <v>197</v>
+      </c>
+      <c r="C44" s="81" t="s">
         <v>198</v>
       </c>
-      <c r="C44" s="85" t="s">
-        <v>199</v>
-      </c>
-      <c r="D44" s="86"/>
+      <c r="D44" s="82"/>
       <c r="E44" s="6"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
     </row>
     <row r="45" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="84">
+      <c r="A45" s="80">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B45" s="85" t="s">
+      <c r="B45" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="C45" s="81" t="s">
         <v>203</v>
       </c>
-      <c r="C45" s="85" t="s">
+      <c r="D45" s="82" t="s">
         <v>204</v>
-      </c>
-      <c r="D45" s="86" t="s">
-        <v>205</v>
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
     </row>
     <row r="46" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="84">
+      <c r="A46" s="80">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B46" s="85" t="s">
-        <v>206</v>
-      </c>
-      <c r="C46" s="85" t="s">
-        <v>208</v>
-      </c>
-      <c r="D46" s="86" t="s">
-        <v>736</v>
+      <c r="B46" s="81" t="s">
+        <v>205</v>
+      </c>
+      <c r="C46" s="81" t="s">
+        <v>207</v>
+      </c>
+      <c r="D46" s="82" t="s">
+        <v>735</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
     </row>
     <row r="47" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="84">
+      <c r="A47" s="80">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B47" s="85" t="s">
+      <c r="B47" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="C47" s="81" t="s">
         <v>209</v>
       </c>
-      <c r="C47" s="85" t="s">
-        <v>210</v>
-      </c>
-      <c r="D47" s="86" t="s">
-        <v>212</v>
+      <c r="D47" s="82" t="s">
+        <v>211</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
     </row>
     <row r="48" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="84">
+      <c r="A48" s="80">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B48" s="85" t="s">
+      <c r="B48" s="81" t="s">
+        <v>213</v>
+      </c>
+      <c r="C48" s="81" t="s">
         <v>214</v>
       </c>
-      <c r="C48" s="85" t="s">
+      <c r="D48" s="82" t="s">
         <v>215</v>
-      </c>
-      <c r="D48" s="86" t="s">
-        <v>216</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
     </row>
     <row r="49" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="84">
+      <c r="A49" s="80">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B49" s="85" t="s">
+      <c r="B49" s="81" t="s">
+        <v>217</v>
+      </c>
+      <c r="C49" s="81" t="s">
         <v>218</v>
       </c>
-      <c r="C49" s="85" t="s">
+      <c r="D49" s="82" t="s">
         <v>219</v>
-      </c>
-      <c r="D49" s="86" t="s">
-        <v>220</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
     </row>
     <row r="50" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="84">
+      <c r="A50" s="80">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B50" s="85" t="s">
-        <v>222</v>
-      </c>
-      <c r="C50" s="85" t="s">
+      <c r="B50" s="81" t="s">
+        <v>221</v>
+      </c>
+      <c r="C50" s="81" t="s">
+        <v>223</v>
+      </c>
+      <c r="D50" s="82" t="s">
         <v>224</v>
-      </c>
-      <c r="D50" s="86" t="s">
-        <v>225</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
     </row>
     <row r="51" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="84">
+      <c r="A51" s="80">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B51" s="85" t="s">
-        <v>229</v>
-      </c>
-      <c r="C51" s="85" t="s">
-        <v>231</v>
-      </c>
-      <c r="D51" s="86" t="s">
-        <v>233</v>
+      <c r="B51" s="81" t="s">
+        <v>228</v>
+      </c>
+      <c r="C51" s="81" t="s">
+        <v>230</v>
+      </c>
+      <c r="D51" s="82" t="s">
+        <v>232</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
     </row>
     <row r="52" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="84">
+      <c r="A52" s="80">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B52" s="85" t="s">
+      <c r="B52" s="81" t="s">
+        <v>234</v>
+      </c>
+      <c r="C52" s="81" t="s">
         <v>235</v>
       </c>
-      <c r="C52" s="85" t="s">
-        <v>236</v>
-      </c>
-      <c r="D52" s="86" t="s">
-        <v>238</v>
+      <c r="D52" s="82" t="s">
+        <v>237</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
     </row>
     <row r="53" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="84">
+      <c r="A53" s="80">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B53" s="85" t="s">
+      <c r="B53" s="81" t="s">
+        <v>240</v>
+      </c>
+      <c r="C53" s="81" t="s">
         <v>241</v>
-      </c>
-      <c r="C53" s="85" t="s">
-        <v>242</v>
       </c>
       <c r="D53" s="46"/>
       <c r="E53" s="6"/>
@@ -16237,15 +16213,15 @@
       <c r="G53" s="4"/>
     </row>
     <row r="54" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="84">
+      <c r="A54" s="80">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B54" s="85" t="s">
+      <c r="B54" s="81" t="s">
+        <v>245</v>
+      </c>
+      <c r="C54" s="81" t="s">
         <v>246</v>
-      </c>
-      <c r="C54" s="85" t="s">
-        <v>247</v>
       </c>
       <c r="D54" s="46"/>
       <c r="E54" s="6"/>
@@ -16253,15 +16229,15 @@
       <c r="G54" s="4"/>
     </row>
     <row r="55" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="84">
+      <c r="A55" s="80">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B55" s="85" t="s">
-        <v>249</v>
-      </c>
-      <c r="C55" s="85" t="s">
-        <v>251</v>
+      <c r="B55" s="81" t="s">
+        <v>248</v>
+      </c>
+      <c r="C55" s="81" t="s">
+        <v>250</v>
       </c>
       <c r="D55" s="46"/>
       <c r="E55" s="6"/>
@@ -16269,193 +16245,193 @@
       <c r="G55" s="4"/>
     </row>
     <row r="56" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="84">
+      <c r="A56" s="80">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B56" s="85" t="s">
+      <c r="B56" s="81" t="s">
+        <v>252</v>
+      </c>
+      <c r="C56" s="81" t="s">
         <v>253</v>
       </c>
-      <c r="C56" s="85" t="s">
+      <c r="D56" s="82" t="s">
         <v>254</v>
-      </c>
-      <c r="D56" s="86" t="s">
-        <v>255</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
     </row>
     <row r="57" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="84">
+      <c r="A57" s="80">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B57" s="85" t="s">
+      <c r="B57" s="81" t="s">
+        <v>258</v>
+      </c>
+      <c r="C57" s="81" t="s">
         <v>259</v>
       </c>
-      <c r="C57" s="85" t="s">
+      <c r="D57" s="82" t="s">
         <v>260</v>
-      </c>
-      <c r="D57" s="86" t="s">
-        <v>261</v>
       </c>
       <c r="E57" s="6"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
     </row>
     <row r="58" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="84">
+      <c r="A58" s="80">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B58" s="85" t="s">
+      <c r="B58" s="81" t="s">
+        <v>264</v>
+      </c>
+      <c r="C58" s="81" t="s">
+        <v>175</v>
+      </c>
+      <c r="D58" s="82" t="s">
         <v>265</v>
-      </c>
-      <c r="C58" s="85" t="s">
-        <v>176</v>
-      </c>
-      <c r="D58" s="86" t="s">
-        <v>266</v>
       </c>
       <c r="E58" s="6"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
     </row>
     <row r="59" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="84">
+      <c r="A59" s="80">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B59" s="85" t="s">
-        <v>269</v>
-      </c>
-      <c r="C59" s="85" t="s">
-        <v>176</v>
-      </c>
-      <c r="D59" s="86" t="s">
-        <v>271</v>
+      <c r="B59" s="81" t="s">
+        <v>268</v>
+      </c>
+      <c r="C59" s="81" t="s">
+        <v>175</v>
+      </c>
+      <c r="D59" s="82" t="s">
+        <v>270</v>
       </c>
       <c r="E59" s="6"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
     </row>
     <row r="60" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="84">
+      <c r="A60" s="80">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B60" s="85" t="s">
-        <v>273</v>
-      </c>
-      <c r="C60" s="85" t="s">
+      <c r="B60" s="81" t="s">
+        <v>272</v>
+      </c>
+      <c r="C60" s="81" t="s">
+        <v>275</v>
+      </c>
+      <c r="D60" s="82" t="s">
         <v>276</v>
-      </c>
-      <c r="D60" s="86" t="s">
-        <v>277</v>
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
     </row>
     <row r="61" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="84">
+      <c r="A61" s="80">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B61" s="85" t="s">
+      <c r="B61" s="81" t="s">
+        <v>277</v>
+      </c>
+      <c r="C61" s="81" t="s">
         <v>278</v>
       </c>
-      <c r="C61" s="85" t="s">
-        <v>279</v>
-      </c>
-      <c r="D61" s="86" t="s">
-        <v>281</v>
+      <c r="D61" s="82" t="s">
+        <v>280</v>
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
     </row>
     <row r="62" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="84">
+      <c r="A62" s="80">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B62" s="85" t="s">
+      <c r="B62" s="81" t="s">
+        <v>283</v>
+      </c>
+      <c r="C62" s="81" t="s">
         <v>284</v>
       </c>
-      <c r="C62" s="85" t="s">
+      <c r="D62" s="82" t="s">
         <v>285</v>
-      </c>
-      <c r="D62" s="86" t="s">
-        <v>286</v>
       </c>
       <c r="E62" s="6"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
     </row>
     <row r="63" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="84">
+      <c r="A63" s="80">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B63" s="85" t="s">
+      <c r="B63" s="81" t="s">
+        <v>288</v>
+      </c>
+      <c r="C63" s="81" t="s">
         <v>289</v>
       </c>
-      <c r="C63" s="85" t="s">
+      <c r="D63" s="82" t="s">
         <v>290</v>
-      </c>
-      <c r="D63" s="86" t="s">
-        <v>291</v>
       </c>
       <c r="E63" s="6"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
     </row>
     <row r="64" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A64" s="84">
+      <c r="A64" s="80">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B64" s="85" t="s">
+      <c r="B64" s="81" t="s">
+        <v>293</v>
+      </c>
+      <c r="C64" s="81"/>
+      <c r="D64" s="82" t="s">
         <v>294</v>
-      </c>
-      <c r="C64" s="85"/>
-      <c r="D64" s="86" t="s">
-        <v>295</v>
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
     </row>
     <row r="65" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="84">
+      <c r="A65" s="80">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B65" s="85" t="s">
+      <c r="B65" s="81" t="s">
+        <v>298</v>
+      </c>
+      <c r="C65" s="81" t="s">
         <v>299</v>
       </c>
-      <c r="C65" s="85" t="s">
+      <c r="D65" s="82" t="s">
         <v>300</v>
-      </c>
-      <c r="D65" s="86" t="s">
-        <v>301</v>
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
     </row>
     <row r="66" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="84">
+      <c r="A66" s="80">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B66" s="85" t="s">
-        <v>302</v>
-      </c>
-      <c r="C66" s="85" t="s">
-        <v>730</v>
+      <c r="B66" s="81" t="s">
+        <v>301</v>
+      </c>
+      <c r="C66" s="81" t="s">
+        <v>729</v>
       </c>
       <c r="D66" s="52"/>
       <c r="E66" s="6"/>
@@ -16463,63 +16439,63 @@
       <c r="G66" s="4"/>
     </row>
     <row r="67" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A67" s="84">
+      <c r="A67" s="80">
         <f t="shared" ref="A67:A72" si="1">A66+1</f>
         <v>66</v>
       </c>
-      <c r="B67" s="85" t="s">
+      <c r="B67" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="C67" s="85" t="s">
+      <c r="C67" s="81" t="s">
         <v>110</v>
       </c>
       <c r="D67" s="52" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E67" s="6"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
     </row>
     <row r="68" spans="1:7" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="84">
+      <c r="A68" s="80">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="B68" s="85" t="s">
+      <c r="B68" s="81" t="s">
+        <v>730</v>
+      </c>
+      <c r="C68" s="81" t="s">
         <v>731</v>
-      </c>
-      <c r="C68" s="85" t="s">
-        <v>732</v>
       </c>
       <c r="D68" s="46"/>
       <c r="E68" s="41"/>
       <c r="F68" s="40"/>
     </row>
     <row r="69" spans="1:7" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="84">
+      <c r="A69" s="80">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="B69" s="85" t="s">
-        <v>733</v>
-      </c>
-      <c r="C69" s="85" t="s">
+      <c r="B69" s="81" t="s">
         <v>732</v>
+      </c>
+      <c r="C69" s="81" t="s">
+        <v>731</v>
       </c>
       <c r="D69" s="46"/>
       <c r="E69" s="41"/>
       <c r="F69" s="40"/>
     </row>
     <row r="70" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="84">
+      <c r="A70" s="80">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="B70" s="85" t="s">
+      <c r="B70" s="81" t="s">
+        <v>313</v>
+      </c>
+      <c r="C70" s="81" t="s">
         <v>314</v>
-      </c>
-      <c r="C70" s="85" t="s">
-        <v>315</v>
       </c>
       <c r="D70" s="52"/>
       <c r="E70" s="6"/>
@@ -16527,33 +16503,33 @@
       <c r="G70" s="4"/>
     </row>
     <row r="71" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="84">
+      <c r="A71" s="80">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="B71" s="85" t="s">
+      <c r="B71" s="81" t="s">
+        <v>315</v>
+      </c>
+      <c r="C71" s="81" t="s">
         <v>316</v>
       </c>
-      <c r="C71" s="85" t="s">
+      <c r="D71" s="52" t="s">
         <v>317</v>
-      </c>
-      <c r="D71" s="52" t="s">
-        <v>318</v>
       </c>
       <c r="E71" s="6"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
     </row>
     <row r="72" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="84">
+      <c r="A72" s="80">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="B72" s="85" t="s">
+      <c r="B72" s="81" t="s">
+        <v>733</v>
+      </c>
+      <c r="C72" s="81" t="s">
         <v>734</v>
-      </c>
-      <c r="C72" s="85" t="s">
-        <v>735</v>
       </c>
       <c r="D72" s="52"/>
       <c r="E72" s="8"/>
@@ -24861,7 +24837,7 @@
   </sheetPr>
   <dimension ref="A1:H997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+    <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -24878,127 +24854,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="82"/>
-      <c r="B1" s="82" t="s">
+      <c r="A1" s="78"/>
+      <c r="B1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="82" t="s">
-        <v>668</v>
+      <c r="D1" s="78" t="s">
+        <v>667</v>
       </c>
       <c r="E1" s="32"/>
     </row>
     <row r="2" spans="1:8" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="53">
+      <c r="A2" s="83">
         <v>2</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="55" t="s">
-        <v>666</v>
-      </c>
-      <c r="D2" s="56">
+      <c r="C2" s="54" t="s">
+        <v>665</v>
+      </c>
+      <c r="D2" s="55">
         <v>5</v>
       </c>
       <c r="E2" s="42"/>
       <c r="H2" s="44"/>
     </row>
     <row r="3" spans="1:8" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="57"/>
-      <c r="B3" s="54" t="s">
+      <c r="A3" s="84"/>
+      <c r="B3" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="58" t="s">
-        <v>666</v>
-      </c>
-      <c r="D3" s="56">
+      <c r="C3" s="56" t="s">
+        <v>665</v>
+      </c>
+      <c r="D3" s="55">
         <v>6</v>
       </c>
       <c r="E3" s="42"/>
       <c r="H3" s="44"/>
     </row>
     <row r="4" spans="1:8" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="57"/>
-      <c r="B4" s="54" t="s">
+      <c r="A4" s="84"/>
+      <c r="B4" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="58" t="s">
-        <v>666</v>
-      </c>
-      <c r="D4" s="56">
+      <c r="C4" s="56" t="s">
+        <v>665</v>
+      </c>
+      <c r="D4" s="55">
         <v>7</v>
       </c>
       <c r="E4" s="42"/>
       <c r="H4" s="44"/>
     </row>
     <row r="5" spans="1:8" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="57"/>
-      <c r="B5" s="54" t="s">
+      <c r="A5" s="84"/>
+      <c r="B5" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="58" t="s">
-        <v>666</v>
-      </c>
-      <c r="D5" s="56">
+      <c r="C5" s="56" t="s">
+        <v>665</v>
+      </c>
+      <c r="D5" s="55">
         <v>9</v>
       </c>
       <c r="E5" s="42"/>
       <c r="H5" s="44"/>
     </row>
     <row r="6" spans="1:8" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="57"/>
-      <c r="B6" s="54" t="s">
+      <c r="A6" s="84"/>
+      <c r="B6" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="58" t="s">
-        <v>666</v>
-      </c>
-      <c r="D6" s="56">
+      <c r="C6" s="56" t="s">
+        <v>665</v>
+      </c>
+      <c r="D6" s="55">
         <v>10</v>
       </c>
       <c r="E6" s="42"/>
       <c r="H6" s="44"/>
     </row>
     <row r="7" spans="1:8" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="57"/>
-      <c r="B7" s="54" t="s">
+      <c r="A7" s="84"/>
+      <c r="B7" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="58" t="s">
-        <v>666</v>
-      </c>
-      <c r="D7" s="56">
+      <c r="C7" s="56" t="s">
+        <v>665</v>
+      </c>
+      <c r="D7" s="55">
         <v>11</v>
       </c>
       <c r="E7" s="42"/>
       <c r="H7" s="44"/>
     </row>
     <row r="8" spans="1:8" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="57"/>
-      <c r="B8" s="54" t="s">
+      <c r="A8" s="84"/>
+      <c r="B8" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="58" t="s">
-        <v>666</v>
-      </c>
-      <c r="D8" s="56">
+      <c r="C8" s="56" t="s">
+        <v>665</v>
+      </c>
+      <c r="D8" s="55">
         <v>12</v>
       </c>
       <c r="E8" s="42"/>
       <c r="H8" s="44"/>
     </row>
     <row r="9" spans="1:8" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="57"/>
-      <c r="B9" s="54" t="s">
+      <c r="A9" s="84"/>
+      <c r="B9" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="56">
+      <c r="D9" s="55">
         <v>2</v>
       </c>
       <c r="E9" s="42"/>
@@ -25006,1335 +24982,1335 @@
       <c r="H9" s="44"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="57"/>
-      <c r="B10" s="54" t="s">
+      <c r="A10" s="84"/>
+      <c r="B10" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="56">
+      <c r="D10" s="55">
         <v>3</v>
       </c>
       <c r="E10" s="32"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="57"/>
-      <c r="B11" s="54" t="s">
+      <c r="A11" s="84"/>
+      <c r="B11" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="56">
+      <c r="D11" s="55">
         <v>4</v>
       </c>
       <c r="E11" s="32"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="57"/>
-      <c r="B12" s="54" t="s">
+      <c r="A12" s="84"/>
+      <c r="B12" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="58" t="s">
+      <c r="C12" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="56">
+      <c r="D12" s="55">
         <v>7</v>
       </c>
       <c r="E12" s="32"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="57"/>
-      <c r="B13" s="54" t="s">
+      <c r="A13" s="84"/>
+      <c r="B13" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="58" t="s">
+      <c r="C13" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="56">
+      <c r="D13" s="55">
         <v>8</v>
       </c>
       <c r="E13" s="32"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="57"/>
-      <c r="B14" s="54" t="s">
+      <c r="A14" s="84"/>
+      <c r="B14" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="56">
+      <c r="D14" s="55">
         <v>9</v>
       </c>
       <c r="E14" s="32"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="57"/>
-      <c r="B15" s="54" t="s">
+      <c r="A15" s="84"/>
+      <c r="B15" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="58" t="s">
+      <c r="C15" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="56">
+      <c r="D15" s="55">
         <v>10</v>
       </c>
       <c r="E15" s="32"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="57"/>
-      <c r="B16" s="54" t="s">
+      <c r="A16" s="84"/>
+      <c r="B16" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="58" t="s">
+      <c r="C16" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="56">
+      <c r="D16" s="55">
         <v>11</v>
       </c>
       <c r="E16" s="32"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="57"/>
-      <c r="B17" s="54" t="s">
+      <c r="A17" s="84"/>
+      <c r="B17" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="58" t="s">
+      <c r="C17" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="56">
+      <c r="D17" s="55">
         <v>12</v>
       </c>
       <c r="E17" s="32"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="57"/>
-      <c r="B18" s="54" t="s">
+      <c r="A18" s="84"/>
+      <c r="B18" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="58" t="s">
+      <c r="C18" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="56">
+      <c r="D18" s="55">
         <v>1</v>
       </c>
       <c r="E18" s="32"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="57"/>
-      <c r="B19" s="54" t="s">
+      <c r="A19" s="84"/>
+      <c r="B19" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="58" t="s">
+      <c r="C19" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="56">
+      <c r="D19" s="55">
         <v>4</v>
       </c>
       <c r="E19" s="32"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="57"/>
-      <c r="B20" s="54" t="s">
+      <c r="A20" s="84"/>
+      <c r="B20" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="58" t="s">
+      <c r="C20" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="56">
+      <c r="D20" s="55">
         <v>5</v>
       </c>
       <c r="E20" s="32"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="57"/>
-      <c r="B21" s="54" t="s">
+      <c r="A21" s="84"/>
+      <c r="B21" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="58" t="s">
+      <c r="C21" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="56">
+      <c r="D21" s="55">
         <v>10</v>
       </c>
       <c r="E21" s="32"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="57"/>
-      <c r="B22" s="54" t="s">
+      <c r="A22" s="84"/>
+      <c r="B22" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="58" t="s">
+      <c r="C22" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="56">
+      <c r="D22" s="55">
         <v>11</v>
       </c>
       <c r="E22" s="32"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="57"/>
-      <c r="B23" s="54" t="s">
+      <c r="A23" s="84"/>
+      <c r="B23" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="56">
+      <c r="D23" s="55">
         <v>1</v>
       </c>
       <c r="E23" s="32"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="57"/>
-      <c r="B24" s="54" t="s">
+      <c r="A24" s="84"/>
+      <c r="B24" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="C24" s="58" t="s">
+      <c r="C24" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="56">
+      <c r="D24" s="55">
         <v>2</v>
       </c>
       <c r="E24" s="32"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="57"/>
-      <c r="B25" s="54" t="s">
+      <c r="A25" s="84"/>
+      <c r="B25" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="58" t="s">
+      <c r="C25" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="56">
+      <c r="D25" s="55">
         <v>3</v>
       </c>
       <c r="E25" s="32"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="57"/>
-      <c r="B26" s="54" t="s">
+      <c r="A26" s="84"/>
+      <c r="B26" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="C26" s="58" t="s">
+      <c r="C26" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="56">
+      <c r="D26" s="55">
         <v>5</v>
       </c>
       <c r="E26" s="32"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="57"/>
-      <c r="B27" s="54" t="s">
+      <c r="A27" s="84"/>
+      <c r="B27" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="58" t="s">
+      <c r="C27" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="56">
+      <c r="D27" s="55">
         <v>12</v>
       </c>
       <c r="E27" s="32"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="57"/>
-      <c r="B28" s="54" t="s">
+      <c r="A28" s="84"/>
+      <c r="B28" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="C28" s="58" t="s">
+      <c r="C28" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="56">
+      <c r="D28" s="55">
         <v>1</v>
       </c>
       <c r="E28" s="32"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="57"/>
-      <c r="B29" s="54" t="s">
+      <c r="A29" s="84"/>
+      <c r="B29" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="C29" s="58" t="s">
+      <c r="C29" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="56">
+      <c r="D29" s="55">
         <v>2</v>
       </c>
       <c r="E29" s="32"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="57"/>
-      <c r="B30" s="54" t="s">
+      <c r="A30" s="84"/>
+      <c r="B30" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="C30" s="58"/>
-      <c r="D30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="55"/>
       <c r="E30" s="32"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="53">
+      <c r="A31" s="83">
         <v>3</v>
       </c>
-      <c r="B31" s="59" t="s">
-        <v>223</v>
-      </c>
-      <c r="C31" s="55" t="s">
-        <v>666</v>
-      </c>
-      <c r="D31" s="56">
+      <c r="B31" s="57" t="s">
+        <v>222</v>
+      </c>
+      <c r="C31" s="54" t="s">
+        <v>665</v>
+      </c>
+      <c r="D31" s="55">
         <v>75</v>
       </c>
       <c r="E31" s="32"/>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="57"/>
-      <c r="B32" s="59" t="s">
-        <v>223</v>
-      </c>
-      <c r="C32" s="55" t="s">
+      <c r="A32" s="84"/>
+      <c r="B32" s="57" t="s">
+        <v>222</v>
+      </c>
+      <c r="C32" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="56">
+      <c r="D32" s="55">
         <v>98</v>
       </c>
       <c r="E32" s="32"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="57"/>
-      <c r="B33" s="59" t="s">
-        <v>223</v>
-      </c>
-      <c r="C33" s="55" t="s">
+      <c r="A33" s="84"/>
+      <c r="B33" s="57" t="s">
+        <v>222</v>
+      </c>
+      <c r="C33" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="56">
+      <c r="D33" s="55">
         <v>99</v>
       </c>
       <c r="E33" s="32"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="57"/>
-      <c r="B34" s="59" t="s">
-        <v>223</v>
-      </c>
-      <c r="C34" s="55" t="s">
+      <c r="A34" s="84"/>
+      <c r="B34" s="57" t="s">
+        <v>222</v>
+      </c>
+      <c r="C34" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="60" t="s">
+      <c r="D34" s="58" t="s">
+        <v>684</v>
+      </c>
+      <c r="E34" s="32"/>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="84"/>
+      <c r="B35" s="57" t="s">
+        <v>222</v>
+      </c>
+      <c r="C35" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="55">
+        <v>111</v>
+      </c>
+      <c r="E35" s="32"/>
+    </row>
+    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A36" s="84"/>
+      <c r="B36" s="57" t="s">
+        <v>222</v>
+      </c>
+      <c r="C36" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="58" t="s">
         <v>685</v>
       </c>
-      <c r="E34" s="32"/>
-    </row>
-    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="57"/>
-      <c r="B35" s="59" t="s">
-        <v>223</v>
-      </c>
-      <c r="C35" s="55" t="s">
+      <c r="E36" s="32"/>
+    </row>
+    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A37" s="84"/>
+      <c r="B37" s="57" t="s">
+        <v>222</v>
+      </c>
+      <c r="C37" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="D35" s="56">
-        <v>111</v>
-      </c>
-      <c r="E35" s="32"/>
-    </row>
-    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="57"/>
-      <c r="B36" s="59" t="s">
-        <v>223</v>
-      </c>
-      <c r="C36" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" s="60" t="s">
+      <c r="D37" s="55">
+        <v>116</v>
+      </c>
+      <c r="E37" s="32"/>
+    </row>
+    <row r="38" spans="1:8" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A38" s="84"/>
+      <c r="B38" s="57" t="s">
+        <v>222</v>
+      </c>
+      <c r="C38" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" s="58" t="s">
         <v>686</v>
-      </c>
-      <c r="E36" s="32"/>
-    </row>
-    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="57"/>
-      <c r="B37" s="59" t="s">
-        <v>223</v>
-      </c>
-      <c r="C37" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37" s="56">
-        <v>116</v>
-      </c>
-      <c r="E37" s="32"/>
-    </row>
-    <row r="38" spans="1:8" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="57"/>
-      <c r="B38" s="59" t="s">
-        <v>223</v>
-      </c>
-      <c r="C38" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="D38" s="60" t="s">
-        <v>687</v>
       </c>
       <c r="E38" s="42"/>
       <c r="H38" s="44"/>
     </row>
     <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="57"/>
-      <c r="B39" s="59" t="s">
-        <v>223</v>
-      </c>
-      <c r="C39" s="55" t="s">
+      <c r="A39" s="84"/>
+      <c r="B39" s="57" t="s">
+        <v>222</v>
+      </c>
+      <c r="C39" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="D39" s="56">
+      <c r="D39" s="55">
         <v>120</v>
       </c>
       <c r="E39" s="32"/>
     </row>
     <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A40" s="57"/>
-      <c r="B40" s="59" t="s">
-        <v>223</v>
-      </c>
-      <c r="C40" s="55" t="s">
+      <c r="A40" s="84"/>
+      <c r="B40" s="57" t="s">
+        <v>222</v>
+      </c>
+      <c r="C40" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="D40" s="56">
+      <c r="D40" s="55">
         <v>124</v>
       </c>
       <c r="E40" s="32"/>
     </row>
     <row r="41" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="57"/>
-      <c r="B41" s="59" t="s">
-        <v>223</v>
-      </c>
-      <c r="C41" s="55" t="s">
+      <c r="A41" s="84"/>
+      <c r="B41" s="57" t="s">
+        <v>222</v>
+      </c>
+      <c r="C41" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="D41" s="56">
+      <c r="D41" s="55">
         <v>127</v>
       </c>
       <c r="E41" s="32"/>
     </row>
     <row r="42" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A42" s="57"/>
-      <c r="B42" s="59" t="s">
-        <v>223</v>
-      </c>
-      <c r="C42" s="55" t="s">
+      <c r="A42" s="84"/>
+      <c r="B42" s="57" t="s">
+        <v>222</v>
+      </c>
+      <c r="C42" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="D42" s="56">
+      <c r="D42" s="55">
         <v>129</v>
       </c>
       <c r="E42" s="32"/>
     </row>
     <row r="43" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A43" s="57"/>
-      <c r="B43" s="59" t="s">
-        <v>223</v>
-      </c>
-      <c r="C43" s="55" t="s">
+      <c r="A43" s="84"/>
+      <c r="B43" s="57" t="s">
+        <v>222</v>
+      </c>
+      <c r="C43" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="D43" s="56">
+      <c r="D43" s="55">
         <v>133</v>
       </c>
       <c r="E43" s="32"/>
     </row>
     <row r="44" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A44" s="57"/>
-      <c r="B44" s="59" t="s">
-        <v>223</v>
-      </c>
-      <c r="C44" s="55" t="s">
+      <c r="A44" s="84"/>
+      <c r="B44" s="57" t="s">
+        <v>222</v>
+      </c>
+      <c r="C44" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="D44" s="60" t="s">
+      <c r="D44" s="58" t="s">
+        <v>687</v>
+      </c>
+      <c r="E44" s="32"/>
+    </row>
+    <row r="45" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A45" s="84"/>
+      <c r="B45" s="57" t="s">
+        <v>222</v>
+      </c>
+      <c r="C45" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45" s="55">
+        <v>145</v>
+      </c>
+      <c r="E45" s="32"/>
+    </row>
+    <row r="46" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A46" s="84"/>
+      <c r="B46" s="57" t="s">
+        <v>222</v>
+      </c>
+      <c r="C46" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="55">
+        <v>146</v>
+      </c>
+      <c r="E46" s="32"/>
+    </row>
+    <row r="47" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A47" s="84"/>
+      <c r="B47" s="57" t="s">
+        <v>222</v>
+      </c>
+      <c r="C47" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47" s="55">
+        <v>160</v>
+      </c>
+      <c r="E47" s="32"/>
+    </row>
+    <row r="48" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A48" s="84"/>
+      <c r="B48" s="57" t="s">
+        <v>222</v>
+      </c>
+      <c r="C48" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="D48" s="55">
+        <v>163</v>
+      </c>
+      <c r="E48" s="32"/>
+    </row>
+    <row r="49" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A49" s="84"/>
+      <c r="B49" s="57" t="s">
+        <v>222</v>
+      </c>
+      <c r="C49" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" s="55">
+        <v>164</v>
+      </c>
+      <c r="E49" s="32"/>
+    </row>
+    <row r="50" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A50" s="84"/>
+      <c r="B50" s="57" t="s">
+        <v>222</v>
+      </c>
+      <c r="C50" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" s="55">
+        <v>165</v>
+      </c>
+      <c r="E50" s="32"/>
+    </row>
+    <row r="51" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A51" s="84"/>
+      <c r="B51" s="57" t="s">
+        <v>222</v>
+      </c>
+      <c r="C51" s="54" t="s">
+        <v>666</v>
+      </c>
+      <c r="D51" s="58" t="s">
         <v>688</v>
       </c>
-      <c r="E44" s="32"/>
-    </row>
-    <row r="45" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A45" s="57"/>
-      <c r="B45" s="59" t="s">
-        <v>223</v>
-      </c>
-      <c r="C45" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="D45" s="56">
-        <v>145</v>
-      </c>
-      <c r="E45" s="32"/>
-    </row>
-    <row r="46" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="57"/>
-      <c r="B46" s="59" t="s">
-        <v>223</v>
-      </c>
-      <c r="C46" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="D46" s="56">
-        <v>146</v>
-      </c>
-      <c r="E46" s="32"/>
-    </row>
-    <row r="47" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A47" s="57"/>
-      <c r="B47" s="59" t="s">
-        <v>223</v>
-      </c>
-      <c r="C47" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="D47" s="56">
-        <v>160</v>
-      </c>
-      <c r="E47" s="32"/>
-    </row>
-    <row r="48" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A48" s="57"/>
-      <c r="B48" s="59" t="s">
-        <v>223</v>
-      </c>
-      <c r="C48" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="D48" s="56">
-        <v>163</v>
-      </c>
-      <c r="E48" s="32"/>
-    </row>
-    <row r="49" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A49" s="57"/>
-      <c r="B49" s="59" t="s">
-        <v>223</v>
-      </c>
-      <c r="C49" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="D49" s="56">
-        <v>164</v>
-      </c>
-      <c r="E49" s="32"/>
-    </row>
-    <row r="50" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A50" s="57"/>
-      <c r="B50" s="59" t="s">
-        <v>223</v>
-      </c>
-      <c r="C50" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="D50" s="56">
-        <v>165</v>
-      </c>
-      <c r="E50" s="32"/>
-    </row>
-    <row r="51" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A51" s="57"/>
-      <c r="B51" s="59" t="s">
-        <v>223</v>
-      </c>
-      <c r="C51" s="55" t="s">
-        <v>667</v>
-      </c>
-      <c r="D51" s="60" t="s">
-        <v>689</v>
-      </c>
       <c r="E51" s="32"/>
     </row>
     <row r="52" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A52" s="57"/>
-      <c r="B52" s="59" t="s">
-        <v>223</v>
-      </c>
-      <c r="C52" s="55" t="s">
-        <v>667</v>
-      </c>
-      <c r="D52" s="56">
+      <c r="A52" s="84"/>
+      <c r="B52" s="57" t="s">
+        <v>222</v>
+      </c>
+      <c r="C52" s="54" t="s">
+        <v>666</v>
+      </c>
+      <c r="D52" s="55">
         <v>168</v>
       </c>
       <c r="E52" s="32"/>
     </row>
     <row r="53" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A53" s="57"/>
-      <c r="B53" s="59" t="s">
-        <v>223</v>
-      </c>
-      <c r="C53" s="58" t="s">
-        <v>667</v>
-      </c>
-      <c r="D53" s="56">
+      <c r="A53" s="84"/>
+      <c r="B53" s="57" t="s">
+        <v>222</v>
+      </c>
+      <c r="C53" s="56" t="s">
+        <v>666</v>
+      </c>
+      <c r="D53" s="55">
         <v>134</v>
       </c>
       <c r="E53" s="32"/>
     </row>
     <row r="54" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A54" s="57"/>
-      <c r="B54" s="59" t="s">
-        <v>223</v>
-      </c>
-      <c r="C54" s="58" t="s">
-        <v>667</v>
-      </c>
-      <c r="D54" s="56">
+      <c r="A54" s="84"/>
+      <c r="B54" s="57" t="s">
+        <v>222</v>
+      </c>
+      <c r="C54" s="56" t="s">
+        <v>666</v>
+      </c>
+      <c r="D54" s="55">
         <v>175</v>
       </c>
       <c r="E54" s="32"/>
     </row>
     <row r="55" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A55" s="57"/>
-      <c r="B55" s="59" t="s">
-        <v>223</v>
-      </c>
-      <c r="C55" s="58"/>
-      <c r="D55" s="56"/>
+      <c r="A55" s="84"/>
+      <c r="B55" s="57" t="s">
+        <v>222</v>
+      </c>
+      <c r="C55" s="56"/>
+      <c r="D55" s="55"/>
       <c r="E55" s="32"/>
     </row>
     <row r="56" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A56" s="53">
+      <c r="A56" s="83">
         <v>4</v>
       </c>
-      <c r="B56" s="61" t="s">
-        <v>319</v>
-      </c>
-      <c r="C56" s="58" t="str">
+      <c r="B56" s="59" t="s">
+        <v>318</v>
+      </c>
+      <c r="C56" s="56" t="str">
         <f>RIGHT(D56,4)</f>
         <v>2012</v>
       </c>
-      <c r="D56" s="62" t="s">
-        <v>690</v>
+      <c r="D56" s="60" t="s">
+        <v>689</v>
       </c>
       <c r="E56" s="32"/>
     </row>
     <row r="57" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A57" s="57"/>
-      <c r="B57" s="61" t="s">
-        <v>319</v>
-      </c>
-      <c r="C57" s="58" t="str">
+      <c r="A57" s="84"/>
+      <c r="B57" s="59" t="s">
+        <v>318</v>
+      </c>
+      <c r="C57" s="56" t="str">
         <f t="shared" ref="C57:C73" si="0">RIGHT(D57,4)</f>
         <v>2012</v>
       </c>
-      <c r="D57" s="62" t="s">
-        <v>691</v>
+      <c r="D57" s="60" t="s">
+        <v>690</v>
       </c>
       <c r="E57" s="32"/>
     </row>
     <row r="58" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A58" s="57"/>
-      <c r="B58" s="61" t="s">
-        <v>319</v>
-      </c>
-      <c r="C58" s="58" t="str">
+      <c r="A58" s="84"/>
+      <c r="B58" s="59" t="s">
+        <v>318</v>
+      </c>
+      <c r="C58" s="56" t="str">
         <f t="shared" si="0"/>
         <v>2012</v>
       </c>
-      <c r="D58" s="62" t="s">
-        <v>692</v>
+      <c r="D58" s="60" t="s">
+        <v>691</v>
       </c>
       <c r="E58" s="32"/>
     </row>
     <row r="59" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A59" s="57"/>
-      <c r="B59" s="61" t="s">
-        <v>319</v>
-      </c>
-      <c r="C59" s="58" t="str">
+      <c r="A59" s="84"/>
+      <c r="B59" s="59" t="s">
+        <v>318</v>
+      </c>
+      <c r="C59" s="56" t="str">
         <f t="shared" si="0"/>
         <v>2014</v>
       </c>
-      <c r="D59" s="62" t="s">
-        <v>693</v>
+      <c r="D59" s="60" t="s">
+        <v>692</v>
       </c>
       <c r="E59" s="32"/>
     </row>
     <row r="60" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A60" s="57"/>
-      <c r="B60" s="61" t="s">
-        <v>319</v>
-      </c>
-      <c r="C60" s="58" t="str">
+      <c r="A60" s="84"/>
+      <c r="B60" s="59" t="s">
+        <v>318</v>
+      </c>
+      <c r="C60" s="56" t="str">
         <f t="shared" si="0"/>
         <v>2014</v>
       </c>
-      <c r="D60" s="62" t="s">
-        <v>694</v>
+      <c r="D60" s="60" t="s">
+        <v>693</v>
       </c>
       <c r="E60" s="32"/>
     </row>
     <row r="61" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A61" s="57"/>
-      <c r="B61" s="61" t="s">
-        <v>319</v>
-      </c>
-      <c r="C61" s="58" t="str">
+      <c r="A61" s="84"/>
+      <c r="B61" s="59" t="s">
+        <v>318</v>
+      </c>
+      <c r="C61" s="56" t="str">
         <f t="shared" si="0"/>
         <v>2014</v>
       </c>
-      <c r="D61" s="62" t="s">
-        <v>695</v>
+      <c r="D61" s="60" t="s">
+        <v>694</v>
       </c>
       <c r="E61" s="32"/>
     </row>
     <row r="62" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A62" s="57"/>
-      <c r="B62" s="61" t="s">
-        <v>319</v>
-      </c>
-      <c r="C62" s="58" t="str">
+      <c r="A62" s="84"/>
+      <c r="B62" s="59" t="s">
+        <v>318</v>
+      </c>
+      <c r="C62" s="56" t="str">
         <f t="shared" si="0"/>
         <v>2014</v>
       </c>
-      <c r="D62" s="62" t="s">
-        <v>696</v>
+      <c r="D62" s="60" t="s">
+        <v>695</v>
       </c>
       <c r="E62" s="32"/>
     </row>
     <row r="63" spans="1:8" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A63" s="57"/>
-      <c r="B63" s="61" t="s">
-        <v>319</v>
-      </c>
-      <c r="C63" s="58" t="str">
+      <c r="A63" s="84"/>
+      <c r="B63" s="59" t="s">
+        <v>318</v>
+      </c>
+      <c r="C63" s="56" t="str">
         <f t="shared" si="0"/>
         <v>2014</v>
       </c>
-      <c r="D63" s="62" t="s">
-        <v>697</v>
+      <c r="D63" s="60" t="s">
+        <v>696</v>
       </c>
       <c r="E63" s="42"/>
       <c r="H63" s="44"/>
     </row>
     <row r="64" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A64" s="57"/>
-      <c r="B64" s="61" t="s">
-        <v>319</v>
-      </c>
-      <c r="C64" s="58" t="str">
+      <c r="A64" s="84"/>
+      <c r="B64" s="59" t="s">
+        <v>318</v>
+      </c>
+      <c r="C64" s="56" t="str">
         <f t="shared" si="0"/>
         <v>2014</v>
       </c>
-      <c r="D64" s="62" t="s">
-        <v>698</v>
+      <c r="D64" s="60" t="s">
+        <v>697</v>
       </c>
       <c r="E64" s="32"/>
     </row>
     <row r="65" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A65" s="57"/>
-      <c r="B65" s="61" t="s">
-        <v>319</v>
-      </c>
-      <c r="C65" s="58" t="str">
+      <c r="A65" s="84"/>
+      <c r="B65" s="59" t="s">
+        <v>318</v>
+      </c>
+      <c r="C65" s="56" t="str">
         <f t="shared" si="0"/>
         <v>2015</v>
       </c>
-      <c r="D65" s="62" t="s">
-        <v>699</v>
+      <c r="D65" s="60" t="s">
+        <v>698</v>
       </c>
       <c r="E65" s="32"/>
     </row>
     <row r="66" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A66" s="57"/>
-      <c r="B66" s="61" t="s">
-        <v>319</v>
-      </c>
-      <c r="C66" s="58" t="str">
+      <c r="A66" s="84"/>
+      <c r="B66" s="59" t="s">
+        <v>318</v>
+      </c>
+      <c r="C66" s="56" t="str">
         <f t="shared" si="0"/>
         <v>2015</v>
       </c>
-      <c r="D66" s="62" t="s">
-        <v>700</v>
+      <c r="D66" s="60" t="s">
+        <v>699</v>
       </c>
       <c r="E66" s="32"/>
     </row>
     <row r="67" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A67" s="57"/>
-      <c r="B67" s="61" t="s">
-        <v>319</v>
-      </c>
-      <c r="C67" s="58" t="str">
+      <c r="A67" s="84"/>
+      <c r="B67" s="59" t="s">
+        <v>318</v>
+      </c>
+      <c r="C67" s="56" t="str">
         <f t="shared" si="0"/>
         <v>2015</v>
       </c>
-      <c r="D67" s="62" t="s">
-        <v>701</v>
+      <c r="D67" s="60" t="s">
+        <v>700</v>
       </c>
       <c r="E67" s="32"/>
     </row>
     <row r="68" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A68" s="57"/>
-      <c r="B68" s="61" t="s">
-        <v>319</v>
-      </c>
-      <c r="C68" s="58" t="str">
+      <c r="A68" s="84"/>
+      <c r="B68" s="59" t="s">
+        <v>318</v>
+      </c>
+      <c r="C68" s="56" t="str">
         <f t="shared" si="0"/>
         <v>2015</v>
       </c>
-      <c r="D68" s="62" t="s">
-        <v>702</v>
+      <c r="D68" s="60" t="s">
+        <v>701</v>
       </c>
       <c r="E68" s="32"/>
     </row>
     <row r="69" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A69" s="57"/>
-      <c r="B69" s="61" t="s">
-        <v>319</v>
-      </c>
-      <c r="C69" s="58" t="str">
+      <c r="A69" s="84"/>
+      <c r="B69" s="59" t="s">
+        <v>318</v>
+      </c>
+      <c r="C69" s="56" t="str">
         <f t="shared" si="0"/>
         <v>2015</v>
       </c>
-      <c r="D69" s="62" t="s">
-        <v>703</v>
+      <c r="D69" s="60" t="s">
+        <v>702</v>
       </c>
       <c r="E69" s="32"/>
     </row>
     <row r="70" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A70" s="57"/>
-      <c r="B70" s="61" t="s">
-        <v>319</v>
-      </c>
-      <c r="C70" s="58" t="str">
+      <c r="A70" s="84"/>
+      <c r="B70" s="59" t="s">
+        <v>318</v>
+      </c>
+      <c r="C70" s="56" t="str">
         <f t="shared" si="0"/>
         <v>2016</v>
       </c>
-      <c r="D70" s="62" t="s">
-        <v>704</v>
+      <c r="D70" s="60" t="s">
+        <v>703</v>
       </c>
       <c r="E70" s="32"/>
     </row>
     <row r="71" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A71" s="57"/>
-      <c r="B71" s="61" t="s">
-        <v>319</v>
-      </c>
-      <c r="C71" s="58" t="str">
+      <c r="A71" s="84"/>
+      <c r="B71" s="59" t="s">
+        <v>318</v>
+      </c>
+      <c r="C71" s="56" t="str">
         <f t="shared" si="0"/>
         <v>2016</v>
       </c>
-      <c r="D71" s="62" t="s">
-        <v>705</v>
+      <c r="D71" s="60" t="s">
+        <v>704</v>
       </c>
       <c r="E71" s="32"/>
     </row>
     <row r="72" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A72" s="57"/>
-      <c r="B72" s="61" t="s">
-        <v>319</v>
-      </c>
-      <c r="C72" s="58" t="str">
+      <c r="A72" s="84"/>
+      <c r="B72" s="59" t="s">
+        <v>318</v>
+      </c>
+      <c r="C72" s="56" t="str">
         <f t="shared" si="0"/>
         <v>2016</v>
       </c>
-      <c r="D72" s="62" t="s">
-        <v>706</v>
+      <c r="D72" s="60" t="s">
+        <v>705</v>
       </c>
       <c r="E72" s="32"/>
     </row>
     <row r="73" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A73" s="57"/>
-      <c r="B73" s="61" t="s">
-        <v>319</v>
-      </c>
-      <c r="C73" s="58" t="str">
+      <c r="A73" s="84"/>
+      <c r="B73" s="59" t="s">
+        <v>318</v>
+      </c>
+      <c r="C73" s="56" t="str">
         <f t="shared" si="0"/>
         <v>2017</v>
       </c>
-      <c r="D73" s="62" t="s">
-        <v>707</v>
+      <c r="D73" s="60" t="s">
+        <v>706</v>
       </c>
       <c r="E73" s="32"/>
     </row>
     <row r="74" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A74" s="53">
+      <c r="A74" s="83">
         <v>5</v>
       </c>
-      <c r="B74" s="54" t="s">
-        <v>348</v>
-      </c>
-      <c r="C74" s="63"/>
-      <c r="D74" s="64" t="s">
+      <c r="B74" s="53" t="s">
+        <v>347</v>
+      </c>
+      <c r="C74" s="61"/>
+      <c r="D74" s="62" t="s">
+        <v>670</v>
+      </c>
+      <c r="E74" s="32"/>
+    </row>
+    <row r="75" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A75" s="84"/>
+      <c r="B75" s="53" t="s">
+        <v>347</v>
+      </c>
+      <c r="C75" s="61"/>
+      <c r="D75" s="62" t="s">
+        <v>669</v>
+      </c>
+      <c r="E75" s="32"/>
+    </row>
+    <row r="76" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A76" s="84"/>
+      <c r="B76" s="53" t="s">
+        <v>347</v>
+      </c>
+      <c r="C76" s="61"/>
+      <c r="D76" s="62" t="s">
         <v>671</v>
       </c>
-      <c r="E74" s="32"/>
-    </row>
-    <row r="75" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A75" s="57"/>
-      <c r="B75" s="54" t="s">
-        <v>348</v>
-      </c>
-      <c r="C75" s="63"/>
-      <c r="D75" s="64" t="s">
-        <v>670</v>
-      </c>
-      <c r="E75" s="32"/>
-    </row>
-    <row r="76" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A76" s="57"/>
-      <c r="B76" s="54" t="s">
-        <v>348</v>
-      </c>
-      <c r="C76" s="63"/>
-      <c r="D76" s="64" t="s">
+      <c r="E76" s="32"/>
+    </row>
+    <row r="77" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A77" s="84"/>
+      <c r="B77" s="53" t="s">
+        <v>347</v>
+      </c>
+      <c r="C77" s="61"/>
+      <c r="D77" s="62" t="s">
         <v>672</v>
       </c>
-      <c r="E76" s="32"/>
-    </row>
-    <row r="77" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A77" s="57"/>
-      <c r="B77" s="54" t="s">
-        <v>348</v>
-      </c>
-      <c r="C77" s="63"/>
-      <c r="D77" s="64" t="s">
-        <v>673</v>
-      </c>
       <c r="E77" s="32"/>
     </row>
     <row r="78" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A78" s="57"/>
-      <c r="B78" s="54" t="s">
-        <v>348</v>
-      </c>
-      <c r="C78" s="63"/>
-      <c r="D78" s="64" t="s">
-        <v>669</v>
+      <c r="A78" s="84"/>
+      <c r="B78" s="53" t="s">
+        <v>347</v>
+      </c>
+      <c r="C78" s="61"/>
+      <c r="D78" s="62" t="s">
+        <v>668</v>
       </c>
       <c r="E78" s="32"/>
     </row>
     <row r="79" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A79" s="53">
+      <c r="A79" s="83">
         <v>6</v>
       </c>
-      <c r="B79" s="54" t="s">
-        <v>362</v>
-      </c>
-      <c r="C79" s="65" t="str">
+      <c r="B79" s="53" t="s">
+        <v>361</v>
+      </c>
+      <c r="C79" s="63" t="str">
         <f>RIGHT(D79,4)</f>
         <v>2015</v>
       </c>
-      <c r="D79" s="62" t="s">
-        <v>708</v>
+      <c r="D79" s="60" t="s">
+        <v>707</v>
       </c>
       <c r="E79" s="32"/>
     </row>
     <row r="80" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A80" s="57"/>
-      <c r="B80" s="54" t="s">
-        <v>362</v>
-      </c>
-      <c r="C80" s="65" t="str">
+      <c r="A80" s="84"/>
+      <c r="B80" s="53" t="s">
+        <v>361</v>
+      </c>
+      <c r="C80" s="63" t="str">
         <f t="shared" ref="C80:C82" si="1">RIGHT(D80,4)</f>
         <v>2015</v>
       </c>
-      <c r="D80" s="64" t="s">
-        <v>709</v>
+      <c r="D80" s="62" t="s">
+        <v>708</v>
       </c>
       <c r="E80" s="32"/>
     </row>
     <row r="81" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A81" s="57"/>
-      <c r="B81" s="54" t="s">
-        <v>362</v>
-      </c>
-      <c r="C81" s="65" t="str">
+      <c r="A81" s="84"/>
+      <c r="B81" s="53" t="s">
+        <v>361</v>
+      </c>
+      <c r="C81" s="63" t="str">
         <f t="shared" si="1"/>
         <v>2015</v>
       </c>
-      <c r="D81" s="64" t="s">
-        <v>710</v>
+      <c r="D81" s="62" t="s">
+        <v>709</v>
       </c>
       <c r="E81" s="32"/>
     </row>
     <row r="82" spans="1:8" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A82" s="57"/>
-      <c r="B82" s="54" t="s">
-        <v>362</v>
-      </c>
-      <c r="C82" s="65" t="str">
+      <c r="A82" s="84"/>
+      <c r="B82" s="53" t="s">
+        <v>361</v>
+      </c>
+      <c r="C82" s="63" t="str">
         <f t="shared" si="1"/>
         <v>2015</v>
       </c>
-      <c r="D82" s="64" t="s">
-        <v>711</v>
+      <c r="D82" s="62" t="s">
+        <v>710</v>
       </c>
       <c r="E82" s="42"/>
       <c r="H82" s="44"/>
     </row>
     <row r="83" spans="1:8" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A83" s="53">
+      <c r="A83" s="83">
         <v>7</v>
       </c>
-      <c r="B83" s="54" t="s">
-        <v>380</v>
-      </c>
-      <c r="C83" s="66" t="str">
+      <c r="B83" s="53" t="s">
+        <v>379</v>
+      </c>
+      <c r="C83" s="64" t="str">
         <f>RIGHT(D83,4)</f>
         <v>2015</v>
       </c>
-      <c r="D83" s="67" t="s">
-        <v>712</v>
+      <c r="D83" s="65" t="s">
+        <v>711</v>
       </c>
       <c r="E83" s="42"/>
       <c r="H83" s="44"/>
     </row>
     <row r="84" spans="1:8" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A84" s="53"/>
-      <c r="B84" s="54" t="s">
-        <v>380</v>
-      </c>
-      <c r="C84" s="66" t="str">
+      <c r="A84" s="83"/>
+      <c r="B84" s="53" t="s">
+        <v>379</v>
+      </c>
+      <c r="C84" s="64" t="str">
         <f t="shared" ref="C84:C90" si="2">RIGHT(D84,4)</f>
         <v>2015</v>
       </c>
-      <c r="D84" s="67" t="s">
-        <v>713</v>
+      <c r="D84" s="65" t="s">
+        <v>712</v>
       </c>
       <c r="E84" s="42"/>
       <c r="H84" s="44"/>
     </row>
     <row r="85" spans="1:8" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A85" s="53"/>
-      <c r="B85" s="54" t="s">
-        <v>380</v>
-      </c>
-      <c r="C85" s="66" t="str">
+      <c r="A85" s="83"/>
+      <c r="B85" s="53" t="s">
+        <v>379</v>
+      </c>
+      <c r="C85" s="64" t="str">
         <f t="shared" si="2"/>
         <v>2015</v>
       </c>
-      <c r="D85" s="62" t="s">
-        <v>714</v>
+      <c r="D85" s="60" t="s">
+        <v>713</v>
       </c>
       <c r="E85" s="42"/>
       <c r="H85" s="44"/>
     </row>
     <row r="86" spans="1:8" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A86" s="53"/>
-      <c r="B86" s="54" t="s">
-        <v>380</v>
-      </c>
-      <c r="C86" s="66" t="str">
+      <c r="A86" s="83"/>
+      <c r="B86" s="53" t="s">
+        <v>379</v>
+      </c>
+      <c r="C86" s="64" t="str">
         <f t="shared" si="2"/>
         <v>2016</v>
       </c>
-      <c r="D86" s="62" t="s">
-        <v>705</v>
+      <c r="D86" s="60" t="s">
+        <v>704</v>
       </c>
       <c r="E86" s="42"/>
       <c r="H86" s="44"/>
     </row>
     <row r="87" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="53"/>
-      <c r="B87" s="54" t="s">
-        <v>380</v>
-      </c>
-      <c r="C87" s="66" t="str">
+      <c r="A87" s="83"/>
+      <c r="B87" s="53" t="s">
+        <v>379</v>
+      </c>
+      <c r="C87" s="64" t="str">
         <f t="shared" si="2"/>
         <v>2016</v>
       </c>
-      <c r="D87" s="62" t="s">
-        <v>715</v>
+      <c r="D87" s="60" t="s">
+        <v>714</v>
       </c>
       <c r="E87" s="32"/>
     </row>
     <row r="88" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="53"/>
-      <c r="B88" s="54" t="s">
-        <v>380</v>
-      </c>
-      <c r="C88" s="66" t="str">
+      <c r="A88" s="83"/>
+      <c r="B88" s="53" t="s">
+        <v>379</v>
+      </c>
+      <c r="C88" s="64" t="str">
         <f t="shared" si="2"/>
         <v>2016</v>
       </c>
-      <c r="D88" s="62" t="s">
-        <v>705</v>
+      <c r="D88" s="60" t="s">
+        <v>704</v>
       </c>
       <c r="E88" s="32"/>
     </row>
     <row r="89" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A89" s="53">
+      <c r="A89" s="83">
         <v>8</v>
       </c>
-      <c r="B89" s="59" t="s">
-        <v>390</v>
-      </c>
-      <c r="C89" s="66" t="str">
+      <c r="B89" s="57" t="s">
+        <v>389</v>
+      </c>
+      <c r="C89" s="64" t="str">
         <f t="shared" si="2"/>
         <v>2016</v>
       </c>
-      <c r="D89" s="67" t="s">
-        <v>716</v>
+      <c r="D89" s="65" t="s">
+        <v>715</v>
       </c>
       <c r="E89" s="32"/>
     </row>
     <row r="90" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A90" s="53"/>
-      <c r="B90" s="59" t="s">
-        <v>390</v>
-      </c>
-      <c r="C90" s="66" t="str">
+      <c r="A90" s="83"/>
+      <c r="B90" s="57" t="s">
+        <v>389</v>
+      </c>
+      <c r="C90" s="64" t="str">
         <f t="shared" si="2"/>
         <v>2016</v>
       </c>
-      <c r="D90" s="67" t="s">
-        <v>717</v>
+      <c r="D90" s="65" t="s">
+        <v>716</v>
       </c>
       <c r="E90" s="32"/>
     </row>
     <row r="91" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A91" s="53"/>
-      <c r="B91" s="59" t="s">
-        <v>390</v>
-      </c>
-      <c r="C91" s="66" t="str">
+      <c r="A91" s="83"/>
+      <c r="B91" s="57" t="s">
+        <v>389</v>
+      </c>
+      <c r="C91" s="64" t="str">
         <f>RIGHT(D91,4)</f>
         <v>2016</v>
       </c>
-      <c r="D91" s="62" t="s">
-        <v>718</v>
+      <c r="D91" s="60" t="s">
+        <v>717</v>
       </c>
       <c r="E91" s="32"/>
     </row>
     <row r="92" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A92" s="53"/>
-      <c r="B92" s="59" t="s">
-        <v>390</v>
-      </c>
-      <c r="C92" s="66" t="str">
+      <c r="A92" s="83"/>
+      <c r="B92" s="57" t="s">
+        <v>389</v>
+      </c>
+      <c r="C92" s="64" t="str">
         <f t="shared" ref="C92:C94" si="3">RIGHT(D92,4)</f>
         <v>2017</v>
       </c>
-      <c r="D92" s="62" t="s">
-        <v>707</v>
+      <c r="D92" s="60" t="s">
+        <v>706</v>
       </c>
       <c r="E92" s="32"/>
     </row>
     <row r="93" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A93" s="53"/>
-      <c r="B93" s="59" t="s">
-        <v>390</v>
-      </c>
-      <c r="C93" s="66" t="str">
+      <c r="A93" s="83"/>
+      <c r="B93" s="57" t="s">
+        <v>389</v>
+      </c>
+      <c r="C93" s="64" t="str">
         <f t="shared" si="3"/>
         <v>2017</v>
       </c>
-      <c r="D93" s="62" t="s">
-        <v>719</v>
+      <c r="D93" s="60" t="s">
+        <v>718</v>
       </c>
       <c r="E93" s="32"/>
     </row>
     <row r="94" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A94" s="53"/>
-      <c r="B94" s="59" t="s">
-        <v>390</v>
-      </c>
-      <c r="C94" s="66" t="str">
+      <c r="A94" s="83"/>
+      <c r="B94" s="57" t="s">
+        <v>389</v>
+      </c>
+      <c r="C94" s="64" t="str">
         <f t="shared" si="3"/>
         <v>2017</v>
       </c>
-      <c r="D94" s="62" t="s">
+      <c r="D94" s="60" t="s">
+        <v>719</v>
+      </c>
+      <c r="E94" s="32"/>
+    </row>
+    <row r="95" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A95" s="85">
+        <v>9</v>
+      </c>
+      <c r="B95" s="66" t="s">
+        <v>397</v>
+      </c>
+      <c r="C95" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="D95" s="68">
+        <v>30</v>
+      </c>
+      <c r="E95" s="32"/>
+    </row>
+    <row r="96" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A96" s="86"/>
+      <c r="B96" s="66" t="s">
+        <v>397</v>
+      </c>
+      <c r="C96" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="D96" s="68">
+        <v>29</v>
+      </c>
+      <c r="E96" s="32"/>
+    </row>
+    <row r="97" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A97" s="83">
+        <v>10</v>
+      </c>
+      <c r="B97" s="57" t="s">
         <v>720</v>
       </c>
-      <c r="E94" s="32"/>
-    </row>
-    <row r="95" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A95" s="68">
-        <v>9</v>
-      </c>
-      <c r="B95" s="69" t="s">
-        <v>398</v>
-      </c>
-      <c r="C95" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="D95" s="71">
-        <v>30</v>
-      </c>
-      <c r="E95" s="32"/>
-    </row>
-    <row r="96" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A96" s="72"/>
-      <c r="B96" s="69" t="s">
-        <v>398</v>
-      </c>
-      <c r="C96" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="D96" s="71">
-        <v>29</v>
-      </c>
-      <c r="E96" s="32"/>
-    </row>
-    <row r="97" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A97" s="53">
-        <v>10</v>
-      </c>
-      <c r="B97" s="59" t="s">
-        <v>721</v>
-      </c>
-      <c r="C97" s="73" t="str">
+      <c r="C97" s="69" t="str">
         <f>RIGHT(D97,4)</f>
         <v>2013</v>
       </c>
-      <c r="D97" s="70" t="s">
-        <v>722</v>
+      <c r="D97" s="67" t="s">
+        <v>721</v>
       </c>
       <c r="E97" s="32"/>
     </row>
     <row r="98" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A98" s="53"/>
-      <c r="B98" s="59" t="s">
-        <v>721</v>
-      </c>
-      <c r="C98" s="73" t="str">
+      <c r="A98" s="83"/>
+      <c r="B98" s="57" t="s">
+        <v>720</v>
+      </c>
+      <c r="C98" s="69" t="str">
         <f t="shared" ref="C98:C101" si="4">RIGHT(D98,4)</f>
         <v>2014</v>
       </c>
-      <c r="D98" s="70" t="s">
-        <v>723</v>
+      <c r="D98" s="67" t="s">
+        <v>722</v>
       </c>
       <c r="E98" s="32"/>
     </row>
     <row r="99" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A99" s="53"/>
-      <c r="B99" s="59" t="s">
-        <v>721</v>
-      </c>
-      <c r="C99" s="73" t="str">
+      <c r="A99" s="83"/>
+      <c r="B99" s="57" t="s">
+        <v>720</v>
+      </c>
+      <c r="C99" s="69" t="str">
         <f t="shared" si="4"/>
         <v>2014</v>
       </c>
-      <c r="D99" s="70" t="s">
-        <v>724</v>
+      <c r="D99" s="67" t="s">
+        <v>723</v>
       </c>
       <c r="E99" s="32"/>
     </row>
     <row r="100" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A100" s="53"/>
-      <c r="B100" s="59" t="s">
-        <v>721</v>
-      </c>
-      <c r="C100" s="73" t="str">
+      <c r="A100" s="83"/>
+      <c r="B100" s="57" t="s">
+        <v>720</v>
+      </c>
+      <c r="C100" s="69" t="str">
         <f t="shared" si="4"/>
         <v>2015</v>
       </c>
-      <c r="D100" s="70" t="s">
-        <v>725</v>
+      <c r="D100" s="67" t="s">
+        <v>724</v>
       </c>
       <c r="E100" s="32"/>
     </row>
     <row r="101" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A101" s="53"/>
-      <c r="B101" s="59" t="s">
-        <v>721</v>
-      </c>
-      <c r="C101" s="73" t="str">
+      <c r="A101" s="83"/>
+      <c r="B101" s="57" t="s">
+        <v>720</v>
+      </c>
+      <c r="C101" s="69" t="str">
         <f t="shared" si="4"/>
         <v>2016</v>
       </c>
-      <c r="D101" s="55" t="s">
+      <c r="D101" s="54" t="s">
+        <v>725</v>
+      </c>
+      <c r="E101" s="32"/>
+    </row>
+    <row r="102" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A102" s="83">
+        <v>11</v>
+      </c>
+      <c r="B102" s="53" t="s">
+        <v>421</v>
+      </c>
+      <c r="C102" s="70"/>
+      <c r="D102" s="62" t="s">
+        <v>673</v>
+      </c>
+      <c r="E102" s="32"/>
+    </row>
+    <row r="103" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A103" s="84"/>
+      <c r="B103" s="53" t="s">
+        <v>421</v>
+      </c>
+      <c r="C103" s="70"/>
+      <c r="D103" s="62" t="s">
+        <v>674</v>
+      </c>
+      <c r="E103" s="32"/>
+    </row>
+    <row r="104" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A104" s="71">
+        <v>12</v>
+      </c>
+      <c r="B104" s="72" t="s">
+        <v>429</v>
+      </c>
+      <c r="C104" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104" s="58" t="s">
         <v>726</v>
       </c>
-      <c r="E101" s="32"/>
-    </row>
-    <row r="102" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A102" s="53">
+      <c r="E104" s="32"/>
+    </row>
+    <row r="105" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A105" s="71">
+        <v>13</v>
+      </c>
+      <c r="B105" s="72" t="s">
+        <v>442</v>
+      </c>
+      <c r="C105" s="56"/>
+      <c r="D105" s="55">
+        <v>7</v>
+      </c>
+      <c r="E105" s="32"/>
+    </row>
+    <row r="106" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A106" s="73">
+        <v>14</v>
+      </c>
+      <c r="B106" s="74" t="s">
+        <v>448</v>
+      </c>
+      <c r="C106" s="56"/>
+      <c r="D106" s="75"/>
+      <c r="E106" s="32"/>
+    </row>
+    <row r="107" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="73">
+        <v>15</v>
+      </c>
+      <c r="B107" s="76" t="s">
+        <v>458</v>
+      </c>
+      <c r="C107" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="D107" s="77" t="s">
+        <v>727</v>
+      </c>
+      <c r="E107" s="32"/>
+    </row>
+    <row r="108" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="73">
+        <v>16</v>
+      </c>
+      <c r="B108" s="74" t="s">
+        <v>463</v>
+      </c>
+      <c r="C108" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B102" s="54" t="s">
-        <v>422</v>
-      </c>
-      <c r="C102" s="74"/>
-      <c r="D102" s="64" t="s">
-        <v>674</v>
-      </c>
-      <c r="E102" s="32"/>
-    </row>
-    <row r="103" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A103" s="57"/>
-      <c r="B103" s="54" t="s">
-        <v>422</v>
-      </c>
-      <c r="C103" s="74"/>
-      <c r="D103" s="64" t="s">
-        <v>675</v>
-      </c>
-      <c r="E103" s="32"/>
-    </row>
-    <row r="104" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A104" s="75">
-        <v>12</v>
-      </c>
-      <c r="B104" s="76" t="s">
-        <v>430</v>
-      </c>
-      <c r="C104" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="D104" s="60" t="s">
-        <v>727</v>
-      </c>
-      <c r="E104" s="32"/>
-    </row>
-    <row r="105" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A105" s="75">
-        <v>13</v>
-      </c>
-      <c r="B105" s="76" t="s">
-        <v>443</v>
-      </c>
-      <c r="C105" s="58"/>
-      <c r="D105" s="56">
-        <v>7</v>
-      </c>
-      <c r="E105" s="32"/>
-    </row>
-    <row r="106" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A106" s="77">
-        <v>14</v>
-      </c>
-      <c r="B106" s="78" t="s">
-        <v>449</v>
-      </c>
-      <c r="C106" s="58"/>
-      <c r="D106" s="79"/>
-      <c r="E106" s="32"/>
-    </row>
-    <row r="107" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="77">
-        <v>15</v>
-      </c>
-      <c r="B107" s="80" t="s">
-        <v>459</v>
-      </c>
-      <c r="C107" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="D107" s="81" t="s">
+      <c r="D108" s="77" t="s">
         <v>728</v>
-      </c>
-      <c r="E107" s="32"/>
-    </row>
-    <row r="108" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="77">
-        <v>16</v>
-      </c>
-      <c r="B108" s="78" t="s">
-        <v>464</v>
-      </c>
-      <c r="C108" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="D108" s="81" t="s">
-        <v>729</v>
       </c>
       <c r="E108" s="32"/>
     </row>
@@ -27273,16 +27249,16 @@
     <row r="997" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A31:A55"/>
+    <mergeCell ref="A56:A73"/>
+    <mergeCell ref="A2:A30"/>
+    <mergeCell ref="A74:A78"/>
     <mergeCell ref="A102:A103"/>
     <mergeCell ref="A89:A94"/>
     <mergeCell ref="A95:A96"/>
     <mergeCell ref="A97:A101"/>
     <mergeCell ref="A79:A82"/>
     <mergeCell ref="A83:A88"/>
-    <mergeCell ref="A31:A55"/>
-    <mergeCell ref="A56:A73"/>
-    <mergeCell ref="A2:A30"/>
-    <mergeCell ref="A74:A78"/>
   </mergeCells>
   <conditionalFormatting sqref="B112 F9 F38 F63">
     <cfRule type="notContainsBlanks" dxfId="5" priority="6">
@@ -27350,119 +27326,119 @@
         <v>3</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
+        <v>555</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>556</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="C2" s="25" t="s">
         <v>557</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="D2" s="27" t="s">
         <v>558</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
+        <v>559</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>560</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="C3" s="25" t="s">
         <v>561</v>
       </c>
-      <c r="C3" s="25" t="s">
-        <v>562</v>
-      </c>
       <c r="D3" s="27" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B4" s="23" t="s">
         <v>113</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
+        <v>564</v>
+      </c>
+      <c r="B5" s="23" t="s">
         <v>565</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="C5" s="25" t="s">
         <v>566</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="D5" s="27" t="s">
         <v>567</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
+        <v>568</v>
+      </c>
+      <c r="B6" s="23" t="s">
         <v>569</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="C6" s="25" t="s">
         <v>570</v>
       </c>
-      <c r="C6" s="25" t="s">
-        <v>571</v>
-      </c>
       <c r="D6" s="27" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
+        <v>571</v>
+      </c>
+      <c r="B7" s="23" t="s">
         <v>572</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="C7" s="25" t="s">
         <v>573</v>
       </c>
-      <c r="C7" s="25" t="s">
-        <v>574</v>
-      </c>
       <c r="D7" s="27" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
+        <v>574</v>
+      </c>
+      <c r="B8" s="23" t="s">
         <v>575</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="C8" s="25" t="s">
         <v>576</v>
       </c>
-      <c r="C8" s="25" t="s">
-        <v>577</v>
-      </c>
       <c r="D8" s="27" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
+        <v>577</v>
+      </c>
+      <c r="B9" s="23" t="s">
         <v>578</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="C9" s="25" t="s">
         <v>579</v>
       </c>
-      <c r="C9" s="25" t="s">
-        <v>580</v>
-      </c>
       <c r="D9" s="27" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -27473,525 +27449,525 @@
         <v>160</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
+        <v>581</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>565</v>
+      </c>
+      <c r="C11" s="25" t="s">
         <v>582</v>
       </c>
-      <c r="B11" s="23" t="s">
-        <v>566</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>583</v>
-      </c>
       <c r="D11" s="27" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
+        <v>583</v>
+      </c>
+      <c r="B12" s="23" t="s">
         <v>584</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="C12" s="25" t="s">
         <v>585</v>
       </c>
-      <c r="C12" s="25" t="s">
-        <v>586</v>
-      </c>
       <c r="D12" s="27" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
+        <v>586</v>
+      </c>
+      <c r="B13" s="23" t="s">
         <v>587</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="C13" s="25" t="s">
         <v>588</v>
       </c>
-      <c r="C13" s="25" t="s">
-        <v>589</v>
-      </c>
       <c r="D13" s="27" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
+        <v>589</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="C14" s="25" t="s">
         <v>590</v>
       </c>
-      <c r="B14" s="23" t="s">
-        <v>423</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>591</v>
-      </c>
       <c r="D14" s="27" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="s">
+        <v>591</v>
+      </c>
+      <c r="B15" s="23" t="s">
         <v>592</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="C15" s="25" t="s">
         <v>593</v>
       </c>
-      <c r="C15" s="25" t="s">
-        <v>594</v>
-      </c>
       <c r="D15" s="27" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
+        <v>594</v>
+      </c>
+      <c r="B16" s="23" t="s">
         <v>595</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="C16" s="25" t="s">
         <v>596</v>
       </c>
-      <c r="C16" s="25" t="s">
-        <v>597</v>
-      </c>
       <c r="D16" s="27" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
+        <v>597</v>
+      </c>
+      <c r="B17" s="23" t="s">
         <v>598</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="C17" s="25" t="s">
         <v>599</v>
       </c>
-      <c r="C17" s="25" t="s">
-        <v>600</v>
-      </c>
       <c r="D17" s="27" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
+        <v>600</v>
+      </c>
+      <c r="B18" s="23" t="s">
         <v>601</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="C18" s="25" t="s">
         <v>602</v>
       </c>
-      <c r="C18" s="25" t="s">
-        <v>603</v>
-      </c>
       <c r="D18" s="27" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
+        <v>603</v>
+      </c>
+      <c r="B19" s="23" t="s">
         <v>604</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>605</v>
       </c>
       <c r="C19" s="25" t="s">
         <v>39</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
+        <v>605</v>
+      </c>
+      <c r="B20" s="23" t="s">
         <v>606</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="C20" s="25" t="s">
         <v>607</v>
       </c>
-      <c r="C20" s="25" t="s">
-        <v>608</v>
-      </c>
       <c r="D20" s="27" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
+        <v>608</v>
+      </c>
+      <c r="B21" s="23" t="s">
         <v>609</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="C21" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="C21" s="25" t="s">
-        <v>611</v>
-      </c>
       <c r="D21" s="27" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="s">
+        <v>611</v>
+      </c>
+      <c r="B22" s="23" t="s">
         <v>612</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="C22" s="25" t="s">
         <v>613</v>
       </c>
-      <c r="C22" s="25" t="s">
-        <v>614</v>
-      </c>
       <c r="D22" s="27" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="B23" s="23" t="s">
         <v>352</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="C23" s="25" t="s">
         <v>353</v>
       </c>
-      <c r="C23" s="25" t="s">
-        <v>354</v>
-      </c>
       <c r="D23" s="27" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="s">
+        <v>614</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>368</v>
+      </c>
+      <c r="C24" s="25" t="s">
         <v>615</v>
       </c>
-      <c r="B24" s="23" t="s">
-        <v>369</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>616</v>
-      </c>
       <c r="D24" s="27" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="s">
+        <v>616</v>
+      </c>
+      <c r="B25" s="23" t="s">
         <v>617</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="C25" s="25" t="s">
         <v>618</v>
       </c>
-      <c r="C25" s="25" t="s">
-        <v>619</v>
-      </c>
       <c r="D25" s="27" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="s">
+        <v>619</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>365</v>
+      </c>
+      <c r="C26" s="25" t="s">
         <v>620</v>
       </c>
-      <c r="B26" s="23" t="s">
-        <v>366</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>621</v>
-      </c>
       <c r="D26" s="27" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="s">
+        <v>621</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="C27" s="25" t="s">
         <v>622</v>
       </c>
-      <c r="B27" s="23" t="s">
-        <v>317</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>623</v>
-      </c>
       <c r="D27" s="27" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="23" t="s">
+        <v>623</v>
+      </c>
+      <c r="B28" s="23" t="s">
         <v>624</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="C28" s="25" t="s">
         <v>625</v>
       </c>
-      <c r="C28" s="25" t="s">
-        <v>626</v>
-      </c>
       <c r="D28" s="27" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="23" t="s">
+        <v>626</v>
+      </c>
+      <c r="B29" s="23" t="s">
         <v>627</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="C29" s="25" t="s">
         <v>628</v>
       </c>
-      <c r="C29" s="25" t="s">
-        <v>629</v>
-      </c>
       <c r="D29" s="27" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="23" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B30" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="C30" s="25" t="s">
         <v>382</v>
       </c>
-      <c r="C30" s="25" t="s">
-        <v>383</v>
-      </c>
       <c r="D30" s="27" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="23" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B31" s="28"/>
       <c r="C31" s="25" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="23" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B32" s="28"/>
       <c r="C32" s="25" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="23" t="s">
+        <v>633</v>
+      </c>
+      <c r="B33" s="23" t="s">
         <v>634</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="C33" s="25" t="s">
         <v>635</v>
       </c>
-      <c r="C33" s="25" t="s">
-        <v>636</v>
-      </c>
       <c r="D33" s="27" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="B34" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="C34" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="C34" s="25" t="s">
-        <v>258</v>
-      </c>
       <c r="D34" s="27" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="23" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="23" t="s">
+        <v>637</v>
+      </c>
+      <c r="B36" s="23" t="s">
         <v>638</v>
       </c>
-      <c r="B36" s="23" t="s">
-        <v>639</v>
-      </c>
       <c r="D36" s="27" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="23" t="s">
+        <v>639</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>541</v>
+      </c>
+      <c r="C37" s="25" t="s">
         <v>640</v>
       </c>
-      <c r="B37" s="23" t="s">
-        <v>542</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>641</v>
-      </c>
       <c r="D37" s="27" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="23" t="s">
+        <v>641</v>
+      </c>
+      <c r="B38" s="23" t="s">
         <v>642</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="C38" s="29" t="s">
         <v>643</v>
       </c>
-      <c r="C38" s="29" t="s">
+      <c r="D38" s="27" t="s">
+        <v>567</v>
+      </c>
+      <c r="E38" s="30" t="s">
         <v>644</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>568</v>
-      </c>
-      <c r="E38" s="30" t="s">
-        <v>645</v>
       </c>
       <c r="F38" s="30"/>
       <c r="G38" s="31" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="23" t="s">
+        <v>646</v>
+      </c>
+      <c r="B39" s="23" t="s">
         <v>647</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="C39" s="29" t="s">
+        <v>561</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>567</v>
+      </c>
+      <c r="E39" s="30" t="s">
         <v>648</v>
-      </c>
-      <c r="C39" s="29" t="s">
-        <v>562</v>
-      </c>
-      <c r="D39" s="27" t="s">
-        <v>568</v>
-      </c>
-      <c r="E39" s="30" t="s">
-        <v>649</v>
       </c>
       <c r="F39" s="30"/>
       <c r="G39" s="31" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="23" t="s">
+        <v>649</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>456</v>
+      </c>
+      <c r="C40" s="29" t="s">
         <v>650</v>
       </c>
-      <c r="B40" s="23" t="s">
-        <v>457</v>
-      </c>
-      <c r="C40" s="29" t="s">
+      <c r="D40" s="27" t="s">
+        <v>567</v>
+      </c>
+      <c r="E40" s="30" t="s">
         <v>651</v>
-      </c>
-      <c r="D40" s="27" t="s">
-        <v>568</v>
-      </c>
-      <c r="E40" s="30" t="s">
-        <v>652</v>
       </c>
       <c r="F40" s="30"/>
       <c r="G40" s="31" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="23" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B41" s="28"/>
       <c r="C41" s="29" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E41" s="30" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F41" s="30"/>
       <c r="G41" s="31" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="23" t="s">
+        <v>654</v>
+      </c>
+      <c r="B42" s="23" t="s">
         <v>655</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="C42" s="29" t="s">
         <v>656</v>
       </c>
-      <c r="C42" s="29" t="s">
+      <c r="D42" s="27" t="s">
+        <v>567</v>
+      </c>
+      <c r="E42" s="30" t="s">
         <v>657</v>
-      </c>
-      <c r="D42" s="27" t="s">
-        <v>568</v>
-      </c>
-      <c r="E42" s="30" t="s">
-        <v>658</v>
       </c>
       <c r="F42" s="30"/>
       <c r="G42" s="31" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="23" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D43" s="24"/>
     </row>
     <row r="44" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="23" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D44" s="24"/>
     </row>
     <row r="45" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="23" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D45" s="24"/>
     </row>
     <row r="46" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="23" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D46" s="24"/>
     </row>
     <row r="47" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="23" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D47" s="24"/>
     </row>
     <row r="48" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="23" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D48" s="24"/>
     </row>
     <row r="49" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="23" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D49" s="24"/>
     </row>

--- a/lib-data.xlsx
+++ b/lib-data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaszeluk\Documents\projekty\melvil-inkubator\library-data\newest-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaszeluk\Documents\projekty\melvil-inkubator\melvil\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4911FD2F-2D14-4143-8204-373E91C41C89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8A35A3-CC99-471D-A92A-C45A9EF5F8B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="744">
   <si>
     <t>Lp.</t>
   </si>
@@ -599,9 +599,6 @@
     <t>Exceptional C++, 47 Engineering Puzzles, Programming Problems, and Solutions</t>
   </si>
   <si>
-    <t>021723</t>
-  </si>
-  <si>
     <t>Metody projektowania systemów zarządzania</t>
   </si>
   <si>
@@ -660,9 +657,6 @@
   </si>
   <si>
     <t>021809</t>
-  </si>
-  <si>
-    <t>021726</t>
   </si>
   <si>
     <t>Prowadzenie spotkań biznesowych</t>
@@ -2714,14 +2708,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2785,28 +2771,20 @@
     <xf numFmtId="49" fontId="3" fillId="25" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3168,11 +3146,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J949"/>
+  <dimension ref="A1:J947"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B151" sqref="B151"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A149" sqref="A149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3529,7 +3507,7 @@
         <v>95</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -3844,12 +3822,12 @@
         <v>175</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="15"/>
+        <v>193</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
     </row>
@@ -3859,17 +3837,17 @@
         <v>32</v>
       </c>
       <c r="B33" s="47" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="C33" s="47" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="6"/>
+      <c r="G33" s="8"/>
       <c r="H33" s="6"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -3880,34 +3858,34 @@
         <v>33</v>
       </c>
       <c r="B34" s="47" t="s">
+        <v>196</v>
+      </c>
+      <c r="C34" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="C34" s="47" t="s">
-        <v>198</v>
-      </c>
       <c r="D34" s="12" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="8"/>
+      <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
     </row>
-    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="18">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B35" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="C35" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="C35" s="47" t="s">
-        <v>198</v>
-      </c>
       <c r="D35" s="12" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -3916,24 +3894,24 @@
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
     </row>
-    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="18">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B36" s="47" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="C36" s="47" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="15"/>
+        <v>222</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
     </row>
@@ -3943,17 +3921,17 @@
         <v>36</v>
       </c>
       <c r="B37" s="47" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="C37" s="47" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
-      <c r="G37" s="6"/>
+      <c r="G37" s="8"/>
       <c r="H37" s="6"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
@@ -3964,13 +3942,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="47" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="C38" s="47" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -3985,18 +3963,18 @@
         <v>38</v>
       </c>
       <c r="B39" s="47" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
+        <v>239</v>
+      </c>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
       <c r="G39" s="8"/>
-      <c r="H39" s="6"/>
+      <c r="H39" s="15"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
     </row>
@@ -4006,18 +3984,18 @@
         <v>39</v>
       </c>
       <c r="B40" s="47" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="C40" s="47" t="s">
-        <v>235</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
+        <v>244</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="15"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
     </row>
@@ -4027,18 +4005,18 @@
         <v>40</v>
       </c>
       <c r="B41" s="47" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="C41" s="47" t="s">
-        <v>240</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
+        <v>251</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
       <c r="G41" s="8"/>
-      <c r="H41" s="15"/>
+      <c r="H41" s="6"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
     </row>
@@ -4048,18 +4026,18 @@
         <v>41</v>
       </c>
       <c r="B42" s="47" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="C42" s="47" t="s">
-        <v>246</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
+        <v>257</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
       <c r="G42" s="8"/>
-      <c r="H42" s="15"/>
+      <c r="H42" s="6"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
     </row>
@@ -4069,17 +4047,17 @@
         <v>42</v>
       </c>
       <c r="B43" s="47" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="C43" s="47" t="s">
-        <v>253</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="8"/>
+        <v>262</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
@@ -4090,16 +4068,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="47" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="C44" s="47" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
+        <v>269</v>
+      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
       <c r="G44" s="8"/>
       <c r="H44" s="6"/>
       <c r="I44" s="4"/>
@@ -4111,18 +4089,18 @@
         <v>44</v>
       </c>
       <c r="B45" s="47" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="C45" s="47" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
+        <v>277</v>
+      </c>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="15"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
     </row>
@@ -4132,17 +4110,15 @@
         <v>45</v>
       </c>
       <c r="B46" s="47" t="s">
-        <v>268</v>
-      </c>
-      <c r="C46" s="47" t="s">
-        <v>270</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="C46" s="47"/>
       <c r="D46" s="12" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
-      <c r="G46" s="8"/>
+      <c r="G46" s="6"/>
       <c r="H46" s="6"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
@@ -4153,18 +4129,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="47" t="s">
-        <v>276</v>
-      </c>
-      <c r="C47" s="47" t="s">
-        <v>278</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="C47" s="47"/>
       <c r="D47" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="15"/>
+        <v>287</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
     </row>
@@ -4174,11 +4148,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="47" t="s">
-        <v>283</v>
-      </c>
-      <c r="C48" s="47"/>
+        <v>290</v>
+      </c>
+      <c r="C48" s="47" t="s">
+        <v>291</v>
+      </c>
       <c r="D48" s="12" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
@@ -4193,11 +4169,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="47" t="s">
-        <v>288</v>
-      </c>
-      <c r="C49" s="47"/>
+        <v>297</v>
+      </c>
+      <c r="C49" s="47" t="s">
+        <v>298</v>
+      </c>
       <c r="D49" s="12" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
@@ -4212,13 +4190,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="47" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="C50" s="47" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
@@ -4233,13 +4211,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="47" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="C51" s="47" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
@@ -4254,14 +4232,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="47" t="s">
-        <v>302</v>
-      </c>
-      <c r="C52" s="47" t="s">
-        <v>303</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>304</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="C52" s="47"/>
+      <c r="D52" s="12"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="6"/>
@@ -4275,18 +4249,18 @@
         <v>52</v>
       </c>
       <c r="B53" s="47" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="C53" s="47" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="17"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
     </row>
@@ -4296,10 +4270,14 @@
         <v>53</v>
       </c>
       <c r="B54" s="47" t="s">
-        <v>309</v>
-      </c>
-      <c r="C54" s="47"/>
-      <c r="D54" s="12"/>
+        <v>317</v>
+      </c>
+      <c r="C54" s="47" t="s">
+        <v>318</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>319</v>
+      </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="6"/>
@@ -4313,18 +4291,18 @@
         <v>54</v>
       </c>
       <c r="B55" s="47" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C55" s="47" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="17"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
     </row>
@@ -4334,13 +4312,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="47" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C56" s="47" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
@@ -4355,13 +4333,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="47" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C57" s="47" t="s">
-        <v>323</v>
+        <v>244</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
@@ -4376,13 +4354,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="47" t="s">
-        <v>325</v>
+        <v>278</v>
       </c>
       <c r="C58" s="47" t="s">
-        <v>326</v>
+        <v>279</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
@@ -4397,18 +4375,18 @@
         <v>58</v>
       </c>
       <c r="B59" s="47" t="s">
-        <v>328</v>
+        <v>278</v>
       </c>
       <c r="C59" s="47" t="s">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="15"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
     </row>
@@ -4418,18 +4396,18 @@
         <v>59</v>
       </c>
       <c r="B60" s="47" t="s">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="C60" s="47" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
+        <v>332</v>
+      </c>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="15"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
     </row>
@@ -4439,13 +4417,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="47" t="s">
-        <v>280</v>
+        <v>333</v>
       </c>
       <c r="C61" s="47" t="s">
-        <v>281</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>331</v>
+        <v>334</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>335</v>
       </c>
       <c r="E61" s="14"/>
       <c r="F61" s="14"/>
@@ -4460,18 +4438,18 @@
         <v>61</v>
       </c>
       <c r="B62" s="47" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C62" s="47" t="s">
-        <v>333</v>
+        <v>244</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="15"/>
+        <v>337</v>
+      </c>
+      <c r="E62" s="9"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
     </row>
@@ -4481,18 +4459,18 @@
         <v>62</v>
       </c>
       <c r="B63" s="47" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C63" s="47" t="s">
-        <v>336</v>
-      </c>
-      <c r="D63" s="16" t="s">
-        <v>337</v>
-      </c>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="15"/>
+        <v>339</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
     </row>
@@ -4505,13 +4483,13 @@
         <v>338</v>
       </c>
       <c r="C64" s="47" t="s">
-        <v>246</v>
+        <v>339</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="E64" s="9"/>
-      <c r="F64" s="19"/>
+        <v>341</v>
+      </c>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
       <c r="I64" s="4"/>
@@ -4523,13 +4501,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="47" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C65" s="47" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
@@ -4544,13 +4522,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="47" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="C66" s="47" t="s">
-        <v>341</v>
-      </c>
-      <c r="D66" s="12" t="s">
-        <v>343</v>
+        <v>347</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>348</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
@@ -4565,17 +4543,17 @@
         <v>66</v>
       </c>
       <c r="B67" s="47" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C67" s="47" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>347</v>
-      </c>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="6"/>
+        <v>351</v>
+      </c>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="8"/>
       <c r="H67" s="6"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
@@ -4586,13 +4564,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="47" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C68" s="47" t="s">
-        <v>349</v>
-      </c>
-      <c r="D68" s="16" t="s">
-        <v>350</v>
+        <v>353</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>354</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
@@ -4606,18 +4584,18 @@
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="B69" s="47" t="s">
-        <v>351</v>
+      <c r="B69" s="48" t="s">
+        <v>355</v>
       </c>
       <c r="C69" s="47" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>353</v>
-      </c>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="8"/>
+        <v>358</v>
+      </c>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="6"/>
       <c r="H69" s="6"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
@@ -4628,13 +4606,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="47" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="C70" s="47" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
@@ -4648,14 +4626,14 @@
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="B71" s="48" t="s">
-        <v>357</v>
+      <c r="B71" s="47" t="s">
+        <v>362</v>
       </c>
       <c r="C71" s="47" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
@@ -4670,13 +4648,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="47" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C72" s="47" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
@@ -4691,13 +4669,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="47" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C73" s="47" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
@@ -4712,13 +4690,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="47" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C74" s="47" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
@@ -4733,13 +4711,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="47" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C75" s="47" t="s">
-        <v>371</v>
-      </c>
-      <c r="D75" s="12" t="s">
-        <v>372</v>
+        <v>376</v>
+      </c>
+      <c r="D75" s="16" t="s">
+        <v>377</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
@@ -4754,17 +4732,17 @@
         <v>75</v>
       </c>
       <c r="B76" s="47" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="C76" s="47" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="6"/>
+        <v>380</v>
+      </c>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="8"/>
       <c r="H76" s="6"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
@@ -4775,13 +4753,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="47" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C77" s="47" t="s">
-        <v>378</v>
-      </c>
-      <c r="D77" s="16" t="s">
-        <v>379</v>
+        <v>382</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>383</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
@@ -4796,17 +4774,17 @@
         <v>77</v>
       </c>
       <c r="B78" s="47" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="C78" s="47" t="s">
-        <v>381</v>
+        <v>238</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>382</v>
-      </c>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="8"/>
+        <v>386</v>
+      </c>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="6"/>
       <c r="H78" s="6"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
@@ -4817,13 +4795,13 @@
         <v>78</v>
       </c>
       <c r="B79" s="47" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C79" s="47" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
@@ -4838,13 +4816,11 @@
         <v>79</v>
       </c>
       <c r="B80" s="47" t="s">
-        <v>387</v>
-      </c>
-      <c r="C80" s="47" t="s">
-        <v>240</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="C80" s="47"/>
       <c r="D80" s="12" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
@@ -4858,14 +4834,14 @@
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="B81" s="47" t="s">
-        <v>389</v>
+      <c r="B81" s="48" t="s">
+        <v>393</v>
       </c>
       <c r="C81" s="47" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
@@ -4880,11 +4856,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="47" t="s">
-        <v>392</v>
-      </c>
-      <c r="C82" s="47"/>
+        <v>396</v>
+      </c>
+      <c r="C82" s="47" t="s">
+        <v>397</v>
+      </c>
       <c r="D82" s="12" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
@@ -4898,14 +4876,14 @@
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="B83" s="48" t="s">
-        <v>395</v>
+      <c r="B83" s="47" t="s">
+        <v>396</v>
       </c>
       <c r="C83" s="47" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
@@ -4920,13 +4898,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="47" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C84" s="47" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
@@ -4941,13 +4919,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="47" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="C85" s="47" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
@@ -4962,13 +4940,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="47" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C86" s="47" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
@@ -4983,13 +4961,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="47" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C87" s="47" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
@@ -5004,13 +4982,13 @@
         <v>87</v>
       </c>
       <c r="B88" s="47" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C88" s="47" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
@@ -5024,14 +5002,14 @@
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="B89" s="47" t="s">
-        <v>411</v>
+      <c r="B89" s="49" t="s">
+        <v>415</v>
       </c>
       <c r="C89" s="47" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
@@ -5046,18 +5024,18 @@
         <v>89</v>
       </c>
       <c r="B90" s="47" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="C90" s="47" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>416</v>
-      </c>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
+        <v>421</v>
+      </c>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
       <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
+      <c r="H90" s="15"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
     </row>
@@ -5066,15 +5044,13 @@
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="B91" s="49" t="s">
-        <v>417</v>
+      <c r="B91" s="47" t="s">
+        <v>422</v>
       </c>
       <c r="C91" s="47" t="s">
-        <v>419</v>
-      </c>
-      <c r="D91" s="12" t="s">
-        <v>420</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="D91" s="16"/>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
       <c r="G91" s="6"/>
@@ -5088,18 +5064,16 @@
         <v>91</v>
       </c>
       <c r="B92" s="47" t="s">
-        <v>421</v>
-      </c>
-      <c r="C92" s="47" t="s">
-        <v>422</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="C92" s="47"/>
       <c r="D92" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="15"/>
+        <v>426</v>
+      </c>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="6"/>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
     </row>
@@ -5109,12 +5083,12 @@
         <v>92</v>
       </c>
       <c r="B93" s="47" t="s">
-        <v>424</v>
-      </c>
-      <c r="C93" s="47" t="s">
-        <v>425</v>
-      </c>
-      <c r="D93" s="16"/>
+        <v>427</v>
+      </c>
+      <c r="C93" s="47"/>
+      <c r="D93" s="12" t="s">
+        <v>428</v>
+      </c>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
       <c r="G93" s="6"/>
@@ -5128,15 +5102,15 @@
         <v>93</v>
       </c>
       <c r="B94" s="47" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C94" s="47"/>
       <c r="D94" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="E94" s="4"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="8"/>
+        <v>430</v>
+      </c>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="6"/>
       <c r="H94" s="6"/>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
@@ -5147,16 +5121,16 @@
         <v>94</v>
       </c>
       <c r="B95" s="47" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C95" s="47"/>
       <c r="D95" s="12" t="s">
-        <v>430</v>
-      </c>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
+        <v>433</v>
+      </c>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="15"/>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
     </row>
@@ -5166,11 +5140,13 @@
         <v>95</v>
       </c>
       <c r="B96" s="47" t="s">
-        <v>431</v>
-      </c>
-      <c r="C96" s="47"/>
+        <v>434</v>
+      </c>
+      <c r="C96" s="47" t="s">
+        <v>435</v>
+      </c>
       <c r="D96" s="12" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
@@ -5185,16 +5161,18 @@
         <v>96</v>
       </c>
       <c r="B97" s="47" t="s">
-        <v>434</v>
-      </c>
-      <c r="C97" s="47"/>
+        <v>438</v>
+      </c>
+      <c r="C97" s="47" t="s">
+        <v>439</v>
+      </c>
       <c r="D97" s="12" t="s">
-        <v>435</v>
-      </c>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c r="G97" s="8"/>
-      <c r="H97" s="15"/>
+        <v>440</v>
+      </c>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
     </row>
@@ -5204,17 +5182,17 @@
         <v>97</v>
       </c>
       <c r="B98" s="47" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="C98" s="47" t="s">
-        <v>437</v>
+        <v>197</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
-      <c r="G98" s="6"/>
+      <c r="G98" s="8"/>
       <c r="H98" s="6"/>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
@@ -5225,16 +5203,16 @@
         <v>98</v>
       </c>
       <c r="B99" s="47" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="C99" s="47" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>442</v>
-      </c>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5"/>
+        <v>446</v>
+      </c>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
       <c r="I99" s="4"/>
@@ -5246,17 +5224,17 @@
         <v>99</v>
       </c>
       <c r="B100" s="47" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="C100" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="D100" s="12" t="s">
-        <v>444</v>
+        <v>448</v>
+      </c>
+      <c r="D100" s="16" t="s">
+        <v>449</v>
       </c>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
-      <c r="G100" s="8"/>
+      <c r="G100" s="6"/>
       <c r="H100" s="6"/>
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
@@ -5267,16 +5245,16 @@
         <v>100</v>
       </c>
       <c r="B101" s="47" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C101" s="47" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
+        <v>452</v>
+      </c>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
       <c r="G101" s="6"/>
       <c r="H101" s="6"/>
       <c r="I101" s="4"/>
@@ -5288,18 +5266,18 @@
         <v>101</v>
       </c>
       <c r="B102" s="47" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C102" s="47" t="s">
-        <v>450</v>
-      </c>
-      <c r="D102" s="16" t="s">
         <v>451</v>
       </c>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="6"/>
-      <c r="H102" s="6"/>
+      <c r="D102" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c r="G102" s="8"/>
+      <c r="H102" s="15"/>
       <c r="I102" s="4"/>
       <c r="J102" s="4"/>
     </row>
@@ -5309,18 +5287,18 @@
         <v>102</v>
       </c>
       <c r="B103" s="47" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C103" s="47" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>454</v>
-      </c>
-      <c r="E103" s="4"/>
-      <c r="F103" s="4"/>
+        <v>457</v>
+      </c>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
       <c r="G103" s="6"/>
-      <c r="H103" s="6"/>
+      <c r="H103" s="15"/>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
     </row>
@@ -5330,18 +5308,18 @@
         <v>103</v>
       </c>
       <c r="B104" s="47" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="C104" s="47" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>456</v>
-      </c>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
-      <c r="G104" s="8"/>
-      <c r="H104" s="15"/>
+        <v>461</v>
+      </c>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="6"/>
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
     </row>
@@ -5351,18 +5329,18 @@
         <v>104</v>
       </c>
       <c r="B105" s="47" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="C105" s="47" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>459</v>
-      </c>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
+        <v>464</v>
+      </c>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
       <c r="G105" s="6"/>
-      <c r="H105" s="15"/>
+      <c r="H105" s="6"/>
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
     </row>
@@ -5372,13 +5350,13 @@
         <v>105</v>
       </c>
       <c r="B106" s="47" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="C106" s="47" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
@@ -5393,13 +5371,13 @@
         <v>106</v>
       </c>
       <c r="B107" s="47" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="C107" s="47" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
@@ -5414,13 +5392,13 @@
         <v>107</v>
       </c>
       <c r="B108" s="47" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C108" s="47" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
@@ -5435,13 +5413,13 @@
         <v>108</v>
       </c>
       <c r="B109" s="47" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="C109" s="47" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
@@ -5456,13 +5434,13 @@
         <v>109</v>
       </c>
       <c r="B110" s="47" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C110" s="47" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
@@ -5477,13 +5455,13 @@
         <v>110</v>
       </c>
       <c r="B111" s="47" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C111" s="47" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
@@ -5498,13 +5476,13 @@
         <v>111</v>
       </c>
       <c r="B112" s="47" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C112" s="47" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
@@ -5519,18 +5497,18 @@
         <v>112</v>
       </c>
       <c r="B113" s="47" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C113" s="47" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>481</v>
-      </c>
-      <c r="E113" s="5"/>
-      <c r="F113" s="5"/>
-      <c r="G113" s="6"/>
-      <c r="H113" s="6"/>
+        <v>485</v>
+      </c>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+      <c r="G113" s="8"/>
+      <c r="H113" s="15"/>
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
     </row>
@@ -5540,18 +5518,18 @@
         <v>113</v>
       </c>
       <c r="B114" s="47" t="s">
-        <v>482</v>
+        <v>338</v>
       </c>
       <c r="C114" s="47" t="s">
-        <v>483</v>
+        <v>339</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>484</v>
-      </c>
-      <c r="E114" s="5"/>
-      <c r="F114" s="5"/>
-      <c r="G114" s="6"/>
-      <c r="H114" s="6"/>
+        <v>486</v>
+      </c>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c r="G114" s="8"/>
+      <c r="H114" s="15"/>
       <c r="I114" s="4"/>
       <c r="J114" s="4"/>
     </row>
@@ -5561,18 +5539,18 @@
         <v>114</v>
       </c>
       <c r="B115" s="47" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C115" s="47" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>487</v>
-      </c>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
-      <c r="G115" s="8"/>
-      <c r="H115" s="15"/>
+        <v>489</v>
+      </c>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="6"/>
       <c r="I115" s="4"/>
       <c r="J115" s="4"/>
     </row>
@@ -5582,18 +5560,18 @@
         <v>115</v>
       </c>
       <c r="B116" s="47" t="s">
-        <v>340</v>
+        <v>490</v>
       </c>
       <c r="C116" s="47" t="s">
-        <v>341</v>
+        <v>491</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>488</v>
-      </c>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c r="G116" s="8"/>
-      <c r="H116" s="15"/>
+        <v>492</v>
+      </c>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="6"/>
+      <c r="H116" s="6"/>
       <c r="I116" s="4"/>
       <c r="J116" s="4"/>
     </row>
@@ -5603,14 +5581,12 @@
         <v>116</v>
       </c>
       <c r="B117" s="47" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="C117" s="47" t="s">
-        <v>490</v>
-      </c>
-      <c r="D117" s="12" t="s">
-        <v>491</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="D117" s="12"/>
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
       <c r="G117" s="6"/>
@@ -5624,39 +5600,33 @@
         <v>117</v>
       </c>
       <c r="B118" s="47" t="s">
-        <v>492</v>
+        <v>670</v>
       </c>
       <c r="C118" s="47" t="s">
-        <v>493</v>
-      </c>
-      <c r="D118" s="12" t="s">
-        <v>494</v>
-      </c>
-      <c r="E118" s="5"/>
-      <c r="F118" s="5"/>
-      <c r="G118" s="6"/>
-      <c r="H118" s="6"/>
+        <v>671</v>
+      </c>
+      <c r="D118" s="16"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c r="G118" s="8"/>
+      <c r="H118" s="15"/>
       <c r="I118" s="4"/>
       <c r="J118" s="4"/>
     </row>
-    <row r="119" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" s="37" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A119" s="18">
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
       <c r="B119" s="47" t="s">
-        <v>495</v>
+        <v>308</v>
       </c>
       <c r="C119" s="47" t="s">
-        <v>496</v>
+        <v>309</v>
       </c>
       <c r="D119" s="12"/>
-      <c r="E119" s="5"/>
-      <c r="F119" s="5"/>
-      <c r="G119" s="6"/>
-      <c r="H119" s="6"/>
-      <c r="I119" s="4"/>
-      <c r="J119" s="4"/>
+      <c r="G119" s="38"/>
+      <c r="H119" s="38"/>
     </row>
     <row r="120" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A120" s="18">
@@ -5664,33 +5634,37 @@
         <v>119</v>
       </c>
       <c r="B120" s="47" t="s">
-        <v>672</v>
+        <v>495</v>
       </c>
       <c r="C120" s="47" t="s">
-        <v>673</v>
-      </c>
-      <c r="D120" s="16"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
+        <v>496</v>
+      </c>
+      <c r="D120" s="12"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
       <c r="G120" s="8"/>
-      <c r="H120" s="15"/>
+      <c r="H120" s="6"/>
       <c r="I120" s="4"/>
       <c r="J120" s="4"/>
     </row>
-    <row r="121" spans="1:10" s="37" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A121" s="18">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="B121" s="47" t="s">
-        <v>310</v>
+        <v>497</v>
       </c>
       <c r="C121" s="47" t="s">
-        <v>311</v>
+        <v>498</v>
       </c>
       <c r="D121" s="12"/>
-      <c r="G121" s="38"/>
-      <c r="H121" s="38"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="8"/>
+      <c r="H121" s="6"/>
+      <c r="I121" s="4"/>
+      <c r="J121" s="4"/>
     </row>
     <row r="122" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A122" s="18">
@@ -5698,10 +5672,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="47" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C122" s="47" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D122" s="12"/>
       <c r="E122" s="5"/>
@@ -5717,10 +5691,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="47" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C123" s="47" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D123" s="12"/>
       <c r="E123" s="5"/>
@@ -5736,12 +5710,14 @@
         <v>123</v>
       </c>
       <c r="B124" s="47" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C124" s="47" t="s">
-        <v>502</v>
-      </c>
-      <c r="D124" s="12"/>
+        <v>504</v>
+      </c>
+      <c r="D124" s="12" t="s">
+        <v>505</v>
+      </c>
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
       <c r="G124" s="8"/>
@@ -5755,12 +5731,14 @@
         <v>124</v>
       </c>
       <c r="B125" s="47" t="s">
-        <v>503</v>
+        <v>672</v>
       </c>
       <c r="C125" s="47" t="s">
-        <v>504</v>
-      </c>
-      <c r="D125" s="12"/>
+        <v>673</v>
+      </c>
+      <c r="D125" s="12" t="s">
+        <v>730</v>
+      </c>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
       <c r="G125" s="8"/>
@@ -5774,18 +5752,16 @@
         <v>125</v>
       </c>
       <c r="B126" s="47" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C126" s="47" t="s">
-        <v>506</v>
-      </c>
-      <c r="D126" s="12" t="s">
-        <v>507</v>
-      </c>
-      <c r="E126" s="5"/>
-      <c r="F126" s="5"/>
-      <c r="G126" s="8"/>
-      <c r="H126" s="6"/>
+        <v>262</v>
+      </c>
+      <c r="D126" s="12"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14"/>
+      <c r="G126" s="6"/>
+      <c r="H126" s="15"/>
       <c r="I126" s="4"/>
       <c r="J126" s="4"/>
     </row>
@@ -5795,18 +5771,16 @@
         <v>126</v>
       </c>
       <c r="B127" s="47" t="s">
-        <v>674</v>
+        <v>507</v>
       </c>
       <c r="C127" s="47" t="s">
-        <v>675</v>
-      </c>
-      <c r="D127" s="12" t="s">
-        <v>732</v>
-      </c>
-      <c r="E127" s="5"/>
-      <c r="F127" s="5"/>
-      <c r="G127" s="8"/>
-      <c r="H127" s="6"/>
+        <v>508</v>
+      </c>
+      <c r="D127" s="12"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="14"/>
+      <c r="G127" s="6"/>
+      <c r="H127" s="15"/>
       <c r="I127" s="4"/>
       <c r="J127" s="4"/>
     </row>
@@ -5816,12 +5790,14 @@
         <v>127</v>
       </c>
       <c r="B128" s="47" t="s">
-        <v>508</v>
+        <v>447</v>
       </c>
       <c r="C128" s="47" t="s">
-        <v>264</v>
-      </c>
-      <c r="D128" s="12"/>
+        <v>448</v>
+      </c>
+      <c r="D128" s="16" t="s">
+        <v>509</v>
+      </c>
       <c r="E128" s="14"/>
       <c r="F128" s="14"/>
       <c r="G128" s="6"/>
@@ -5835,16 +5811,18 @@
         <v>128</v>
       </c>
       <c r="B129" s="47" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C129" s="47" t="s">
-        <v>510</v>
-      </c>
-      <c r="D129" s="12"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
+        <v>511</v>
+      </c>
+      <c r="D129" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="E129" s="4"/>
+      <c r="F129" s="4"/>
       <c r="G129" s="6"/>
-      <c r="H129" s="15"/>
+      <c r="H129" s="6"/>
       <c r="I129" s="4"/>
       <c r="J129" s="4"/>
     </row>
@@ -5854,37 +5832,33 @@
         <v>129</v>
       </c>
       <c r="B130" s="47" t="s">
-        <v>449</v>
+        <v>513</v>
       </c>
       <c r="C130" s="47" t="s">
-        <v>450</v>
-      </c>
-      <c r="D130" s="16" t="s">
-        <v>511</v>
-      </c>
-      <c r="E130" s="14"/>
-      <c r="F130" s="14"/>
+        <v>514</v>
+      </c>
+      <c r="D130" s="12"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
       <c r="G130" s="6"/>
-      <c r="H130" s="15"/>
+      <c r="H130" s="6"/>
       <c r="I130" s="4"/>
       <c r="J130" s="4"/>
     </row>
     <row r="131" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A131" s="18">
-        <f t="shared" ref="A131:A150" si="2">A130+1</f>
+        <f t="shared" ref="A131:A147" si="2">A130+1</f>
         <v>130</v>
       </c>
       <c r="B131" s="47" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C131" s="47" t="s">
-        <v>513</v>
-      </c>
-      <c r="D131" s="12" t="s">
-        <v>514</v>
-      </c>
-      <c r="E131" s="4"/>
-      <c r="F131" s="4"/>
+        <v>516</v>
+      </c>
+      <c r="D131" s="12"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
       <c r="G131" s="6"/>
       <c r="H131" s="6"/>
       <c r="I131" s="4"/>
@@ -5920,7 +5894,9 @@
       <c r="C133" s="47" t="s">
         <v>518</v>
       </c>
-      <c r="D133" s="12"/>
+      <c r="D133" s="12" t="s">
+        <v>519</v>
+      </c>
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
       <c r="G133" s="6"/>
@@ -5934,15 +5910,17 @@
         <v>133</v>
       </c>
       <c r="B134" s="47" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="C134" s="47" t="s">
-        <v>518</v>
-      </c>
-      <c r="D134" s="12"/>
+        <v>521</v>
+      </c>
+      <c r="D134" s="12" t="s">
+        <v>522</v>
+      </c>
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
-      <c r="G134" s="6"/>
+      <c r="G134" s="8"/>
       <c r="H134" s="6"/>
       <c r="I134" s="4"/>
       <c r="J134" s="4"/>
@@ -5953,17 +5931,15 @@
         <v>134</v>
       </c>
       <c r="B135" s="47" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="C135" s="47" t="s">
-        <v>520</v>
-      </c>
-      <c r="D135" s="12" t="s">
-        <v>521</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="D135" s="12"/>
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
-      <c r="G135" s="6"/>
+      <c r="G135" s="8"/>
       <c r="H135" s="6"/>
       <c r="I135" s="4"/>
       <c r="J135" s="4"/>
@@ -5974,13 +5950,13 @@
         <v>135</v>
       </c>
       <c r="B136" s="47" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="C136" s="47" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="D136" s="12" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
@@ -5995,12 +5971,14 @@
         <v>136</v>
       </c>
       <c r="B137" s="47" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C137" s="47" t="s">
-        <v>526</v>
-      </c>
-      <c r="D137" s="12"/>
+        <v>529</v>
+      </c>
+      <c r="D137" s="12" t="s">
+        <v>530</v>
+      </c>
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
       <c r="G137" s="8"/>
@@ -6014,14 +5992,12 @@
         <v>137</v>
       </c>
       <c r="B138" s="47" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="C138" s="47" t="s">
-        <v>528</v>
-      </c>
-      <c r="D138" s="12" t="s">
-        <v>529</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="D138" s="12"/>
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
       <c r="G138" s="8"/>
@@ -6035,14 +6011,12 @@
         <v>138</v>
       </c>
       <c r="B139" s="47" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="C139" s="47" t="s">
-        <v>531</v>
-      </c>
-      <c r="D139" s="12" t="s">
-        <v>532</v>
-      </c>
+        <v>534</v>
+      </c>
+      <c r="D139" s="12"/>
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
       <c r="G139" s="8"/>
@@ -6056,12 +6030,14 @@
         <v>139</v>
       </c>
       <c r="B140" s="47" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C140" s="47" t="s">
-        <v>534</v>
-      </c>
-      <c r="D140" s="12"/>
+        <v>536</v>
+      </c>
+      <c r="D140" s="12" t="s">
+        <v>537</v>
+      </c>
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
       <c r="G140" s="8"/>
@@ -6075,12 +6051,14 @@
         <v>140</v>
       </c>
       <c r="B141" s="47" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="C141" s="47" t="s">
-        <v>536</v>
-      </c>
-      <c r="D141" s="12"/>
+        <v>539</v>
+      </c>
+      <c r="D141" s="16" t="s">
+        <v>540</v>
+      </c>
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
       <c r="G141" s="8"/>
@@ -6094,16 +6072,14 @@
         <v>141</v>
       </c>
       <c r="B142" s="47" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="C142" s="47" t="s">
-        <v>538</v>
-      </c>
-      <c r="D142" s="12" t="s">
-        <v>539</v>
-      </c>
-      <c r="E142" s="5"/>
-      <c r="F142" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="D142" s="16"/>
+      <c r="E142" s="4"/>
+      <c r="F142" s="4"/>
       <c r="G142" s="8"/>
       <c r="H142" s="6"/>
       <c r="I142" s="4"/>
@@ -6115,16 +6091,16 @@
         <v>142</v>
       </c>
       <c r="B143" s="47" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="C143" s="47" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="D143" s="16" t="s">
-        <v>542</v>
-      </c>
-      <c r="E143" s="5"/>
-      <c r="F143" s="5"/>
+        <v>545</v>
+      </c>
+      <c r="E143" s="4"/>
+      <c r="F143" s="4"/>
       <c r="G143" s="8"/>
       <c r="H143" s="6"/>
       <c r="I143" s="4"/>
@@ -6136,10 +6112,10 @@
         <v>143</v>
       </c>
       <c r="B144" s="47" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="C144" s="47" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="D144" s="16"/>
       <c r="E144" s="4"/>
@@ -6155,14 +6131,12 @@
         <v>144</v>
       </c>
       <c r="B145" s="47" t="s">
-        <v>545</v>
+        <v>422</v>
       </c>
       <c r="C145" s="47" t="s">
-        <v>546</v>
-      </c>
-      <c r="D145" s="16" t="s">
-        <v>547</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="D145" s="16"/>
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
       <c r="G145" s="8"/>
@@ -6175,11 +6149,11 @@
         <f t="shared" si="2"/>
         <v>145</v>
       </c>
-      <c r="B146" s="47" t="s">
+      <c r="B146" s="50" t="s">
         <v>548</v>
       </c>
       <c r="C146" s="47" t="s">
-        <v>549</v>
+        <v>674</v>
       </c>
       <c r="D146" s="16"/>
       <c r="E146" s="4"/>
@@ -6189,73 +6163,59 @@
       <c r="I146" s="4"/>
       <c r="J146" s="4"/>
     </row>
-    <row r="147" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" s="39" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A147" s="18">
         <f t="shared" si="2"/>
         <v>146</v>
       </c>
       <c r="B147" s="47" t="s">
-        <v>424</v>
+        <v>447</v>
       </c>
       <c r="C147" s="47" t="s">
-        <v>425</v>
-      </c>
-      <c r="D147" s="16"/>
-      <c r="E147" s="4"/>
-      <c r="F147" s="4"/>
-      <c r="G147" s="8"/>
-      <c r="H147" s="6"/>
-      <c r="I147" s="4"/>
-      <c r="J147" s="4"/>
+        <v>448</v>
+      </c>
+      <c r="D147" s="16" t="s">
+        <v>675</v>
+      </c>
+      <c r="G147" s="41"/>
+      <c r="H147" s="41"/>
+      <c r="I147" s="40"/>
     </row>
     <row r="148" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A148" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A129:A148" si="3">A147+1</f>
         <v>147</v>
       </c>
-      <c r="B148" s="50" t="s">
-        <v>550</v>
+      <c r="B148" s="47" t="s">
+        <v>676</v>
       </c>
       <c r="C148" s="47" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D148" s="16"/>
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
       <c r="G148" s="8"/>
-      <c r="H148" s="6"/>
+      <c r="H148" s="8"/>
       <c r="I148" s="4"/>
       <c r="J148" s="4"/>
     </row>
-    <row r="149" spans="1:10" s="39" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A149" s="18">
-        <f t="shared" si="2"/>
-        <v>148</v>
-      </c>
-      <c r="B149" s="47" t="s">
-        <v>449</v>
-      </c>
-      <c r="C149" s="47" t="s">
-        <v>450</v>
-      </c>
-      <c r="D149" s="16" t="s">
-        <v>677</v>
-      </c>
-      <c r="G149" s="41"/>
-      <c r="H149" s="41"/>
-      <c r="I149" s="40"/>
+    <row r="149" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A149" s="18"/>
+      <c r="B149" s="11"/>
+      <c r="C149" s="11"/>
+      <c r="D149" s="16"/>
+      <c r="E149" s="4"/>
+      <c r="F149" s="4"/>
+      <c r="G149" s="8"/>
+      <c r="H149" s="8"/>
+      <c r="I149" s="4"/>
+      <c r="J149" s="4"/>
     </row>
     <row r="150" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A150" s="18">
-        <f t="shared" si="2"/>
-        <v>149</v>
-      </c>
-      <c r="B150" s="47" t="s">
-        <v>678</v>
-      </c>
-      <c r="C150" s="47" t="s">
-        <v>679</v>
-      </c>
+      <c r="A150" s="18"/>
+      <c r="B150" s="11"/>
+      <c r="C150" s="11"/>
       <c r="D150" s="16"/>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
@@ -14749,28 +14709,16 @@
       <c r="J857" s="4"/>
     </row>
     <row r="858" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A858" s="18"/>
-      <c r="B858" s="11"/>
-      <c r="C858" s="11"/>
-      <c r="D858" s="16"/>
-      <c r="E858" s="4"/>
-      <c r="F858" s="4"/>
-      <c r="G858" s="8"/>
-      <c r="H858" s="8"/>
-      <c r="I858" s="4"/>
-      <c r="J858" s="4"/>
+      <c r="A858" s="24"/>
+      <c r="D858" s="26"/>
+      <c r="G858" s="24"/>
+      <c r="H858" s="24"/>
     </row>
     <row r="859" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A859" s="18"/>
-      <c r="B859" s="11"/>
-      <c r="C859" s="11"/>
-      <c r="D859" s="16"/>
-      <c r="E859" s="4"/>
-      <c r="F859" s="4"/>
-      <c r="G859" s="8"/>
-      <c r="H859" s="8"/>
-      <c r="I859" s="4"/>
-      <c r="J859" s="4"/>
+      <c r="A859" s="24"/>
+      <c r="D859" s="26"/>
+      <c r="G859" s="24"/>
+      <c r="H859" s="24"/>
     </row>
     <row r="860" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A860" s="24"/>
@@ -15299,18 +15247,6 @@
       <c r="D947" s="26"/>
       <c r="G947" s="24"/>
       <c r="H947" s="24"/>
-    </row>
-    <row r="948" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A948" s="24"/>
-      <c r="D948" s="26"/>
-      <c r="G948" s="24"/>
-      <c r="H948" s="24"/>
-    </row>
-    <row r="949" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A949" s="24"/>
-      <c r="D949" s="26"/>
-      <c r="G949" s="24"/>
-      <c r="H949" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15861,7 +15797,7 @@
         <v>139</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="9"/>
@@ -15879,7 +15815,7 @@
         <v>144</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="4"/>
@@ -15969,7 +15905,7 @@
         <v>144</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="4"/>
@@ -15987,7 +15923,7 @@
         <v>168</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="4"/>
@@ -16005,7 +15941,7 @@
         <v>173</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="4"/>
@@ -16023,7 +15959,7 @@
         <v>179</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="4"/>
@@ -16059,7 +15995,7 @@
         <v>187</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="4"/>
@@ -16071,13 +16007,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="47" t="s">
+        <v>189</v>
+      </c>
+      <c r="C42" s="47" t="s">
         <v>190</v>
       </c>
-      <c r="C42" s="47" t="s">
-        <v>191</v>
-      </c>
       <c r="D42" s="12" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="4"/>
@@ -16089,13 +16025,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="47" t="s">
+        <v>191</v>
+      </c>
+      <c r="C43" s="47" t="s">
         <v>192</v>
       </c>
-      <c r="C43" s="47" t="s">
-        <v>193</v>
-      </c>
       <c r="D43" s="12" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="4"/>
@@ -16107,10 +16043,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="C44" s="47" t="s">
         <v>195</v>
-      </c>
-      <c r="C44" s="47" t="s">
-        <v>196</v>
       </c>
       <c r="D44" s="12"/>
       <c r="E44" s="6"/>
@@ -16123,13 +16059,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="C45" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="C45" s="47" t="s">
+      <c r="D45" s="12" t="s">
         <v>201</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>202</v>
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="4"/>
@@ -16141,13 +16077,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="47" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C46" s="47" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="4"/>
@@ -16159,13 +16095,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="47" t="s">
+        <v>205</v>
+      </c>
+      <c r="C47" s="47" t="s">
         <v>206</v>
       </c>
-      <c r="C47" s="47" t="s">
-        <v>207</v>
-      </c>
       <c r="D47" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="4"/>
@@ -16177,13 +16113,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="47" t="s">
+        <v>209</v>
+      </c>
+      <c r="C48" s="47" t="s">
+        <v>210</v>
+      </c>
+      <c r="D48" s="12" t="s">
         <v>211</v>
-      </c>
-      <c r="C48" s="47" t="s">
-        <v>212</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>213</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="4"/>
@@ -16195,13 +16131,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="C49" s="47" t="s">
+        <v>214</v>
+      </c>
+      <c r="D49" s="12" t="s">
         <v>215</v>
-      </c>
-      <c r="C49" s="47" t="s">
-        <v>216</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>217</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="4"/>
@@ -16213,13 +16149,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="47" t="s">
+        <v>216</v>
+      </c>
+      <c r="C50" s="47" t="s">
         <v>218</v>
       </c>
-      <c r="C50" s="47" t="s">
-        <v>220</v>
-      </c>
       <c r="D50" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="4"/>
@@ -16231,13 +16167,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="47" t="s">
+        <v>223</v>
+      </c>
+      <c r="C51" s="47" t="s">
         <v>225</v>
       </c>
-      <c r="C51" s="47" t="s">
+      <c r="D51" s="12" t="s">
         <v>227</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>229</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="4"/>
@@ -16249,13 +16185,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C52" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="D52" s="12" t="s">
         <v>232</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>234</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="4"/>
@@ -16267,10 +16203,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="47" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C53" s="47" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D53" s="46"/>
       <c r="E53" s="6"/>
@@ -16283,10 +16219,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="47" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C54" s="47" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D54" s="46"/>
       <c r="E54" s="6"/>
@@ -16299,10 +16235,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="47" t="s">
+        <v>243</v>
+      </c>
+      <c r="C55" s="47" t="s">
         <v>245</v>
-      </c>
-      <c r="C55" s="47" t="s">
-        <v>247</v>
       </c>
       <c r="D55" s="46"/>
       <c r="E55" s="6"/>
@@ -16315,13 +16251,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="47" t="s">
+        <v>247</v>
+      </c>
+      <c r="C56" s="47" t="s">
+        <v>248</v>
+      </c>
+      <c r="D56" s="12" t="s">
         <v>249</v>
-      </c>
-      <c r="C56" s="47" t="s">
-        <v>250</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>251</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="4"/>
@@ -16333,13 +16269,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="47" t="s">
+        <v>253</v>
+      </c>
+      <c r="C57" s="47" t="s">
+        <v>254</v>
+      </c>
+      <c r="D57" s="12" t="s">
         <v>255</v>
-      </c>
-      <c r="C57" s="47" t="s">
-        <v>256</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>257</v>
       </c>
       <c r="E57" s="6"/>
       <c r="F57" s="4"/>
@@ -16351,13 +16287,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="47" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C58" s="47" t="s">
         <v>173</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E58" s="6"/>
       <c r="F58" s="4"/>
@@ -16369,13 +16305,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="47" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C59" s="47" t="s">
         <v>173</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E59" s="6"/>
       <c r="F59" s="4"/>
@@ -16387,13 +16323,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="47" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C60" s="47" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="4"/>
@@ -16405,13 +16341,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="47" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C61" s="47" t="s">
+        <v>273</v>
+      </c>
+      <c r="D61" s="12" t="s">
         <v>275</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>277</v>
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="4"/>
@@ -16423,13 +16359,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="47" t="s">
+        <v>278</v>
+      </c>
+      <c r="C62" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="D62" s="12" t="s">
         <v>280</v>
-      </c>
-      <c r="C62" s="47" t="s">
-        <v>281</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>282</v>
       </c>
       <c r="E62" s="6"/>
       <c r="F62" s="4"/>
@@ -16441,13 +16377,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="47" t="s">
+        <v>283</v>
+      </c>
+      <c r="C63" s="47" t="s">
+        <v>284</v>
+      </c>
+      <c r="D63" s="12" t="s">
         <v>285</v>
-      </c>
-      <c r="C63" s="47" t="s">
-        <v>286</v>
-      </c>
-      <c r="D63" s="12" t="s">
-        <v>287</v>
       </c>
       <c r="E63" s="6"/>
       <c r="F63" s="4"/>
@@ -16459,11 +16395,11 @@
         <v>63</v>
       </c>
       <c r="B64" s="47" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C64" s="47"/>
       <c r="D64" s="12" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="4"/>
@@ -16475,13 +16411,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="47" t="s">
+        <v>293</v>
+      </c>
+      <c r="C65" s="47" t="s">
+        <v>294</v>
+      </c>
+      <c r="D65" s="12" t="s">
         <v>295</v>
-      </c>
-      <c r="C65" s="47" t="s">
-        <v>296</v>
-      </c>
-      <c r="D65" s="12" t="s">
-        <v>297</v>
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="4"/>
@@ -16493,10 +16429,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="47" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C66" s="47" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D66" s="16"/>
       <c r="E66" s="6"/>
@@ -16515,7 +16451,7 @@
         <v>110</v>
       </c>
       <c r="D67" s="16" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E67" s="6"/>
       <c r="F67" s="4"/>
@@ -16527,10 +16463,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="55" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C68" s="55" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D68" s="46"/>
       <c r="E68" s="41"/>
@@ -16542,10 +16478,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="55" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C69" s="55" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D69" s="46"/>
       <c r="E69" s="41"/>
@@ -16557,10 +16493,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="47" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C70" s="47" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D70" s="16"/>
       <c r="E70" s="6"/>
@@ -16573,13 +16509,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="47" t="s">
+        <v>310</v>
+      </c>
+      <c r="C71" s="47" t="s">
+        <v>311</v>
+      </c>
+      <c r="D71" s="16" t="s">
         <v>312</v>
-      </c>
-      <c r="C71" s="47" t="s">
-        <v>313</v>
-      </c>
-      <c r="D71" s="16" t="s">
-        <v>314</v>
       </c>
       <c r="E71" s="6"/>
       <c r="F71" s="4"/>
@@ -16591,10 +16527,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="47" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C72" s="47" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="8"/>
@@ -24921,1470 +24857,1470 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="53"/>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="71" t="s">
-        <v>664</v>
-      </c>
-      <c r="E1" s="69" t="s">
-        <v>745</v>
+      <c r="D1" s="67" t="s">
+        <v>662</v>
+      </c>
+      <c r="E1" s="65" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56">
+      <c r="A2" s="83">
         <v>2</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="72" t="s">
-        <v>662</v>
-      </c>
-      <c r="D2" s="73">
+      <c r="C2" s="68" t="s">
+        <v>660</v>
+      </c>
+      <c r="D2" s="69">
         <v>5</v>
       </c>
-      <c r="E2" s="73"/>
+      <c r="E2" s="69"/>
       <c r="H2" s="44"/>
     </row>
     <row r="3" spans="1:8" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
-      <c r="B3" s="60" t="s">
+      <c r="A3" s="84"/>
+      <c r="B3" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="74" t="s">
-        <v>662</v>
-      </c>
-      <c r="D3" s="73">
+      <c r="C3" s="70" t="s">
+        <v>660</v>
+      </c>
+      <c r="D3" s="69">
         <v>6</v>
       </c>
-      <c r="E3" s="73"/>
+      <c r="E3" s="69"/>
       <c r="H3" s="44"/>
     </row>
     <row r="4" spans="1:8" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
-      <c r="B4" s="60" t="s">
+      <c r="A4" s="84"/>
+      <c r="B4" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="74" t="s">
-        <v>662</v>
-      </c>
-      <c r="D4" s="73">
+      <c r="C4" s="70" t="s">
+        <v>660</v>
+      </c>
+      <c r="D4" s="69">
         <v>7</v>
       </c>
-      <c r="E4" s="73"/>
+      <c r="E4" s="69"/>
       <c r="H4" s="44"/>
     </row>
     <row r="5" spans="1:8" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
-      <c r="B5" s="60" t="s">
+      <c r="A5" s="84"/>
+      <c r="B5" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="74" t="s">
-        <v>662</v>
-      </c>
-      <c r="D5" s="73">
+      <c r="C5" s="70" t="s">
+        <v>660</v>
+      </c>
+      <c r="D5" s="69">
         <v>9</v>
       </c>
-      <c r="E5" s="73"/>
+      <c r="E5" s="69"/>
       <c r="H5" s="44"/>
     </row>
     <row r="6" spans="1:8" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="57"/>
-      <c r="B6" s="60" t="s">
+      <c r="A6" s="84"/>
+      <c r="B6" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="74" t="s">
-        <v>662</v>
-      </c>
-      <c r="D6" s="73">
+      <c r="C6" s="70" t="s">
+        <v>660</v>
+      </c>
+      <c r="D6" s="69">
         <v>10</v>
       </c>
-      <c r="E6" s="73"/>
+      <c r="E6" s="69"/>
       <c r="H6" s="44"/>
     </row>
     <row r="7" spans="1:8" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
-      <c r="B7" s="60" t="s">
+      <c r="A7" s="84"/>
+      <c r="B7" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="74" t="s">
-        <v>662</v>
-      </c>
-      <c r="D7" s="73">
+      <c r="C7" s="70" t="s">
+        <v>660</v>
+      </c>
+      <c r="D7" s="69">
         <v>11</v>
       </c>
-      <c r="E7" s="73"/>
+      <c r="E7" s="69"/>
       <c r="H7" s="44"/>
     </row>
     <row r="8" spans="1:8" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="57"/>
-      <c r="B8" s="60" t="s">
+      <c r="A8" s="84"/>
+      <c r="B8" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="74" t="s">
-        <v>662</v>
-      </c>
-      <c r="D8" s="73">
+      <c r="C8" s="70" t="s">
+        <v>660</v>
+      </c>
+      <c r="D8" s="69">
         <v>12</v>
       </c>
-      <c r="E8" s="73"/>
+      <c r="E8" s="69"/>
       <c r="H8" s="44"/>
     </row>
     <row r="9" spans="1:8" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
-      <c r="B9" s="60" t="s">
+      <c r="A9" s="84"/>
+      <c r="B9" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="74" t="s">
+      <c r="C9" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="73">
+      <c r="D9" s="69">
         <v>2</v>
       </c>
-      <c r="E9" s="73"/>
+      <c r="E9" s="69"/>
       <c r="F9" s="45"/>
       <c r="H9" s="44"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="57"/>
-      <c r="B10" s="60" t="s">
+      <c r="A10" s="84"/>
+      <c r="B10" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="C10" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="73">
+      <c r="D10" s="69">
         <v>3</v>
       </c>
-      <c r="E10" s="73"/>
+      <c r="E10" s="69"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
-      <c r="B11" s="60" t="s">
+      <c r="A11" s="84"/>
+      <c r="B11" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="73">
+      <c r="D11" s="69">
         <v>4</v>
       </c>
-      <c r="E11" s="73"/>
+      <c r="E11" s="69"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="57"/>
-      <c r="B12" s="60" t="s">
+      <c r="A12" s="84"/>
+      <c r="B12" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="74" t="s">
+      <c r="C12" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="73">
+      <c r="D12" s="69">
         <v>7</v>
       </c>
-      <c r="E12" s="73"/>
+      <c r="E12" s="69"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
-      <c r="B13" s="60" t="s">
+      <c r="A13" s="84"/>
+      <c r="B13" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="74" t="s">
+      <c r="C13" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="73">
+      <c r="D13" s="69">
         <v>8</v>
       </c>
-      <c r="E13" s="73"/>
+      <c r="E13" s="69"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="57"/>
-      <c r="B14" s="60" t="s">
+      <c r="A14" s="84"/>
+      <c r="B14" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="74" t="s">
+      <c r="C14" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="73">
+      <c r="D14" s="69">
         <v>9</v>
       </c>
-      <c r="E14" s="73"/>
+      <c r="E14" s="69"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="57"/>
-      <c r="B15" s="60" t="s">
+      <c r="A15" s="84"/>
+      <c r="B15" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="74" t="s">
+      <c r="C15" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="73">
+      <c r="D15" s="69">
         <v>10</v>
       </c>
-      <c r="E15" s="73"/>
+      <c r="E15" s="69"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="57"/>
-      <c r="B16" s="60" t="s">
+      <c r="A16" s="84"/>
+      <c r="B16" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="74" t="s">
+      <c r="C16" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="73">
+      <c r="D16" s="69">
         <v>11</v>
       </c>
-      <c r="E16" s="73"/>
+      <c r="E16" s="69"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="57"/>
-      <c r="B17" s="60" t="s">
+      <c r="A17" s="84"/>
+      <c r="B17" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="74" t="s">
+      <c r="C17" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="73">
+      <c r="D17" s="69">
         <v>12</v>
       </c>
-      <c r="E17" s="73"/>
+      <c r="E17" s="69"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="57"/>
-      <c r="B18" s="60" t="s">
+      <c r="A18" s="84"/>
+      <c r="B18" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="74" t="s">
+      <c r="C18" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="73">
+      <c r="D18" s="69">
         <v>1</v>
       </c>
-      <c r="E18" s="73"/>
+      <c r="E18" s="69"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="57"/>
-      <c r="B19" s="60" t="s">
+      <c r="A19" s="84"/>
+      <c r="B19" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="74" t="s">
+      <c r="C19" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="73">
+      <c r="D19" s="69">
         <v>4</v>
       </c>
-      <c r="E19" s="73"/>
+      <c r="E19" s="69"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="57"/>
-      <c r="B20" s="60" t="s">
+      <c r="A20" s="84"/>
+      <c r="B20" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="74" t="s">
+      <c r="C20" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="73">
+      <c r="D20" s="69">
         <v>5</v>
       </c>
-      <c r="E20" s="73"/>
+      <c r="E20" s="69"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="57"/>
-      <c r="B21" s="60" t="s">
+      <c r="A21" s="84"/>
+      <c r="B21" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="74" t="s">
+      <c r="C21" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="73">
+      <c r="D21" s="69">
         <v>10</v>
       </c>
-      <c r="E21" s="73"/>
+      <c r="E21" s="69"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="57"/>
-      <c r="B22" s="60" t="s">
+      <c r="A22" s="84"/>
+      <c r="B22" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="74" t="s">
+      <c r="C22" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="73">
+      <c r="D22" s="69">
         <v>11</v>
       </c>
-      <c r="E22" s="73"/>
+      <c r="E22" s="69"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
-      <c r="B23" s="60" t="s">
+      <c r="A23" s="84"/>
+      <c r="B23" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="74" t="s">
+      <c r="C23" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="73">
+      <c r="D23" s="69">
         <v>1</v>
       </c>
-      <c r="E23" s="73"/>
+      <c r="E23" s="69"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="57"/>
-      <c r="B24" s="60" t="s">
+      <c r="A24" s="84"/>
+      <c r="B24" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="C24" s="74" t="s">
+      <c r="C24" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="73">
+      <c r="D24" s="69">
         <v>2</v>
       </c>
-      <c r="E24" s="73"/>
+      <c r="E24" s="69"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="57"/>
-      <c r="B25" s="60" t="s">
+      <c r="A25" s="84"/>
+      <c r="B25" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="74" t="s">
+      <c r="C25" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="73">
+      <c r="D25" s="69">
         <v>3</v>
       </c>
-      <c r="E25" s="73"/>
+      <c r="E25" s="69"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="57"/>
-      <c r="B26" s="60" t="s">
+      <c r="A26" s="84"/>
+      <c r="B26" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="C26" s="74" t="s">
+      <c r="C26" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="73">
+      <c r="D26" s="69">
         <v>5</v>
       </c>
-      <c r="E26" s="73"/>
+      <c r="E26" s="69"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="57"/>
-      <c r="B27" s="60" t="s">
+      <c r="A27" s="84"/>
+      <c r="B27" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="74" t="s">
+      <c r="C27" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="73">
+      <c r="D27" s="69">
         <v>12</v>
       </c>
-      <c r="E27" s="73"/>
+      <c r="E27" s="69"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="57"/>
-      <c r="B28" s="60" t="s">
+      <c r="A28" s="84"/>
+      <c r="B28" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="C28" s="74" t="s">
+      <c r="C28" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="73">
+      <c r="D28" s="69">
         <v>1</v>
       </c>
-      <c r="E28" s="73"/>
+      <c r="E28" s="69"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="57"/>
-      <c r="B29" s="60" t="s">
+      <c r="A29" s="84"/>
+      <c r="B29" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="C29" s="74" t="s">
+      <c r="C29" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="73">
+      <c r="D29" s="69">
         <v>2</v>
       </c>
-      <c r="E29" s="73"/>
+      <c r="E29" s="69"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="57"/>
-      <c r="B30" s="60" t="s">
+      <c r="A30" s="84"/>
+      <c r="B30" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="C30" s="74"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="75" t="s">
-        <v>743</v>
+      <c r="C30" s="70"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="71" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="56">
+      <c r="A31" s="83">
         <v>3</v>
       </c>
-      <c r="B31" s="61" t="s">
-        <v>219</v>
-      </c>
-      <c r="C31" s="72" t="s">
-        <v>662</v>
-      </c>
-      <c r="D31" s="73">
+      <c r="B31" s="57" t="s">
+        <v>217</v>
+      </c>
+      <c r="C31" s="68" t="s">
+        <v>660</v>
+      </c>
+      <c r="D31" s="69">
         <v>75</v>
       </c>
-      <c r="E31" s="75"/>
+      <c r="E31" s="71"/>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="57"/>
-      <c r="B32" s="61" t="s">
-        <v>219</v>
-      </c>
-      <c r="C32" s="72" t="s">
+      <c r="A32" s="84"/>
+      <c r="B32" s="57" t="s">
+        <v>217</v>
+      </c>
+      <c r="C32" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="73">
+      <c r="D32" s="69">
         <v>98</v>
       </c>
-      <c r="E32" s="73"/>
+      <c r="E32" s="69"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="57"/>
-      <c r="B33" s="61" t="s">
-        <v>219</v>
-      </c>
-      <c r="C33" s="72" t="s">
+      <c r="A33" s="84"/>
+      <c r="B33" s="57" t="s">
+        <v>217</v>
+      </c>
+      <c r="C33" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="73">
+      <c r="D33" s="69">
         <v>99</v>
       </c>
-      <c r="E33" s="73"/>
+      <c r="E33" s="69"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="57"/>
-      <c r="B34" s="61" t="s">
-        <v>219</v>
-      </c>
-      <c r="C34" s="72" t="s">
+      <c r="A34" s="84"/>
+      <c r="B34" s="57" t="s">
+        <v>217</v>
+      </c>
+      <c r="C34" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="75" t="s">
+      <c r="D34" s="71" t="s">
+        <v>678</v>
+      </c>
+      <c r="E34" s="69"/>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="84"/>
+      <c r="B35" s="57" t="s">
+        <v>217</v>
+      </c>
+      <c r="C35" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="69">
+        <v>111</v>
+      </c>
+      <c r="E35" s="69"/>
+    </row>
+    <row r="36" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="84"/>
+      <c r="B36" s="57" t="s">
+        <v>217</v>
+      </c>
+      <c r="C36" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="71" t="s">
+        <v>679</v>
+      </c>
+      <c r="E36" s="69"/>
+    </row>
+    <row r="37" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="84"/>
+      <c r="B37" s="57" t="s">
+        <v>217</v>
+      </c>
+      <c r="C37" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="69">
+        <v>116</v>
+      </c>
+      <c r="E37" s="69"/>
+    </row>
+    <row r="38" spans="1:8" s="43" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+      <c r="A38" s="84"/>
+      <c r="B38" s="57" t="s">
+        <v>217</v>
+      </c>
+      <c r="C38" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" s="71" t="s">
         <v>680</v>
       </c>
-      <c r="E34" s="73"/>
-    </row>
-    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="57"/>
-      <c r="B35" s="61" t="s">
-        <v>219</v>
-      </c>
-      <c r="C35" s="72" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35" s="73">
-        <v>111</v>
-      </c>
-      <c r="E35" s="73"/>
-    </row>
-    <row r="36" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="57"/>
-      <c r="B36" s="61" t="s">
-        <v>219</v>
-      </c>
-      <c r="C36" s="72" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" s="75" t="s">
+      <c r="E38" s="69"/>
+      <c r="H38" s="44"/>
+    </row>
+    <row r="39" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="84"/>
+      <c r="B39" s="57" t="s">
+        <v>217</v>
+      </c>
+      <c r="C39" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="69">
+        <v>120</v>
+      </c>
+      <c r="E39" s="69"/>
+    </row>
+    <row r="40" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="84"/>
+      <c r="B40" s="57" t="s">
+        <v>217</v>
+      </c>
+      <c r="C40" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" s="69">
+        <v>124</v>
+      </c>
+      <c r="E40" s="69"/>
+    </row>
+    <row r="41" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="84"/>
+      <c r="B41" s="57" t="s">
+        <v>217</v>
+      </c>
+      <c r="C41" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" s="69">
+        <v>127</v>
+      </c>
+      <c r="E41" s="69"/>
+    </row>
+    <row r="42" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="84"/>
+      <c r="B42" s="57" t="s">
+        <v>217</v>
+      </c>
+      <c r="C42" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="69">
+        <v>129</v>
+      </c>
+      <c r="E42" s="69"/>
+    </row>
+    <row r="43" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="84"/>
+      <c r="B43" s="57" t="s">
+        <v>217</v>
+      </c>
+      <c r="C43" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" s="69">
+        <v>133</v>
+      </c>
+      <c r="E43" s="69"/>
+    </row>
+    <row r="44" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="84"/>
+      <c r="B44" s="57" t="s">
+        <v>217</v>
+      </c>
+      <c r="C44" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" s="71" t="s">
         <v>681</v>
       </c>
-      <c r="E36" s="73"/>
-    </row>
-    <row r="37" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="57"/>
-      <c r="B37" s="61" t="s">
-        <v>219</v>
-      </c>
-      <c r="C37" s="72" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37" s="73">
-        <v>116</v>
-      </c>
-      <c r="E37" s="73"/>
-    </row>
-    <row r="38" spans="1:8" s="43" customFormat="1" ht="13" x14ac:dyDescent="0.25">
-      <c r="A38" s="57"/>
-      <c r="B38" s="61" t="s">
-        <v>219</v>
-      </c>
-      <c r="C38" s="72" t="s">
-        <v>55</v>
-      </c>
-      <c r="D38" s="75" t="s">
+      <c r="E44" s="69"/>
+    </row>
+    <row r="45" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="84"/>
+      <c r="B45" s="57" t="s">
+        <v>217</v>
+      </c>
+      <c r="C45" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45" s="69">
+        <v>145</v>
+      </c>
+      <c r="E45" s="69"/>
+    </row>
+    <row r="46" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="84"/>
+      <c r="B46" s="57" t="s">
+        <v>217</v>
+      </c>
+      <c r="C46" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="69">
+        <v>146</v>
+      </c>
+      <c r="E46" s="69"/>
+    </row>
+    <row r="47" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="84"/>
+      <c r="B47" s="57" t="s">
+        <v>217</v>
+      </c>
+      <c r="C47" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47" s="69">
+        <v>160</v>
+      </c>
+      <c r="E47" s="69"/>
+    </row>
+    <row r="48" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="84"/>
+      <c r="B48" s="57" t="s">
+        <v>217</v>
+      </c>
+      <c r="C48" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="D48" s="69">
+        <v>163</v>
+      </c>
+      <c r="E48" s="69"/>
+    </row>
+    <row r="49" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="84"/>
+      <c r="B49" s="57" t="s">
+        <v>217</v>
+      </c>
+      <c r="C49" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" s="69">
+        <v>164</v>
+      </c>
+      <c r="E49" s="69"/>
+    </row>
+    <row r="50" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="84"/>
+      <c r="B50" s="57" t="s">
+        <v>217</v>
+      </c>
+      <c r="C50" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" s="69">
+        <v>165</v>
+      </c>
+      <c r="E50" s="69"/>
+    </row>
+    <row r="51" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="84"/>
+      <c r="B51" s="57" t="s">
+        <v>217</v>
+      </c>
+      <c r="C51" s="68" t="s">
+        <v>661</v>
+      </c>
+      <c r="D51" s="71" t="s">
         <v>682</v>
       </c>
-      <c r="E38" s="73"/>
-      <c r="H38" s="44"/>
-    </row>
-    <row r="39" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="57"/>
-      <c r="B39" s="61" t="s">
-        <v>219</v>
-      </c>
-      <c r="C39" s="72" t="s">
-        <v>55</v>
-      </c>
-      <c r="D39" s="73">
-        <v>120</v>
-      </c>
-      <c r="E39" s="73"/>
-    </row>
-    <row r="40" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="57"/>
-      <c r="B40" s="61" t="s">
-        <v>219</v>
-      </c>
-      <c r="C40" s="72" t="s">
-        <v>55</v>
-      </c>
-      <c r="D40" s="73">
-        <v>124</v>
-      </c>
-      <c r="E40" s="73"/>
-    </row>
-    <row r="41" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="57"/>
-      <c r="B41" s="61" t="s">
-        <v>219</v>
-      </c>
-      <c r="C41" s="72" t="s">
-        <v>55</v>
-      </c>
-      <c r="D41" s="73">
-        <v>127</v>
-      </c>
-      <c r="E41" s="73"/>
-    </row>
-    <row r="42" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="57"/>
-      <c r="B42" s="61" t="s">
-        <v>219</v>
-      </c>
-      <c r="C42" s="72" t="s">
-        <v>55</v>
-      </c>
-      <c r="D42" s="73">
-        <v>129</v>
-      </c>
-      <c r="E42" s="73"/>
-    </row>
-    <row r="43" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="57"/>
-      <c r="B43" s="61" t="s">
-        <v>219</v>
-      </c>
-      <c r="C43" s="72" t="s">
-        <v>63</v>
-      </c>
-      <c r="D43" s="73">
-        <v>133</v>
-      </c>
-      <c r="E43" s="73"/>
-    </row>
-    <row r="44" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="57"/>
-      <c r="B44" s="61" t="s">
-        <v>219</v>
-      </c>
-      <c r="C44" s="72" t="s">
-        <v>63</v>
-      </c>
-      <c r="D44" s="75" t="s">
-        <v>683</v>
-      </c>
-      <c r="E44" s="73"/>
-    </row>
-    <row r="45" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="57"/>
-      <c r="B45" s="61" t="s">
-        <v>219</v>
-      </c>
-      <c r="C45" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="D45" s="73">
-        <v>145</v>
-      </c>
-      <c r="E45" s="73"/>
-    </row>
-    <row r="46" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="57"/>
-      <c r="B46" s="61" t="s">
-        <v>219</v>
-      </c>
-      <c r="C46" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="D46" s="73">
-        <v>146</v>
-      </c>
-      <c r="E46" s="73"/>
-    </row>
-    <row r="47" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="57"/>
-      <c r="B47" s="61" t="s">
-        <v>219</v>
-      </c>
-      <c r="C47" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="D47" s="73">
-        <v>160</v>
-      </c>
-      <c r="E47" s="73"/>
-    </row>
-    <row r="48" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="57"/>
-      <c r="B48" s="61" t="s">
-        <v>219</v>
-      </c>
-      <c r="C48" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="D48" s="73">
-        <v>163</v>
-      </c>
-      <c r="E48" s="73"/>
-    </row>
-    <row r="49" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="57"/>
-      <c r="B49" s="61" t="s">
-        <v>219</v>
-      </c>
-      <c r="C49" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="D49" s="73">
-        <v>164</v>
-      </c>
-      <c r="E49" s="73"/>
-    </row>
-    <row r="50" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="57"/>
-      <c r="B50" s="61" t="s">
-        <v>219</v>
-      </c>
-      <c r="C50" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="D50" s="73">
-        <v>165</v>
-      </c>
-      <c r="E50" s="73"/>
-    </row>
-    <row r="51" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="57"/>
-      <c r="B51" s="61" t="s">
-        <v>219</v>
-      </c>
-      <c r="C51" s="72" t="s">
-        <v>663</v>
-      </c>
-      <c r="D51" s="75" t="s">
-        <v>684</v>
-      </c>
-      <c r="E51" s="73"/>
+      <c r="E51" s="69"/>
     </row>
     <row r="52" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="57"/>
-      <c r="B52" s="61" t="s">
-        <v>219</v>
-      </c>
-      <c r="C52" s="72" t="s">
-        <v>663</v>
-      </c>
-      <c r="D52" s="73">
+      <c r="A52" s="84"/>
+      <c r="B52" s="57" t="s">
+        <v>217</v>
+      </c>
+      <c r="C52" s="68" t="s">
+        <v>661</v>
+      </c>
+      <c r="D52" s="69">
         <v>168</v>
       </c>
-      <c r="E52" s="73"/>
+      <c r="E52" s="69"/>
     </row>
     <row r="53" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="57"/>
-      <c r="B53" s="61" t="s">
-        <v>219</v>
-      </c>
-      <c r="C53" s="74" t="s">
-        <v>663</v>
-      </c>
-      <c r="D53" s="73">
+      <c r="A53" s="84"/>
+      <c r="B53" s="57" t="s">
+        <v>217</v>
+      </c>
+      <c r="C53" s="70" t="s">
+        <v>661</v>
+      </c>
+      <c r="D53" s="69">
         <v>134</v>
       </c>
-      <c r="E53" s="73"/>
+      <c r="E53" s="69"/>
     </row>
     <row r="54" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="57"/>
-      <c r="B54" s="61" t="s">
-        <v>219</v>
-      </c>
-      <c r="C54" s="74" t="s">
-        <v>663</v>
-      </c>
-      <c r="D54" s="73">
+      <c r="A54" s="84"/>
+      <c r="B54" s="57" t="s">
+        <v>217</v>
+      </c>
+      <c r="C54" s="70" t="s">
+        <v>661</v>
+      </c>
+      <c r="D54" s="69">
         <v>175</v>
       </c>
-      <c r="E54" s="73"/>
+      <c r="E54" s="69"/>
     </row>
     <row r="55" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="57"/>
-      <c r="B55" s="61" t="s">
-        <v>219</v>
-      </c>
-      <c r="C55" s="74"/>
-      <c r="D55" s="73"/>
-      <c r="E55" s="76" t="s">
-        <v>744</v>
+      <c r="A55" s="84"/>
+      <c r="B55" s="57" t="s">
+        <v>217</v>
+      </c>
+      <c r="C55" s="70"/>
+      <c r="D55" s="69"/>
+      <c r="E55" s="72" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="56">
+      <c r="A56" s="83">
         <v>4</v>
       </c>
-      <c r="B56" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="C56" s="74" t="str">
+      <c r="B56" s="56" t="s">
+        <v>313</v>
+      </c>
+      <c r="C56" s="70" t="str">
         <f>RIGHT(D56,4)</f>
         <v>2012</v>
       </c>
-      <c r="D56" s="77" t="s">
-        <v>685</v>
-      </c>
-      <c r="E56" s="73"/>
+      <c r="D56" s="73" t="s">
+        <v>683</v>
+      </c>
+      <c r="E56" s="69"/>
     </row>
     <row r="57" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="57"/>
-      <c r="B57" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="C57" s="74" t="str">
+      <c r="A57" s="84"/>
+      <c r="B57" s="56" t="s">
+        <v>313</v>
+      </c>
+      <c r="C57" s="70" t="str">
         <f t="shared" ref="C57:C73" si="0">RIGHT(D57,4)</f>
         <v>2012</v>
       </c>
-      <c r="D57" s="77" t="s">
-        <v>686</v>
-      </c>
-      <c r="E57" s="73"/>
+      <c r="D57" s="73" t="s">
+        <v>684</v>
+      </c>
+      <c r="E57" s="69"/>
     </row>
     <row r="58" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="57"/>
-      <c r="B58" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="C58" s="74" t="str">
+      <c r="A58" s="84"/>
+      <c r="B58" s="56" t="s">
+        <v>313</v>
+      </c>
+      <c r="C58" s="70" t="str">
         <f t="shared" si="0"/>
         <v>2012</v>
       </c>
-      <c r="D58" s="77" t="s">
-        <v>687</v>
-      </c>
-      <c r="E58" s="73"/>
+      <c r="D58" s="73" t="s">
+        <v>685</v>
+      </c>
+      <c r="E58" s="69"/>
     </row>
     <row r="59" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="57"/>
-      <c r="B59" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="C59" s="74" t="str">
+      <c r="A59" s="84"/>
+      <c r="B59" s="56" t="s">
+        <v>313</v>
+      </c>
+      <c r="C59" s="70" t="str">
         <f t="shared" si="0"/>
         <v>2014</v>
       </c>
-      <c r="D59" s="77" t="s">
-        <v>688</v>
-      </c>
-      <c r="E59" s="73"/>
+      <c r="D59" s="73" t="s">
+        <v>686</v>
+      </c>
+      <c r="E59" s="69"/>
     </row>
     <row r="60" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="57"/>
-      <c r="B60" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="C60" s="74" t="str">
+      <c r="A60" s="84"/>
+      <c r="B60" s="56" t="s">
+        <v>313</v>
+      </c>
+      <c r="C60" s="70" t="str">
         <f t="shared" si="0"/>
         <v>2014</v>
       </c>
-      <c r="D60" s="77" t="s">
-        <v>689</v>
-      </c>
-      <c r="E60" s="73"/>
+      <c r="D60" s="73" t="s">
+        <v>687</v>
+      </c>
+      <c r="E60" s="69"/>
     </row>
     <row r="61" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="57"/>
-      <c r="B61" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="C61" s="74" t="str">
+      <c r="A61" s="84"/>
+      <c r="B61" s="56" t="s">
+        <v>313</v>
+      </c>
+      <c r="C61" s="70" t="str">
         <f t="shared" si="0"/>
         <v>2014</v>
       </c>
-      <c r="D61" s="77" t="s">
-        <v>690</v>
-      </c>
-      <c r="E61" s="73"/>
+      <c r="D61" s="73" t="s">
+        <v>688</v>
+      </c>
+      <c r="E61" s="69"/>
     </row>
     <row r="62" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="57"/>
-      <c r="B62" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="C62" s="74" t="str">
+      <c r="A62" s="84"/>
+      <c r="B62" s="56" t="s">
+        <v>313</v>
+      </c>
+      <c r="C62" s="70" t="str">
         <f t="shared" si="0"/>
         <v>2014</v>
       </c>
-      <c r="D62" s="77" t="s">
-        <v>691</v>
-      </c>
-      <c r="E62" s="73"/>
+      <c r="D62" s="73" t="s">
+        <v>689</v>
+      </c>
+      <c r="E62" s="69"/>
     </row>
     <row r="63" spans="1:8" s="43" customFormat="1" ht="13" x14ac:dyDescent="0.25">
-      <c r="A63" s="57"/>
-      <c r="B63" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="C63" s="74" t="str">
+      <c r="A63" s="84"/>
+      <c r="B63" s="56" t="s">
+        <v>313</v>
+      </c>
+      <c r="C63" s="70" t="str">
         <f t="shared" si="0"/>
         <v>2014</v>
       </c>
-      <c r="D63" s="77" t="s">
-        <v>692</v>
-      </c>
-      <c r="E63" s="73"/>
+      <c r="D63" s="73" t="s">
+        <v>690</v>
+      </c>
+      <c r="E63" s="69"/>
       <c r="H63" s="44"/>
     </row>
     <row r="64" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="57"/>
-      <c r="B64" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="C64" s="74" t="str">
+      <c r="A64" s="84"/>
+      <c r="B64" s="56" t="s">
+        <v>313</v>
+      </c>
+      <c r="C64" s="70" t="str">
         <f t="shared" si="0"/>
         <v>2014</v>
       </c>
-      <c r="D64" s="77" t="s">
-        <v>693</v>
-      </c>
-      <c r="E64" s="73"/>
+      <c r="D64" s="73" t="s">
+        <v>691</v>
+      </c>
+      <c r="E64" s="69"/>
     </row>
     <row r="65" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="57"/>
-      <c r="B65" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="C65" s="74" t="str">
+      <c r="A65" s="84"/>
+      <c r="B65" s="56" t="s">
+        <v>313</v>
+      </c>
+      <c r="C65" s="70" t="str">
         <f t="shared" si="0"/>
         <v>2015</v>
       </c>
-      <c r="D65" s="77" t="s">
-        <v>694</v>
-      </c>
-      <c r="E65" s="73"/>
+      <c r="D65" s="73" t="s">
+        <v>692</v>
+      </c>
+      <c r="E65" s="69"/>
     </row>
     <row r="66" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="57"/>
-      <c r="B66" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="C66" s="74" t="str">
+      <c r="A66" s="84"/>
+      <c r="B66" s="56" t="s">
+        <v>313</v>
+      </c>
+      <c r="C66" s="70" t="str">
         <f t="shared" si="0"/>
         <v>2015</v>
       </c>
-      <c r="D66" s="77" t="s">
-        <v>695</v>
-      </c>
-      <c r="E66" s="73"/>
+      <c r="D66" s="73" t="s">
+        <v>693</v>
+      </c>
+      <c r="E66" s="69"/>
     </row>
     <row r="67" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="57"/>
-      <c r="B67" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="C67" s="74" t="str">
+      <c r="A67" s="84"/>
+      <c r="B67" s="56" t="s">
+        <v>313</v>
+      </c>
+      <c r="C67" s="70" t="str">
         <f t="shared" si="0"/>
         <v>2015</v>
       </c>
-      <c r="D67" s="77" t="s">
-        <v>696</v>
-      </c>
-      <c r="E67" s="73"/>
+      <c r="D67" s="73" t="s">
+        <v>694</v>
+      </c>
+      <c r="E67" s="69"/>
     </row>
     <row r="68" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="57"/>
-      <c r="B68" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="C68" s="74" t="str">
+      <c r="A68" s="84"/>
+      <c r="B68" s="56" t="s">
+        <v>313</v>
+      </c>
+      <c r="C68" s="70" t="str">
         <f t="shared" si="0"/>
         <v>2015</v>
       </c>
-      <c r="D68" s="77" t="s">
-        <v>697</v>
-      </c>
-      <c r="E68" s="73"/>
+      <c r="D68" s="73" t="s">
+        <v>695</v>
+      </c>
+      <c r="E68" s="69"/>
     </row>
     <row r="69" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="57"/>
-      <c r="B69" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="C69" s="74" t="str">
+      <c r="A69" s="84"/>
+      <c r="B69" s="56" t="s">
+        <v>313</v>
+      </c>
+      <c r="C69" s="70" t="str">
         <f t="shared" si="0"/>
         <v>2015</v>
       </c>
-      <c r="D69" s="77" t="s">
-        <v>698</v>
-      </c>
-      <c r="E69" s="73"/>
+      <c r="D69" s="73" t="s">
+        <v>696</v>
+      </c>
+      <c r="E69" s="69"/>
     </row>
     <row r="70" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="57"/>
-      <c r="B70" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="C70" s="74" t="str">
+      <c r="A70" s="84"/>
+      <c r="B70" s="56" t="s">
+        <v>313</v>
+      </c>
+      <c r="C70" s="70" t="str">
         <f t="shared" si="0"/>
         <v>2016</v>
       </c>
-      <c r="D70" s="77" t="s">
-        <v>699</v>
-      </c>
-      <c r="E70" s="73"/>
+      <c r="D70" s="73" t="s">
+        <v>697</v>
+      </c>
+      <c r="E70" s="69"/>
     </row>
     <row r="71" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="57"/>
-      <c r="B71" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="C71" s="74" t="str">
+      <c r="A71" s="84"/>
+      <c r="B71" s="56" t="s">
+        <v>313</v>
+      </c>
+      <c r="C71" s="70" t="str">
         <f t="shared" si="0"/>
         <v>2016</v>
       </c>
-      <c r="D71" s="77" t="s">
-        <v>700</v>
-      </c>
-      <c r="E71" s="73"/>
+      <c r="D71" s="73" t="s">
+        <v>698</v>
+      </c>
+      <c r="E71" s="69"/>
     </row>
     <row r="72" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="57"/>
-      <c r="B72" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="C72" s="74" t="str">
+      <c r="A72" s="84"/>
+      <c r="B72" s="56" t="s">
+        <v>313</v>
+      </c>
+      <c r="C72" s="70" t="str">
         <f t="shared" si="0"/>
         <v>2016</v>
       </c>
-      <c r="D72" s="77" t="s">
-        <v>701</v>
-      </c>
-      <c r="E72" s="73"/>
+      <c r="D72" s="73" t="s">
+        <v>699</v>
+      </c>
+      <c r="E72" s="69"/>
     </row>
     <row r="73" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="57"/>
-      <c r="B73" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="C73" s="74" t="str">
+      <c r="A73" s="84"/>
+      <c r="B73" s="56" t="s">
+        <v>313</v>
+      </c>
+      <c r="C73" s="70" t="str">
         <f t="shared" si="0"/>
         <v>2017</v>
       </c>
-      <c r="D73" s="77" t="s">
-        <v>702</v>
-      </c>
-      <c r="E73" s="73"/>
+      <c r="D73" s="73" t="s">
+        <v>700</v>
+      </c>
+      <c r="E73" s="69"/>
     </row>
     <row r="74" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="56">
+      <c r="A74" s="83">
         <v>5</v>
       </c>
-      <c r="B74" s="62" t="s">
-        <v>344</v>
-      </c>
-      <c r="C74" s="78"/>
-      <c r="D74" s="79" t="s">
+      <c r="B74" s="58" t="s">
+        <v>342</v>
+      </c>
+      <c r="C74" s="74"/>
+      <c r="D74" s="75" t="s">
+        <v>665</v>
+      </c>
+      <c r="E74" s="69"/>
+    </row>
+    <row r="75" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A75" s="84"/>
+      <c r="B75" s="58" t="s">
+        <v>342</v>
+      </c>
+      <c r="C75" s="74"/>
+      <c r="D75" s="75" t="s">
+        <v>664</v>
+      </c>
+      <c r="E75" s="69"/>
+    </row>
+    <row r="76" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="84"/>
+      <c r="B76" s="58" t="s">
+        <v>342</v>
+      </c>
+      <c r="C76" s="74"/>
+      <c r="D76" s="75" t="s">
+        <v>666</v>
+      </c>
+      <c r="E76" s="69"/>
+    </row>
+    <row r="77" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="84"/>
+      <c r="B77" s="58" t="s">
+        <v>342</v>
+      </c>
+      <c r="C77" s="74"/>
+      <c r="D77" s="75" t="s">
         <v>667</v>
       </c>
-      <c r="E74" s="73"/>
-    </row>
-    <row r="75" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="57"/>
-      <c r="B75" s="62" t="s">
-        <v>344</v>
-      </c>
-      <c r="C75" s="78"/>
-      <c r="D75" s="79" t="s">
-        <v>666</v>
-      </c>
-      <c r="E75" s="73"/>
-    </row>
-    <row r="76" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="57"/>
-      <c r="B76" s="62" t="s">
-        <v>344</v>
-      </c>
-      <c r="C76" s="78"/>
-      <c r="D76" s="79" t="s">
-        <v>668</v>
-      </c>
-      <c r="E76" s="73"/>
-    </row>
-    <row r="77" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="57"/>
-      <c r="B77" s="62" t="s">
-        <v>344</v>
-      </c>
-      <c r="C77" s="78"/>
-      <c r="D77" s="79" t="s">
-        <v>669</v>
-      </c>
-      <c r="E77" s="73"/>
+      <c r="E77" s="69"/>
     </row>
     <row r="78" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="57"/>
-      <c r="B78" s="62" t="s">
-        <v>344</v>
-      </c>
-      <c r="C78" s="78"/>
-      <c r="D78" s="79" t="s">
-        <v>665</v>
-      </c>
-      <c r="E78" s="73"/>
+      <c r="A78" s="84"/>
+      <c r="B78" s="58" t="s">
+        <v>342</v>
+      </c>
+      <c r="C78" s="74"/>
+      <c r="D78" s="75" t="s">
+        <v>663</v>
+      </c>
+      <c r="E78" s="69"/>
     </row>
     <row r="79" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="56">
+      <c r="A79" s="83">
         <v>6</v>
       </c>
-      <c r="B79" s="62" t="s">
-        <v>358</v>
-      </c>
-      <c r="C79" s="80" t="str">
+      <c r="B79" s="58" t="s">
+        <v>356</v>
+      </c>
+      <c r="C79" s="76" t="str">
         <f>RIGHT(D79,4)</f>
         <v>2015</v>
       </c>
-      <c r="D79" s="77" t="s">
-        <v>703</v>
-      </c>
-      <c r="E79" s="73"/>
+      <c r="D79" s="73" t="s">
+        <v>701</v>
+      </c>
+      <c r="E79" s="69"/>
     </row>
     <row r="80" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="57"/>
-      <c r="B80" s="62" t="s">
-        <v>358</v>
-      </c>
-      <c r="C80" s="80" t="str">
+      <c r="A80" s="84"/>
+      <c r="B80" s="58" t="s">
+        <v>356</v>
+      </c>
+      <c r="C80" s="76" t="str">
         <f t="shared" ref="C80:C82" si="1">RIGHT(D80,4)</f>
         <v>2015</v>
       </c>
-      <c r="D80" s="79" t="s">
-        <v>704</v>
-      </c>
-      <c r="E80" s="73"/>
+      <c r="D80" s="75" t="s">
+        <v>702</v>
+      </c>
+      <c r="E80" s="69"/>
     </row>
     <row r="81" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="57"/>
-      <c r="B81" s="62" t="s">
-        <v>358</v>
-      </c>
-      <c r="C81" s="80" t="str">
+      <c r="A81" s="84"/>
+      <c r="B81" s="58" t="s">
+        <v>356</v>
+      </c>
+      <c r="C81" s="76" t="str">
         <f t="shared" si="1"/>
         <v>2015</v>
       </c>
-      <c r="D81" s="79" t="s">
-        <v>705</v>
-      </c>
-      <c r="E81" s="73"/>
+      <c r="D81" s="75" t="s">
+        <v>703</v>
+      </c>
+      <c r="E81" s="69"/>
     </row>
     <row r="82" spans="1:8" s="43" customFormat="1" ht="13" x14ac:dyDescent="0.25">
-      <c r="A82" s="57"/>
-      <c r="B82" s="62" t="s">
-        <v>358</v>
-      </c>
-      <c r="C82" s="80" t="str">
+      <c r="A82" s="84"/>
+      <c r="B82" s="58" t="s">
+        <v>356</v>
+      </c>
+      <c r="C82" s="76" t="str">
         <f t="shared" si="1"/>
         <v>2015</v>
       </c>
-      <c r="D82" s="79" t="s">
-        <v>706</v>
-      </c>
-      <c r="E82" s="73"/>
+      <c r="D82" s="75" t="s">
+        <v>704</v>
+      </c>
+      <c r="E82" s="69"/>
       <c r="H82" s="44"/>
     </row>
     <row r="83" spans="1:8" s="43" customFormat="1" ht="13" x14ac:dyDescent="0.25">
-      <c r="A83" s="56">
+      <c r="A83" s="83">
         <v>7</v>
       </c>
-      <c r="B83" s="62" t="s">
-        <v>376</v>
-      </c>
-      <c r="C83" s="81" t="str">
+      <c r="B83" s="58" t="s">
+        <v>374</v>
+      </c>
+      <c r="C83" s="77" t="str">
         <f>RIGHT(D83,4)</f>
         <v>2015</v>
       </c>
-      <c r="D83" s="82" t="s">
-        <v>707</v>
-      </c>
-      <c r="E83" s="73"/>
+      <c r="D83" s="78" t="s">
+        <v>705</v>
+      </c>
+      <c r="E83" s="69"/>
       <c r="H83" s="44"/>
     </row>
     <row r="84" spans="1:8" s="43" customFormat="1" ht="13" x14ac:dyDescent="0.25">
-      <c r="A84" s="56"/>
-      <c r="B84" s="62" t="s">
-        <v>376</v>
-      </c>
-      <c r="C84" s="81" t="str">
+      <c r="A84" s="83"/>
+      <c r="B84" s="58" t="s">
+        <v>374</v>
+      </c>
+      <c r="C84" s="77" t="str">
         <f t="shared" ref="C84:C90" si="2">RIGHT(D84,4)</f>
         <v>2015</v>
       </c>
-      <c r="D84" s="82" t="s">
-        <v>708</v>
-      </c>
-      <c r="E84" s="73"/>
+      <c r="D84" s="78" t="s">
+        <v>706</v>
+      </c>
+      <c r="E84" s="69"/>
       <c r="H84" s="44"/>
     </row>
     <row r="85" spans="1:8" s="43" customFormat="1" ht="13" x14ac:dyDescent="0.25">
-      <c r="A85" s="56"/>
-      <c r="B85" s="62" t="s">
-        <v>376</v>
-      </c>
-      <c r="C85" s="81" t="str">
+      <c r="A85" s="83"/>
+      <c r="B85" s="58" t="s">
+        <v>374</v>
+      </c>
+      <c r="C85" s="77" t="str">
         <f t="shared" si="2"/>
         <v>2015</v>
       </c>
-      <c r="D85" s="77" t="s">
-        <v>709</v>
-      </c>
-      <c r="E85" s="73"/>
+      <c r="D85" s="73" t="s">
+        <v>707</v>
+      </c>
+      <c r="E85" s="69"/>
       <c r="H85" s="44"/>
     </row>
     <row r="86" spans="1:8" s="43" customFormat="1" ht="13" x14ac:dyDescent="0.25">
-      <c r="A86" s="56"/>
-      <c r="B86" s="62" t="s">
-        <v>376</v>
-      </c>
-      <c r="C86" s="81" t="str">
+      <c r="A86" s="83"/>
+      <c r="B86" s="58" t="s">
+        <v>374</v>
+      </c>
+      <c r="C86" s="77" t="str">
         <f t="shared" si="2"/>
         <v>2016</v>
       </c>
-      <c r="D86" s="77" t="s">
-        <v>700</v>
-      </c>
-      <c r="E86" s="73"/>
+      <c r="D86" s="73" t="s">
+        <v>698</v>
+      </c>
+      <c r="E86" s="69"/>
       <c r="H86" s="44"/>
     </row>
     <row r="87" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="56"/>
-      <c r="B87" s="62" t="s">
-        <v>376</v>
-      </c>
-      <c r="C87" s="81" t="str">
+      <c r="A87" s="83"/>
+      <c r="B87" s="58" t="s">
+        <v>374</v>
+      </c>
+      <c r="C87" s="77" t="str">
         <f t="shared" si="2"/>
         <v>2016</v>
       </c>
-      <c r="D87" s="77" t="s">
-        <v>710</v>
-      </c>
-      <c r="E87" s="73"/>
+      <c r="D87" s="73" t="s">
+        <v>708</v>
+      </c>
+      <c r="E87" s="69"/>
     </row>
     <row r="88" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="56"/>
-      <c r="B88" s="62" t="s">
-        <v>376</v>
-      </c>
-      <c r="C88" s="81" t="str">
+      <c r="A88" s="83"/>
+      <c r="B88" s="58" t="s">
+        <v>374</v>
+      </c>
+      <c r="C88" s="77" t="str">
         <f t="shared" si="2"/>
         <v>2016</v>
       </c>
-      <c r="D88" s="77" t="s">
-        <v>700</v>
-      </c>
-      <c r="E88" s="73"/>
+      <c r="D88" s="73" t="s">
+        <v>698</v>
+      </c>
+      <c r="E88" s="69"/>
     </row>
     <row r="89" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="56">
+      <c r="A89" s="83">
         <v>8</v>
       </c>
-      <c r="B89" s="61" t="s">
-        <v>386</v>
-      </c>
-      <c r="C89" s="81" t="str">
+      <c r="B89" s="57" t="s">
+        <v>384</v>
+      </c>
+      <c r="C89" s="77" t="str">
         <f t="shared" si="2"/>
         <v>2016</v>
       </c>
-      <c r="D89" s="82" t="s">
-        <v>711</v>
-      </c>
-      <c r="E89" s="73"/>
+      <c r="D89" s="78" t="s">
+        <v>709</v>
+      </c>
+      <c r="E89" s="69"/>
     </row>
     <row r="90" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="56"/>
-      <c r="B90" s="61" t="s">
-        <v>386</v>
-      </c>
-      <c r="C90" s="81" t="str">
+      <c r="A90" s="83"/>
+      <c r="B90" s="57" t="s">
+        <v>384</v>
+      </c>
+      <c r="C90" s="77" t="str">
         <f t="shared" si="2"/>
         <v>2016</v>
       </c>
-      <c r="D90" s="82" t="s">
-        <v>712</v>
-      </c>
-      <c r="E90" s="73"/>
+      <c r="D90" s="78" t="s">
+        <v>710</v>
+      </c>
+      <c r="E90" s="69"/>
     </row>
     <row r="91" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="56"/>
-      <c r="B91" s="61" t="s">
-        <v>386</v>
-      </c>
-      <c r="C91" s="81" t="str">
+      <c r="A91" s="83"/>
+      <c r="B91" s="57" t="s">
+        <v>384</v>
+      </c>
+      <c r="C91" s="77" t="str">
         <f>RIGHT(D91,4)</f>
         <v>2016</v>
       </c>
-      <c r="D91" s="77" t="s">
-        <v>713</v>
-      </c>
-      <c r="E91" s="73"/>
+      <c r="D91" s="73" t="s">
+        <v>711</v>
+      </c>
+      <c r="E91" s="69"/>
     </row>
     <row r="92" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="56"/>
-      <c r="B92" s="61" t="s">
-        <v>386</v>
-      </c>
-      <c r="C92" s="81" t="str">
+      <c r="A92" s="83"/>
+      <c r="B92" s="57" t="s">
+        <v>384</v>
+      </c>
+      <c r="C92" s="77" t="str">
         <f t="shared" ref="C92:C94" si="3">RIGHT(D92,4)</f>
         <v>2017</v>
       </c>
-      <c r="D92" s="77" t="s">
-        <v>702</v>
-      </c>
-      <c r="E92" s="73"/>
+      <c r="D92" s="73" t="s">
+        <v>700</v>
+      </c>
+      <c r="E92" s="69"/>
     </row>
     <row r="93" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="56"/>
-      <c r="B93" s="61" t="s">
-        <v>386</v>
-      </c>
-      <c r="C93" s="81" t="str">
+      <c r="A93" s="83"/>
+      <c r="B93" s="57" t="s">
+        <v>384</v>
+      </c>
+      <c r="C93" s="77" t="str">
         <f t="shared" si="3"/>
         <v>2017</v>
       </c>
-      <c r="D93" s="77" t="s">
-        <v>714</v>
-      </c>
-      <c r="E93" s="73"/>
+      <c r="D93" s="73" t="s">
+        <v>712</v>
+      </c>
+      <c r="E93" s="69"/>
     </row>
     <row r="94" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="56"/>
-      <c r="B94" s="61" t="s">
-        <v>386</v>
-      </c>
-      <c r="C94" s="81" t="str">
+      <c r="A94" s="83"/>
+      <c r="B94" s="57" t="s">
+        <v>384</v>
+      </c>
+      <c r="C94" s="77" t="str">
         <f t="shared" si="3"/>
         <v>2017</v>
       </c>
-      <c r="D94" s="77" t="s">
-        <v>715</v>
-      </c>
-      <c r="E94" s="73"/>
+      <c r="D94" s="73" t="s">
+        <v>713</v>
+      </c>
+      <c r="E94" s="69"/>
     </row>
     <row r="95" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="58">
+      <c r="A95" s="85">
         <v>9</v>
       </c>
-      <c r="B95" s="63" t="s">
-        <v>394</v>
-      </c>
-      <c r="C95" s="72" t="s">
+      <c r="B95" s="59" t="s">
+        <v>392</v>
+      </c>
+      <c r="C95" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="D95" s="83">
+      <c r="D95" s="79">
         <v>30</v>
       </c>
-      <c r="E95" s="83"/>
+      <c r="E95" s="79"/>
     </row>
     <row r="96" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="59"/>
-      <c r="B96" s="63" t="s">
-        <v>394</v>
-      </c>
-      <c r="C96" s="72" t="s">
+      <c r="A96" s="86"/>
+      <c r="B96" s="59" t="s">
+        <v>392</v>
+      </c>
+      <c r="C96" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="D96" s="83">
+      <c r="D96" s="79">
         <v>29</v>
       </c>
-      <c r="E96" s="83"/>
+      <c r="E96" s="79"/>
     </row>
     <row r="97" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="56">
+      <c r="A97" s="83">
         <v>10</v>
       </c>
-      <c r="B97" s="61" t="s">
-        <v>716</v>
-      </c>
-      <c r="C97" s="83" t="str">
+      <c r="B97" s="57" t="s">
+        <v>714</v>
+      </c>
+      <c r="C97" s="79" t="str">
         <f>RIGHT(D97,4)</f>
         <v>2013</v>
       </c>
-      <c r="D97" s="72" t="s">
-        <v>717</v>
-      </c>
-      <c r="E97" s="83"/>
+      <c r="D97" s="68" t="s">
+        <v>715</v>
+      </c>
+      <c r="E97" s="79"/>
     </row>
     <row r="98" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="56"/>
-      <c r="B98" s="61" t="s">
-        <v>716</v>
-      </c>
-      <c r="C98" s="83" t="str">
+      <c r="A98" s="83"/>
+      <c r="B98" s="57" t="s">
+        <v>714</v>
+      </c>
+      <c r="C98" s="79" t="str">
         <f t="shared" ref="C98:C101" si="4">RIGHT(D98,4)</f>
         <v>2014</v>
       </c>
-      <c r="D98" s="72" t="s">
-        <v>718</v>
-      </c>
-      <c r="E98" s="83"/>
+      <c r="D98" s="68" t="s">
+        <v>716</v>
+      </c>
+      <c r="E98" s="79"/>
     </row>
     <row r="99" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="56"/>
-      <c r="B99" s="61" t="s">
-        <v>716</v>
-      </c>
-      <c r="C99" s="83" t="str">
+      <c r="A99" s="83"/>
+      <c r="B99" s="57" t="s">
+        <v>714</v>
+      </c>
+      <c r="C99" s="79" t="str">
         <f t="shared" si="4"/>
         <v>2014</v>
       </c>
-      <c r="D99" s="72" t="s">
-        <v>719</v>
-      </c>
-      <c r="E99" s="83"/>
+      <c r="D99" s="68" t="s">
+        <v>717</v>
+      </c>
+      <c r="E99" s="79"/>
     </row>
     <row r="100" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="56"/>
-      <c r="B100" s="61" t="s">
-        <v>716</v>
-      </c>
-      <c r="C100" s="83" t="str">
+      <c r="A100" s="83"/>
+      <c r="B100" s="57" t="s">
+        <v>714</v>
+      </c>
+      <c r="C100" s="79" t="str">
         <f t="shared" si="4"/>
         <v>2015</v>
       </c>
-      <c r="D100" s="72" t="s">
-        <v>720</v>
-      </c>
-      <c r="E100" s="83"/>
+      <c r="D100" s="68" t="s">
+        <v>718</v>
+      </c>
+      <c r="E100" s="79"/>
     </row>
     <row r="101" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="56"/>
-      <c r="B101" s="61" t="s">
-        <v>716</v>
-      </c>
-      <c r="C101" s="83" t="str">
+      <c r="A101" s="83"/>
+      <c r="B101" s="57" t="s">
+        <v>714</v>
+      </c>
+      <c r="C101" s="79" t="str">
         <f t="shared" si="4"/>
         <v>2016</v>
       </c>
-      <c r="D101" s="72" t="s">
-        <v>721</v>
-      </c>
-      <c r="E101" s="73"/>
+      <c r="D101" s="68" t="s">
+        <v>719</v>
+      </c>
+      <c r="E101" s="69"/>
     </row>
     <row r="102" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="56">
+      <c r="A102" s="83">
         <v>11</v>
       </c>
-      <c r="B102" s="64" t="s">
-        <v>418</v>
-      </c>
-      <c r="C102" s="84"/>
-      <c r="D102" s="79" t="s">
-        <v>670</v>
-      </c>
-      <c r="E102" s="73"/>
+      <c r="B102" s="60" t="s">
+        <v>416</v>
+      </c>
+      <c r="C102" s="80"/>
+      <c r="D102" s="75" t="s">
+        <v>668</v>
+      </c>
+      <c r="E102" s="69"/>
     </row>
     <row r="103" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="57"/>
-      <c r="B103" s="64" t="s">
-        <v>418</v>
-      </c>
-      <c r="C103" s="84"/>
-      <c r="D103" s="79" t="s">
-        <v>671</v>
-      </c>
-      <c r="E103" s="73"/>
+      <c r="A103" s="84"/>
+      <c r="B103" s="60" t="s">
+        <v>416</v>
+      </c>
+      <c r="C103" s="80"/>
+      <c r="D103" s="75" t="s">
+        <v>669</v>
+      </c>
+      <c r="E103" s="69"/>
     </row>
     <row r="104" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A104" s="51">
         <v>12</v>
       </c>
-      <c r="B104" s="65" t="s">
-        <v>426</v>
-      </c>
-      <c r="C104" s="72" t="s">
+      <c r="B104" s="61" t="s">
+        <v>424</v>
+      </c>
+      <c r="C104" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="D104" s="75" t="s">
-        <v>722</v>
-      </c>
-      <c r="E104" s="73"/>
+      <c r="D104" s="71" t="s">
+        <v>720</v>
+      </c>
+      <c r="E104" s="69"/>
     </row>
     <row r="105" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A105" s="51">
         <v>13</v>
       </c>
-      <c r="B105" s="65" t="s">
-        <v>439</v>
-      </c>
-      <c r="C105" s="74"/>
-      <c r="D105" s="73">
+      <c r="B105" s="61" t="s">
+        <v>437</v>
+      </c>
+      <c r="C105" s="70"/>
+      <c r="D105" s="69">
         <v>7</v>
       </c>
-      <c r="E105" s="73"/>
+      <c r="E105" s="69"/>
     </row>
     <row r="106" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A106" s="52">
         <v>14</v>
       </c>
-      <c r="B106" s="66" t="s">
-        <v>445</v>
-      </c>
-      <c r="C106" s="74"/>
-      <c r="D106" s="85"/>
-      <c r="E106" s="85"/>
+      <c r="B106" s="62" t="s">
+        <v>443</v>
+      </c>
+      <c r="C106" s="70"/>
+      <c r="D106" s="81"/>
+      <c r="E106" s="81"/>
     </row>
     <row r="107" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="52">
         <v>15</v>
       </c>
-      <c r="B107" s="67" t="s">
-        <v>455</v>
-      </c>
-      <c r="C107" s="72" t="s">
+      <c r="B107" s="63" t="s">
+        <v>453</v>
+      </c>
+      <c r="C107" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="D107" s="86" t="s">
-        <v>723</v>
-      </c>
-      <c r="E107" s="85"/>
+      <c r="D107" s="82" t="s">
+        <v>721</v>
+      </c>
+      <c r="E107" s="81"/>
     </row>
     <row r="108" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="52">
         <v>16</v>
       </c>
-      <c r="B108" s="66" t="s">
-        <v>460</v>
-      </c>
-      <c r="C108" s="72" t="s">
+      <c r="B108" s="62" t="s">
+        <v>458</v>
+      </c>
+      <c r="C108" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="D108" s="86" t="s">
-        <v>724</v>
-      </c>
-      <c r="E108" s="85"/>
+      <c r="D108" s="82" t="s">
+        <v>722</v>
+      </c>
+      <c r="E108" s="81"/>
     </row>
     <row r="109" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A109" s="32"/>
@@ -27333,22 +27269,22 @@
     <mergeCell ref="A83:A88"/>
   </mergeCells>
   <conditionalFormatting sqref="B112 F9 F38 F63">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="8">
       <formula>LEN(TRIM(B9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="7">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="7">
       <formula>LEN(TRIM(F46))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="6">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="6">
       <formula>LEN(TRIM(F52))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="5">
       <formula>LEN(TRIM(F59))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27398,119 +27334,119 @@
         <v>3</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
+        <v>550</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>551</v>
+      </c>
+      <c r="C2" s="25" t="s">
         <v>552</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="D2" s="27" t="s">
         <v>553</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>554</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
+        <v>554</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>555</v>
+      </c>
+      <c r="C3" s="25" t="s">
         <v>556</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>557</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>558</v>
-      </c>
       <c r="D3" s="27" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B4" s="23" t="s">
         <v>113</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
+        <v>559</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>560</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>561</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="D5" s="27" t="s">
         <v>562</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>563</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
+        <v>563</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>564</v>
+      </c>
+      <c r="C6" s="25" t="s">
         <v>565</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>566</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>567</v>
-      </c>
       <c r="D6" s="27" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
+        <v>566</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>567</v>
+      </c>
+      <c r="C7" s="25" t="s">
         <v>568</v>
       </c>
-      <c r="B7" s="23" t="s">
-        <v>569</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>570</v>
-      </c>
       <c r="D7" s="27" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
+        <v>569</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>570</v>
+      </c>
+      <c r="C8" s="25" t="s">
         <v>571</v>
       </c>
-      <c r="B8" s="23" t="s">
-        <v>572</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>573</v>
-      </c>
       <c r="D8" s="27" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
+        <v>572</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>573</v>
+      </c>
+      <c r="C9" s="25" t="s">
         <v>574</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>575</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>576</v>
-      </c>
       <c r="D9" s="27" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -27521,525 +27457,525 @@
         <v>160</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B11" s="23" t="s">
+        <v>560</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>577</v>
+      </c>
+      <c r="D11" s="27" t="s">
         <v>562</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>579</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
+        <v>578</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>579</v>
+      </c>
+      <c r="C12" s="25" t="s">
         <v>580</v>
       </c>
-      <c r="B12" s="23" t="s">
-        <v>581</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>582</v>
-      </c>
       <c r="D12" s="27" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
+        <v>581</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>582</v>
+      </c>
+      <c r="C13" s="25" t="s">
         <v>583</v>
       </c>
-      <c r="B13" s="23" t="s">
-        <v>584</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>585</v>
-      </c>
       <c r="D13" s="27" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
+        <v>586</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>587</v>
+      </c>
+      <c r="C15" s="25" t="s">
         <v>588</v>
       </c>
-      <c r="B15" s="23" t="s">
-        <v>589</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>590</v>
-      </c>
       <c r="D15" s="27" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
+        <v>589</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>590</v>
+      </c>
+      <c r="C16" s="25" t="s">
         <v>591</v>
       </c>
-      <c r="B16" s="23" t="s">
-        <v>592</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>593</v>
-      </c>
       <c r="D16" s="27" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
+        <v>592</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>593</v>
+      </c>
+      <c r="C17" s="25" t="s">
         <v>594</v>
       </c>
-      <c r="B17" s="23" t="s">
-        <v>595</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>596</v>
-      </c>
       <c r="D17" s="27" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
+        <v>595</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>596</v>
+      </c>
+      <c r="C18" s="25" t="s">
         <v>597</v>
       </c>
-      <c r="B18" s="23" t="s">
-        <v>598</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>599</v>
-      </c>
       <c r="D18" s="27" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C19" s="25" t="s">
         <v>39</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
+        <v>600</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>601</v>
+      </c>
+      <c r="C20" s="25" t="s">
         <v>602</v>
       </c>
-      <c r="B20" s="23" t="s">
-        <v>603</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>604</v>
-      </c>
       <c r="D20" s="27" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
+        <v>603</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>604</v>
+      </c>
+      <c r="C21" s="25" t="s">
         <v>605</v>
       </c>
-      <c r="B21" s="23" t="s">
-        <v>606</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>607</v>
-      </c>
       <c r="D21" s="27" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
+        <v>606</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>607</v>
+      </c>
+      <c r="C22" s="25" t="s">
         <v>608</v>
       </c>
-      <c r="B22" s="23" t="s">
-        <v>609</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>610</v>
-      </c>
       <c r="D22" s="27" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>347</v>
+      </c>
+      <c r="C23" s="25" t="s">
         <v>348</v>
       </c>
-      <c r="B23" s="23" t="s">
-        <v>349</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>350</v>
-      </c>
       <c r="D23" s="27" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
+        <v>611</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>612</v>
+      </c>
+      <c r="C25" s="25" t="s">
         <v>613</v>
       </c>
-      <c r="B25" s="23" t="s">
-        <v>614</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>615</v>
-      </c>
       <c r="D25" s="27" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
+        <v>618</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>619</v>
+      </c>
+      <c r="C28" s="25" t="s">
         <v>620</v>
       </c>
-      <c r="B28" s="23" t="s">
-        <v>621</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>622</v>
-      </c>
       <c r="D28" s="27" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
+        <v>621</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>622</v>
+      </c>
+      <c r="C29" s="25" t="s">
         <v>623</v>
       </c>
-      <c r="B29" s="23" t="s">
-        <v>624</v>
-      </c>
-      <c r="C29" s="25" t="s">
-        <v>625</v>
-      </c>
       <c r="D29" s="27" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B31" s="28"/>
       <c r="C31" s="25" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B32" s="28"/>
       <c r="C32" s="25" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
+        <v>628</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>629</v>
+      </c>
+      <c r="C33" s="25" t="s">
         <v>630</v>
       </c>
-      <c r="B33" s="23" t="s">
-        <v>631</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>632</v>
-      </c>
       <c r="D33" s="27" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="C34" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="B34" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>254</v>
-      </c>
       <c r="D34" s="27" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B35" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="C35" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="C35" s="25" t="s">
-        <v>266</v>
-      </c>
       <c r="D35" s="27" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
+        <v>636</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>637</v>
+      </c>
+      <c r="C38" s="29" t="s">
         <v>638</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="D38" s="27" t="s">
+        <v>562</v>
+      </c>
+      <c r="E38" s="30" t="s">
         <v>639</v>
-      </c>
-      <c r="C38" s="29" t="s">
-        <v>640</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>564</v>
-      </c>
-      <c r="E38" s="30" t="s">
-        <v>641</v>
       </c>
       <c r="F38" s="30"/>
       <c r="G38" s="31" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="s">
+        <v>641</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>642</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>556</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>562</v>
+      </c>
+      <c r="E39" s="30" t="s">
         <v>643</v>
-      </c>
-      <c r="B39" s="23" t="s">
-        <v>644</v>
-      </c>
-      <c r="C39" s="29" t="s">
-        <v>558</v>
-      </c>
-      <c r="D39" s="27" t="s">
-        <v>564</v>
-      </c>
-      <c r="E39" s="30" t="s">
-        <v>645</v>
       </c>
       <c r="F39" s="30"/>
       <c r="G39" s="31" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="s">
+        <v>644</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>451</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>645</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>562</v>
+      </c>
+      <c r="E40" s="30" t="s">
         <v>646</v>
-      </c>
-      <c r="B40" s="23" t="s">
-        <v>453</v>
-      </c>
-      <c r="C40" s="29" t="s">
-        <v>647</v>
-      </c>
-      <c r="D40" s="27" t="s">
-        <v>564</v>
-      </c>
-      <c r="E40" s="30" t="s">
-        <v>648</v>
       </c>
       <c r="F40" s="30"/>
       <c r="G40" s="31" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="23" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B41" s="28"/>
       <c r="C41" s="29" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E41" s="30" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F41" s="30"/>
       <c r="G41" s="31" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="23" t="s">
+        <v>649</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>650</v>
+      </c>
+      <c r="C42" s="29" t="s">
         <v>651</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="D42" s="27" t="s">
+        <v>562</v>
+      </c>
+      <c r="E42" s="30" t="s">
         <v>652</v>
-      </c>
-      <c r="C42" s="29" t="s">
-        <v>653</v>
-      </c>
-      <c r="D42" s="27" t="s">
-        <v>564</v>
-      </c>
-      <c r="E42" s="30" t="s">
-        <v>654</v>
       </c>
       <c r="F42" s="30"/>
       <c r="G42" s="31" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="23" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D43" s="24"/>
     </row>
     <row r="44" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A44" s="23" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D44" s="24"/>
     </row>
     <row r="45" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="23" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D45" s="24"/>
     </row>
     <row r="46" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="23" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D46" s="24"/>
     </row>
     <row r="47" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="23" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D47" s="24"/>
     </row>
     <row r="48" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A48" s="23" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D48" s="24"/>
     </row>
     <row r="49" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="23" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D49" s="24"/>
     </row>
